--- a/test/Расшифровка ЭО BIQ5257.xlsx
+++ b/test/Расшифровка ЭО BIQ5257.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Эрнест\Documents\GitHub\Diplom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\info\Эрнест\git\Diplom\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="168">
   <si>
     <t>Разработка</t>
   </si>
@@ -1137,36 +1137,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
@@ -1180,6 +1150,36 @@
     <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1205,24 +1205,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1423,6 +1405,24 @@
       </font>
       <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1442,23 +1442,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="B7:L24" totalsRowShown="0" headerRowDxfId="1" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="B7:L24" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="B7:L24"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Наименование работы в оценке" dataDxfId="11"/>
-    <tableColumn id="2" name="Наименование работы в MS Project" dataDxfId="10"/>
-    <tableColumn id="3" name="Предшественники" dataDxfId="9"/>
-    <tableColumn id="4" name="Тип Работы" dataDxfId="8"/>
-    <tableColumn id="5" name="Исполнители" dataDxfId="7">
+    <tableColumn id="1" name="Наименование работы в оценке" dataDxfId="10"/>
+    <tableColumn id="2" name="Наименование работы в MS Project" dataDxfId="9"/>
+    <tableColumn id="3" name="Предшественники" dataDxfId="8"/>
+    <tableColumn id="4" name="Тип Работы" dataDxfId="7"/>
+    <tableColumn id="5" name="Исполнители" dataDxfId="6">
       <calculatedColumnFormula>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Часы" dataDxfId="6">
+    <tableColumn id="6" name="Часы" dataDxfId="5">
       <calculatedColumnFormula>Оценка!D8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Проценты" dataDxfId="5"/>
-    <tableColumn id="8" name="Исполнитель" dataDxfId="4"/>
-    <tableColumn id="9" name="Группа" dataDxfId="3"/>
-    <tableColumn id="10" name="Функциональная область" dataDxfId="2"/>
+    <tableColumn id="7" name="Проценты" dataDxfId="4"/>
+    <tableColumn id="8" name="Исполнитель" dataDxfId="3"/>
+    <tableColumn id="9" name="Группа" dataDxfId="2"/>
+    <tableColumn id="10" name="Функциональная область" dataDxfId="1"/>
     <tableColumn id="11" name="Тег" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1840,11 +1840,11 @@
       <c r="S6" s="5"/>
     </row>
     <row r="7" spans="1:20" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="22" t="s">
         <v>51</v>
       </c>
@@ -1861,7 +1861,7 @@
       <c r="S7" s="5"/>
     </row>
     <row r="8" spans="1:20" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="89" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -1893,8 +1893,8 @@
       <c r="S8" s="5"/>
     </row>
     <row r="9" spans="1:20" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="83"/>
-      <c r="B9" s="81" t="s">
+      <c r="A9" s="89"/>
+      <c r="B9" s="87" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="69" t="s">
@@ -1923,8 +1923,8 @@
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
-      <c r="B10" s="81"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="87"/>
       <c r="C10" s="30" t="s">
         <v>23</v>
       </c>
@@ -1951,8 +1951,8 @@
       <c r="S10" s="5"/>
     </row>
     <row r="11" spans="1:20" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="83"/>
-      <c r="B11" s="81" t="s">
+      <c r="A11" s="89"/>
+      <c r="B11" s="87" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="69" t="s">
@@ -1982,8 +1982,8 @@
       <c r="T11" s="5"/>
     </row>
     <row r="12" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="83"/>
-      <c r="B12" s="81"/>
+      <c r="A12" s="89"/>
+      <c r="B12" s="87"/>
       <c r="C12" s="30" t="s">
         <v>6</v>
       </c>
@@ -2006,8 +2006,8 @@
       <c r="T12" s="5"/>
     </row>
     <row r="13" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="83"/>
-      <c r="B13" s="81" t="s">
+      <c r="A13" s="89"/>
+      <c r="B13" s="87" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="30" t="s">
@@ -2037,8 +2037,8 @@
       <c r="T13" s="5"/>
     </row>
     <row r="14" spans="1:20" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="83"/>
-      <c r="B14" s="81"/>
+      <c r="A14" s="89"/>
+      <c r="B14" s="87"/>
       <c r="C14" s="69" t="s">
         <v>7</v>
       </c>
@@ -2066,8 +2066,8 @@
       <c r="T14" s="5"/>
     </row>
     <row r="15" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="83"/>
-      <c r="B15" s="81" t="s">
+      <c r="A15" s="89"/>
+      <c r="B15" s="87" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="30" t="s">
@@ -2097,8 +2097,8 @@
       <c r="T15" s="5"/>
     </row>
     <row r="16" spans="1:20" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="83"/>
-      <c r="B16" s="81"/>
+      <c r="A16" s="89"/>
+      <c r="B16" s="87"/>
       <c r="C16" s="30" t="s">
         <v>30</v>
       </c>
@@ -2119,7 +2119,7 @@
       <c r="T16" s="5"/>
     </row>
     <row r="17" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="83"/>
+      <c r="A17" s="89"/>
       <c r="B17" s="12" t="s">
         <v>31</v>
       </c>
@@ -2143,8 +2143,8 @@
       <c r="T17" s="5"/>
     </row>
     <row r="18" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="83"/>
-      <c r="B18" s="81" t="s">
+      <c r="A18" s="89"/>
+      <c r="B18" s="87" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -2167,8 +2167,8 @@
       <c r="T18" s="5"/>
     </row>
     <row r="19" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="83"/>
-      <c r="B19" s="81"/>
+      <c r="A19" s="89"/>
+      <c r="B19" s="87"/>
       <c r="C19" s="30" t="s">
         <v>16</v>
       </c>
@@ -2189,7 +2189,7 @@
       <c r="T19" s="5"/>
     </row>
     <row r="20" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="83"/>
+      <c r="A20" s="89"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9" t="s">
         <v>48</v>
@@ -2210,10 +2210,10 @@
       <c r="T20" s="5"/>
     </row>
     <row r="21" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="82" t="s">
+      <c r="A21" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="88" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="31" t="s">
@@ -2237,8 +2237,8 @@
       <c r="T21" s="5"/>
     </row>
     <row r="22" spans="1:20" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="82"/>
-      <c r="B22" s="82"/>
+      <c r="A22" s="88"/>
+      <c r="B22" s="88"/>
       <c r="C22" s="69" t="s">
         <v>37</v>
       </c>
@@ -2259,8 +2259,8 @@
       <c r="T22" s="5"/>
     </row>
     <row r="23" spans="1:20" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="82"/>
-      <c r="B23" s="82"/>
+      <c r="A23" s="88"/>
+      <c r="B23" s="88"/>
       <c r="C23" s="31" t="s">
         <v>38</v>
       </c>
@@ -2282,7 +2282,7 @@
       <c r="T23" s="5"/>
     </row>
     <row r="24" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="82"/>
+      <c r="A24" s="88"/>
       <c r="B24" s="10"/>
       <c r="C24" s="33" t="s">
         <v>47</v>
@@ -2526,52 +2526,52 @@
       <c r="B6" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="86" t="s">
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
       <c r="B7" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86" t="s">
+      <c r="D7" s="90"/>
+      <c r="E7" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86" t="s">
+      <c r="F7" s="90"/>
+      <c r="G7" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86" t="s">
+      <c r="H7" s="90"/>
+      <c r="I7" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86" t="s">
+      <c r="J7" s="90"/>
+      <c r="K7" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86" t="s">
+      <c r="L7" s="90"/>
+      <c r="M7" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="N7" s="86"/>
+      <c r="N7" s="90"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
@@ -2660,7 +2660,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="95" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="59" t="s">
@@ -2704,7 +2704,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="85"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="59" t="s">
         <v>23</v>
       </c>
@@ -2746,7 +2746,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="95" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="59" t="s">
@@ -2790,7 +2790,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="85"/>
+      <c r="A13" s="95"/>
       <c r="B13" s="59" t="s">
         <v>6</v>
       </c>
@@ -2832,7 +2832,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="95" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="59" t="s">
@@ -2876,7 +2876,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="85"/>
+      <c r="A15" s="95"/>
       <c r="B15" s="59" t="s">
         <v>7</v>
       </c>
@@ -2918,7 +2918,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="85" t="s">
+      <c r="A16" s="95" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="59" t="s">
@@ -2962,7 +2962,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="85"/>
+      <c r="A17" s="95"/>
       <c r="B17" s="59" t="s">
         <v>30</v>
       </c>
@@ -3048,7 +3048,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="85" t="s">
+      <c r="A19" s="95" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="59" t="s">
@@ -3092,7 +3092,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="85"/>
+      <c r="A20" s="95"/>
       <c r="B20" s="59" t="s">
         <v>16</v>
       </c>
@@ -3188,7 +3188,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="84" t="s">
+      <c r="A22" s="94" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="56" t="s">
@@ -3232,7 +3232,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="84"/>
+      <c r="A23" s="94"/>
       <c r="B23" s="56" t="s">
         <v>37</v>
       </c>
@@ -3274,7 +3274,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="84"/>
+      <c r="A24" s="94"/>
       <c r="B24" s="56" t="s">
         <v>38</v>
       </c>
@@ -3372,281 +3372,287 @@
       <c r="P25" s="73"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="94" t="s">
+      <c r="A27" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="B27" s="95" t="s">
+      <c r="B27" s="85" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="B28" s="93" t="s">
+      <c r="B28" s="83" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="92" t="s">
+      <c r="A29" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="93" t="s">
+      <c r="B29" s="83" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="92" t="s">
+      <c r="A30" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="B30" s="93" t="s">
+      <c r="B30" s="83" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="92" t="s">
+      <c r="A31" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="B31" s="93" t="s">
+      <c r="B31" s="83" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="92" t="s">
+      <c r="A32" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="B32" s="93" t="s">
+      <c r="B32" s="83" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="92" t="s">
+      <c r="A33" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="B33" s="93" t="s">
+      <c r="B33" s="83" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="92" t="s">
+      <c r="A34" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="B34" s="93" t="s">
+      <c r="B34" s="83" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="93" t="s">
+      <c r="B35" s="83" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="93" t="s">
+      <c r="B36" s="83" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="93" t="s">
+      <c r="B37" s="83" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B38" s="93" t="s">
+      <c r="B38" s="83" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="93" t="s">
+      <c r="B39" s="83" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="93" t="s">
+      <c r="B40" s="83" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B41" s="93" t="s">
+      <c r="B41" s="83" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="93" t="s">
+      <c r="B42" s="83" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="93" t="s">
+      <c r="B43" s="83" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="93" t="s">
+      <c r="B44" s="83" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="93" t="s">
+      <c r="B45" s="83" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="93" t="s">
+      <c r="B46" s="83" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="93" t="s">
+      <c r="B47" s="83" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="93" t="s">
+      <c r="B48" s="83" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="93" t="s">
+      <c r="B49" s="83" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="93" t="s">
+      <c r="B50" s="83" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="93" t="s">
+      <c r="B51" s="83" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="93" t="s">
+      <c r="B52" s="83" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="53" spans="2:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="B53" s="93" t="s">
+      <c r="B53" s="83" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="93" t="s">
+      <c r="B54" s="83" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="93" t="s">
+      <c r="B55" s="83" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="93" t="s">
+      <c r="B56" s="83" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="93" t="s">
+      <c r="B57" s="83" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="93" t="s">
+      <c r="B58" s="83" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="93" t="s">
+      <c r="B59" s="83" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="93" t="s">
+      <c r="B60" s="83" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="93" t="s">
+      <c r="B61" s="83" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="93" t="s">
+      <c r="B62" s="83" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="93" t="s">
+      <c r="B63" s="83" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="93" t="s">
+      <c r="B64" s="83" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="65" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B65" s="93" t="s">
+      <c r="B65" s="83" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="93" t="s">
+      <c r="B66" s="83" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="67" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B67" s="93" t="s">
+      <c r="B67" s="83" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="93" t="s">
+      <c r="B68" s="83" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="93" t="s">
+      <c r="B69" s="83" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="93" t="s">
+      <c r="B70" s="83" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="93" t="s">
+      <c r="B71" s="83" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="72" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B72" s="93" t="s">
+      <c r="B72" s="83" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="93" t="s">
+      <c r="B73" s="83" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="93" t="s">
+      <c r="B74" s="83" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="75" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B75" s="93" t="s">
+      <c r="B75" s="83" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="76" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B76" s="93" t="s">
+      <c r="B76" s="83" t="s">
         <v>166</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A19:A20"/>
     <mergeCell ref="I6:N6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
@@ -3655,12 +3661,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="C6:H6"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3671,8 +3671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="216.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3747,7 +3747,7 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="80" t="s">
         <v>94</v>
       </c>
       <c r="B7" s="14" t="s">
@@ -3765,13 +3765,13 @@
       <c r="F7" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G7" s="91" t="s">
+      <c r="G7" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="H7" s="91" t="s">
+      <c r="H7" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="I7" s="91" t="s">
+      <c r="I7" s="81" t="s">
         <v>105</v>
       </c>
       <c r="J7" s="15" t="s">
@@ -3812,7 +3812,9 @@
       <c r="I8" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
@@ -4412,6 +4414,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x0101001FBA738D46B8C545A6D67A5D9179E626" ma:contentTypeVersion="0" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="9f473e0b291382668614debc5d36aa4f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="02f955febea7e716b4e91cddba171100">
     <xsd:element name="properties">
@@ -4525,33 +4542,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D38F7E9-60F0-4769-BD1B-491B9D9189ED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B50A027-145D-4944-89ED-C0E81732859B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4572,9 +4566,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B50A027-145D-4944-89ED-C0E81732859B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D38F7E9-60F0-4769-BD1B-491B9D9189ED}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/test/Расшифровка ЭО BIQ5257.xlsx
+++ b/test/Расшифровка ЭО BIQ5257.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Эрнест\Documents\GitHub\Diplom\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\info\Эрнест\Diplom\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="9435" tabRatio="735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="9435" tabRatio="735" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Оценка" sheetId="25" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="168">
   <si>
     <t>Разработка</t>
   </si>
@@ -927,7 +927,7 @@
     <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="justify"/>
@@ -1063,9 +1063,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify"/>
-    </xf>
     <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1158,6 +1155,9 @@
     <xf numFmtId="0" fontId="11" fillId="16" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1170,31 +1170,28 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify"/>
     </xf>
   </cellXfs>
@@ -1416,7 +1413,7 @@
       <calculatedColumnFormula>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="Часы" dataDxfId="2">
-      <calculatedColumnFormula>Оценка!D8</calculatedColumnFormula>
+      <calculatedColumnFormula>Оценка!D11</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" name="Проценты" dataDxfId="1"/>
     <tableColumn id="8" name="Исполнитель" dataDxfId="0"/>
@@ -1712,10 +1709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD28"/>
+  <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1726,636 +1723,605 @@
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" style="15" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12" style="1" customWidth="1"/>
-    <col min="14" max="18" width="13.5703125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" customWidth="1"/>
-    <col min="21" max="22" width="13.85546875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="17.7109375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" style="1" customWidth="1"/>
-    <col min="25" max="30" width="9.140625" customWidth="1"/>
-    <col min="31" max="16384" width="8.85546875" style="1"/>
+    <col min="7" max="7" width="8.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="1" customWidth="1"/>
+    <col min="11" max="15" width="13.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" customWidth="1"/>
+    <col min="18" max="19" width="13.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" style="1" customWidth="1"/>
+    <col min="22" max="27" width="9.140625" customWidth="1"/>
+    <col min="28" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="5"/>
-      <c r="T1" s="5"/>
-    </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="Q1" s="5"/>
+    </row>
+    <row r="2" spans="1:17" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5"/>
-      <c r="T2" s="5"/>
-    </row>
-    <row r="3" spans="1:20" s="4" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="F2" s="75"/>
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" spans="1:17" s="4" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="L3" s="70"/>
-      <c r="S3" s="5"/>
-    </row>
-    <row r="4" spans="1:20" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="I3" s="69"/>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="1:17" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="49"/>
-      <c r="S4" s="5"/>
-    </row>
-    <row r="5" spans="1:20" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="S5" s="5"/>
-    </row>
-    <row r="6" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="S6" s="5"/>
-    </row>
-    <row r="7" spans="1:20" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="86" t="s">
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:17" s="75" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="97" t="s">
+        <v>120</v>
+      </c>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="1:17" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="96"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:17" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:17" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="22" t="s">
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E10" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F10" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="96" t="s">
-        <v>118</v>
-      </c>
-      <c r="H7" s="96" t="s">
-        <v>167</v>
-      </c>
-      <c r="I7" s="96" t="s">
-        <v>110</v>
-      </c>
-      <c r="L7" s="9" t="s">
+      <c r="I10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="11"/>
-      <c r="S7" s="5"/>
-    </row>
-    <row r="8" spans="1:20" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="89" t="s">
+      <c r="J10" s="11"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="1:17" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C11" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D11" s="39">
         <v>16</v>
       </c>
-      <c r="E8" s="50">
+      <c r="E11" s="49">
         <f>IF(Справочники!$O$1=1,Справочники!$C9,  IF(Справочники!$O$1=2,Справочники!$D9,  IF(Справочники!$O$1=3,Справочники!$E9,  IF(Справочники!$O$1=4,Справочники!$F9, IF(Справочники!$O$1=5,Справочники!$G9, IF(Справочники!$O$1=6,Справочники!$H9,
 IF(Справочники!$O$1=7,Справочники!$I9,IF(Справочники!$O$1=8,Справочники!$J9,IF(Справочники!$O$1=9,Справочники!$K9,
 IF(Справочники!$O$1=10,Справочники!$L9,IF(Справочники!$O$1=11,Справочники!$M9,IF(Справочники!$O$1=12,Справочники!$N9,0))))))))))))</f>
         <v>0.09</v>
       </c>
-      <c r="F8" s="50">
-        <f>ROUND(D8,0)/$D$20</f>
+      <c r="F11" s="49">
+        <f>ROUND(D11,0)/$D$23</f>
         <v>0.13008130081300814</v>
       </c>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="L8" s="16" t="s">
+      <c r="I11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="41">
-        <f>D20/8</f>
+      <c r="J11" s="41">
+        <f>D23/8</f>
         <v>15.375</v>
       </c>
-      <c r="S8" s="5"/>
-    </row>
-    <row r="9" spans="1:20" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="89"/>
-      <c r="B9" s="87" t="s">
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="1:17" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="89"/>
+      <c r="B12" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C12" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D12" s="40">
         <v>5</v>
       </c>
-      <c r="E9" s="50">
+      <c r="E12" s="49">
         <f>IF(Справочники!$O$1=1,Справочники!$C10,  IF(Справочники!$O$1=2,Справочники!$D10,  IF(Справочники!$O$1=3,Справочники!$E10,  IF(Справочники!$O$1=4,Справочники!$F10, IF(Справочники!$O$1=5,Справочники!$G10, IF(Справочники!$O$1=6,Справочники!$H10,
 IF(Справочники!$O$1=7,Справочники!$I10,IF(Справочники!$O$1=8,Справочники!$J10,IF(Справочники!$O$1=9,Справочники!$K10,
 IF(Справочники!$O$1=10,Справочники!$L10,IF(Справочники!$O$1=11,Справочники!$M10,IF(Справочники!$O$1=12,Справочники!$N10,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="F9" s="50">
-        <f t="shared" ref="F9:F19" si="0">ROUND(D9,0)/$D$20</f>
+      <c r="F12" s="49">
+        <f t="shared" ref="F12:F22" si="0">ROUND(D12,0)/$D$23</f>
         <v>4.065040650406504E-2</v>
       </c>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="L9" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="M9" s="41">
-        <f>D24/8</f>
+      <c r="I12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="41">
+        <f>D27/8</f>
         <v>10</v>
       </c>
-      <c r="S9" s="5"/>
-    </row>
-    <row r="10" spans="1:20" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="89"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="30" t="s">
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:17" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="89"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D13" s="39">
         <v>5</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E13" s="49">
         <f>IF(Справочники!$O$1=1,Справочники!$C11,  IF(Справочники!$O$1=2,Справочники!$D11,  IF(Справочники!$O$1=3,Справочники!$E11,  IF(Справочники!$O$1=4,Справочники!$F11, IF(Справочники!$O$1=5,Справочники!$G11, IF(Справочники!$O$1=6,Справочники!$H11,
 IF(Справочники!$O$1=7,Справочники!$I11,IF(Справочники!$O$1=8,Справочники!$J11,IF(Справочники!$O$1=9,Справочники!$K11,
 IF(Справочники!$O$1=10,Справочники!$L11,IF(Справочники!$O$1=11,Справочники!$M11,IF(Справочники!$O$1=12,Справочники!$N11,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="F10" s="50">
+      <c r="F13" s="49">
         <f t="shared" si="0"/>
         <v>4.065040650406504E-2</v>
       </c>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="L10" s="17" t="s">
+      <c r="I13" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="42">
-        <f>SUM(M8:M9)</f>
+      <c r="J13" s="42">
+        <f>SUM(J11:J12)</f>
         <v>25.375</v>
       </c>
-      <c r="S10" s="5"/>
-    </row>
-    <row r="11" spans="1:20" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="89"/>
-      <c r="B11" s="87" t="s">
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="1:17" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="89"/>
+      <c r="B14" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C14" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D14" s="40">
         <v>9</v>
       </c>
-      <c r="E11" s="50">
+      <c r="E14" s="49">
         <f>IF(Справочники!$O$1=1,Справочники!$C12,  IF(Справочники!$O$1=2,Справочники!$D12,  IF(Справочники!$O$1=3,Справочники!$E12,  IF(Справочники!$O$1=4,Справочники!$F12, IF(Справочники!$O$1=5,Справочники!$G12, IF(Справочники!$O$1=6,Справочники!$H12,
 IF(Справочники!$O$1=7,Справочники!$I12,IF(Справочники!$O$1=8,Справочники!$J12,IF(Справочники!$O$1=9,Справочники!$K12,
 IF(Справочники!$O$1=10,Справочники!$L12,IF(Справочники!$O$1=11,Справочники!$M12,IF(Справочники!$O$1=12,Справочники!$N12,0))))))))))))</f>
         <v>0.4</v>
       </c>
-      <c r="F11" s="50">
+      <c r="F14" s="49">
         <f t="shared" si="0"/>
         <v>7.3170731707317069E-2</v>
       </c>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="L11" s="16" t="s">
+      <c r="I14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="M11" s="43">
-        <f>M10*13000</f>
+      <c r="J14" s="43">
+        <f>J13*13000</f>
         <v>329875</v>
       </c>
-      <c r="T11" s="5"/>
-    </row>
-    <row r="12" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="89"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="30" t="s">
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="89"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="39">
-        <v>0</v>
-      </c>
-      <c r="E12" s="50">
+      <c r="D15" s="39">
+        <v>0</v>
+      </c>
+      <c r="E15" s="49">
         <f>IF(Справочники!$O$1=1,Справочники!$C13,  IF(Справочники!$O$1=2,Справочники!$D13,  IF(Справочники!$O$1=3,Справочники!$E13,  IF(Справочники!$O$1=4,Справочники!$F13, IF(Справочники!$O$1=5,Справочники!$G13, IF(Справочники!$O$1=6,Справочники!$H13,
 IF(Справочники!$O$1=7,Справочники!$I13,IF(Справочники!$O$1=8,Справочники!$J13,IF(Справочники!$O$1=9,Справочники!$K13,
 IF(Справочники!$O$1=10,Справочники!$L13,IF(Справочники!$O$1=11,Справочники!$M13,IF(Справочники!$O$1=12,Справочники!$N13,0))))))))))))</f>
         <v>0.12</v>
       </c>
-      <c r="F12" s="50">
+      <c r="F15" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="41"/>
-      <c r="T12" s="5"/>
-    </row>
-    <row r="13" spans="1:20" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="89"/>
-      <c r="B13" s="87" t="s">
+      <c r="I15" s="16"/>
+      <c r="J15" s="41"/>
+      <c r="Q15" s="5"/>
+    </row>
+    <row r="16" spans="1:17" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="89"/>
+      <c r="B16" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C16" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D16" s="39">
         <v>2</v>
       </c>
-      <c r="E13" s="50">
+      <c r="E16" s="49">
         <f>IF(Справочники!$O$1=1,Справочники!$C14,  IF(Справочники!$O$1=2,Справочники!$D14,  IF(Справочники!$O$1=3,Справочники!$E14,  IF(Справочники!$O$1=4,Справочники!$F14, IF(Справочники!$O$1=5,Справочники!$G14, IF(Справочники!$O$1=6,Справочники!$H14,
 IF(Справочники!$O$1=7,Справочники!$I14,IF(Справочники!$O$1=8,Справочники!$J14,IF(Справочники!$O$1=9,Справочники!$K14,
 IF(Справочники!$O$1=10,Справочники!$L14,IF(Справочники!$O$1=11,Справочники!$M14,IF(Справочники!$O$1=12,Справочники!$N14,0))))))))))))</f>
         <v>0.05</v>
       </c>
-      <c r="F13" s="50">
+      <c r="F16" s="49">
         <f t="shared" si="0"/>
         <v>1.6260162601626018E-2</v>
       </c>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="L13" s="16" t="s">
+      <c r="I16" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="41">
-        <f>D26/8</f>
+      <c r="J16" s="41">
+        <f>D29/8</f>
         <v>6.25</v>
       </c>
-      <c r="T13" s="5"/>
-    </row>
-    <row r="14" spans="1:20" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="89"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="69" t="s">
+      <c r="Q16" s="5"/>
+    </row>
+    <row r="17" spans="1:17" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="89"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D17" s="40">
         <v>5</v>
       </c>
-      <c r="E14" s="50">
+      <c r="E17" s="49">
         <f>IF(Справочники!$O$1=1,Справочники!$C15,  IF(Справочники!$O$1=2,Справочники!$D15,  IF(Справочники!$O$1=3,Справочники!$E15,  IF(Справочники!$O$1=4,Справочники!$F15, IF(Справочники!$O$1=5,Справочники!$G15, IF(Справочники!$O$1=6,Справочники!$H15,
 IF(Справочники!$O$1=7,Справочники!$I15,IF(Справочники!$O$1=8,Справочники!$J15,IF(Справочники!$O$1=9,Справочники!$K15,
 IF(Справочники!$O$1=10,Справочники!$L15,IF(Справочники!$O$1=11,Справочники!$M15,IF(Справочники!$O$1=12,Справочники!$N15,0))))))))))))</f>
         <v>0.11</v>
       </c>
-      <c r="F14" s="50">
+      <c r="F17" s="49">
         <f t="shared" si="0"/>
         <v>4.065040650406504E-2</v>
       </c>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
-      <c r="L14" s="16" t="s">
+      <c r="I17" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="M14" s="18">
+      <c r="J17" s="18">
         <f>IF(C2="БИСКВИТ",16600,25920)</f>
         <v>25920</v>
       </c>
-      <c r="T14" s="5"/>
-    </row>
-    <row r="15" spans="1:20" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="89"/>
-      <c r="B15" s="87" t="s">
+      <c r="Q17" s="5"/>
+    </row>
+    <row r="18" spans="1:17" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="89"/>
+      <c r="B18" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C18" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D18" s="39">
         <v>15</v>
       </c>
-      <c r="E15" s="50">
+      <c r="E18" s="49">
         <f>IF(Справочники!$O$1=1,Справочники!$C16,  IF(Справочники!$O$1=2,Справочники!$D16,  IF(Справочники!$O$1=3,Справочники!$E16,  IF(Справочники!$O$1=4,Справочники!$F16, IF(Справочники!$O$1=5,Справочники!$G16, IF(Справочники!$O$1=6,Справочники!$H16,
 IF(Справочники!$O$1=7,Справочники!$I16,IF(Справочники!$O$1=8,Справочники!$J16,IF(Справочники!$O$1=9,Справочники!$K16,
 IF(Справочники!$O$1=10,Справочники!$L16,IF(Справочники!$O$1=11,Справочники!$M16,IF(Справочники!$O$1=12,Справочники!$N16,0))))))))))))</f>
         <v>0.03</v>
       </c>
-      <c r="F15" s="50">
+      <c r="F18" s="49">
         <f t="shared" si="0"/>
         <v>0.12195121951219512</v>
       </c>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
-      <c r="L15" s="16" t="s">
+      <c r="I18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="M15" s="18">
-        <f>M13*M14</f>
+      <c r="J18" s="18">
+        <f>J16*J17</f>
         <v>162000</v>
       </c>
-      <c r="T15" s="5"/>
-    </row>
-    <row r="16" spans="1:20" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="89"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="30" t="s">
+      <c r="Q18" s="5"/>
+    </row>
+    <row r="19" spans="1:17" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="89"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="39">
-        <v>0</v>
-      </c>
-      <c r="E16" s="50">
+      <c r="D19" s="39">
+        <v>0</v>
+      </c>
+      <c r="E19" s="49">
         <f>IF(Справочники!$O$1=1,Справочники!$C17,  IF(Справочники!$O$1=2,Справочники!$D17,  IF(Справочники!$O$1=3,Справочники!$E17,  IF(Справочники!$O$1=4,Справочники!$F17, IF(Справочники!$O$1=5,Справочники!$G17, IF(Справочники!$O$1=6,Справочники!$H17,
 IF(Справочники!$O$1=7,Справочники!$I17,IF(Справочники!$O$1=8,Справочники!$J17,IF(Справочники!$O$1=9,Справочники!$K17,
 IF(Справочники!$O$1=10,Справочники!$L17,IF(Справочники!$O$1=11,Справочники!$M17,IF(Справочники!$O$1=12,Справочники!$N17,0))))))))))))</f>
         <v>0.08</v>
       </c>
-      <c r="F16" s="50">
+      <c r="F19" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="T16" s="5"/>
-    </row>
-    <row r="17" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="89"/>
-      <c r="B17" s="12" t="s">
+      <c r="Q19" s="5"/>
+    </row>
+    <row r="20" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="89"/>
+      <c r="B20" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C20" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D20" s="39">
         <v>24</v>
       </c>
-      <c r="E17" s="50">
+      <c r="E20" s="49">
         <f>IF(Справочники!$O$1=1,Справочники!$C18,  IF(Справочники!$O$1=2,Справочники!$D18,  IF(Справочники!$O$1=3,Справочники!$E18,  IF(Справочники!$O$1=4,Справочники!$F18, IF(Справочники!$O$1=5,Справочники!$G18, IF(Справочники!$O$1=6,Справочники!$H18,
 IF(Справочники!$O$1=7,Справочники!$I18,IF(Справочники!$O$1=8,Справочники!$J18,IF(Справочники!$O$1=9,Справочники!$K18,
 IF(Справочники!$O$1=10,Справочники!$L18,IF(Справочники!$O$1=11,Справочники!$M18,IF(Справочники!$O$1=12,Справочники!$N18,0))))))))))))</f>
         <v>0.08</v>
       </c>
-      <c r="F17" s="50">
+      <c r="F20" s="49">
         <f t="shared" si="0"/>
         <v>0.1951219512195122</v>
       </c>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
-      <c r="T17" s="5"/>
-    </row>
-    <row r="18" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="89"/>
-      <c r="B18" s="87" t="s">
+      <c r="Q20" s="5"/>
+    </row>
+    <row r="21" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="89"/>
+      <c r="B21" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C21" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D21" s="39">
         <v>35</v>
       </c>
-      <c r="E18" s="50">
+      <c r="E21" s="49">
         <f>IF(Справочники!$O$1=1,Справочники!$C19,  IF(Справочники!$O$1=2,Справочники!$D19,  IF(Справочники!$O$1=3,Справочники!$E19,  IF(Справочники!$O$1=4,Справочники!$F19, IF(Справочники!$O$1=5,Справочники!$G19, IF(Справочники!$O$1=6,Справочники!$H19,
 IF(Справочники!$O$1=7,Справочники!$I19,IF(Справочники!$O$1=8,Справочники!$J19,IF(Справочники!$O$1=9,Справочники!$K19,
 IF(Справочники!$O$1=10,Справочники!$L19,IF(Справочники!$O$1=11,Справочники!$M19,IF(Справочники!$O$1=12,Справочники!$N19,0))))))))))))</f>
         <v>0.03</v>
       </c>
-      <c r="F18" s="50">
+      <c r="F21" s="49">
         <f t="shared" si="0"/>
         <v>0.28455284552845528</v>
       </c>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="T18" s="5"/>
-    </row>
-    <row r="19" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="89"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="30" t="s">
+      <c r="Q21" s="5"/>
+    </row>
+    <row r="22" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="89"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="39">
+      <c r="D22" s="39">
         <v>7</v>
       </c>
-      <c r="E19" s="50">
+      <c r="E22" s="49">
         <f>IF(Справочники!$O$1=1,Справочники!$C20,  IF(Справочники!$O$1=2,Справочники!$D20,  IF(Справочники!$O$1=3,Справочники!$E20,  IF(Справочники!$O$1=4,Справочники!$F20, IF(Справочники!$O$1=5,Справочники!$G20, IF(Справочники!$O$1=6,Справочники!$H20,
 IF(Справочники!$O$1=7,Справочники!$I20,IF(Справочники!$O$1=8,Справочники!$J20,IF(Справочники!$O$1=9,Справочники!$K20,
 IF(Справочники!$O$1=10,Справочники!$L20,IF(Справочники!$O$1=11,Справочники!$M20,IF(Справочники!$O$1=12,Справочники!$N20,0))))))))))))</f>
         <v>0.01</v>
       </c>
-      <c r="F19" s="50">
+      <c r="F22" s="49">
         <f t="shared" si="0"/>
         <v>5.6910569105691054E-2</v>
       </c>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
-      <c r="T19" s="5"/>
-    </row>
-    <row r="20" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="89"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9" t="s">
+      <c r="Q22" s="5"/>
+    </row>
+    <row r="23" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="89"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="39">
-        <f t="array" ref="D20">SUM(ROUND(D8:D19,0))</f>
+      <c r="D23" s="39">
+        <f t="array" ref="D23">SUM(ROUND(D11:D22,0))</f>
         <v>123</v>
       </c>
-      <c r="E20" s="51">
-        <f>E8+E9+E10+E11+E12+E14+E13+E15+E16+E17+E18+E19</f>
+      <c r="E23" s="50">
+        <f>E11+E12+E13+E14+E15+E17+E16+E18+E19+E20+E21+E22</f>
         <v>1</v>
       </c>
-      <c r="F20" s="51">
-        <f t="array" ref="F20">(D20)/SUM(ROUND(D8:D19,0))</f>
+      <c r="F23" s="50">
+        <f t="array" ref="F23">(D23)/SUM(ROUND(D11:D22,0))</f>
         <v>1</v>
       </c>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
-      <c r="T20" s="5"/>
-    </row>
-    <row r="21" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="88" t="s">
+      <c r="Q23" s="5"/>
+    </row>
+    <row r="24" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C24" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="37">
-        <f>IF(E22=0,0,$D$22*E21/$E$22)</f>
+      <c r="D24" s="37">
+        <f>IF(E25=0,0,$D$25*E24/$E$25)</f>
         <v>8</v>
       </c>
-      <c r="E21" s="68">
+      <c r="E24" s="67">
         <f>IF(Справочники!$O$1=1,Справочники!$C22,  IF(Справочники!$O$1=2,Справочники!$D22,  IF(Справочники!$O$1=3,Справочники!$E22,  IF(Справочники!$O$1=4,Справочники!$F22, IF(Справочники!$O$1=5,Справочники!$G22, IF(Справочники!$O$1=6,Справочники!$H22,
 IF(Справочники!$O$1=7,Справочники!$I22,IF(Справочники!$O$1=8,Справочники!$J22,IF(Справочники!$O$1=9,Справочники!$K22,
 IF(Справочники!$O$1=10,Справочники!$L22,IF(Справочники!$O$1=11,Справочники!$M22,IF(Справочники!$O$1=12,Справочники!$N22,0))))))))))))</f>
         <v>0.1</v>
       </c>
-      <c r="F21" s="52">
-        <f>D21/$D$24</f>
+      <c r="F24" s="51">
+        <f>D24/$D$27</f>
         <v>0.1</v>
       </c>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="T21" s="5"/>
-    </row>
-    <row r="22" spans="1:20" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="88"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="69" t="s">
+      <c r="Q24" s="5"/>
+    </row>
+    <row r="25" spans="1:17" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="88"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D25" s="38">
         <v>40</v>
       </c>
-      <c r="E22" s="68">
+      <c r="E25" s="67">
         <f>IF(Справочники!$O$1=1,Справочники!$C23,  IF(Справочники!$O$1=2,Справочники!$D23,  IF(Справочники!$O$1=3,Справочники!$E23,  IF(Справочники!$O$1=4,Справочники!$F23, IF(Справочники!$O$1=5,Справочники!$G23, IF(Справочники!$O$1=6,Справочники!$H23,
 IF(Справочники!$O$1=7,Справочники!$I23,IF(Справочники!$O$1=8,Справочники!$J23,IF(Справочники!$O$1=9,Справочники!$K23,
 IF(Справочники!$O$1=10,Справочники!$L23,IF(Справочники!$O$1=11,Справочники!$M23,IF(Справочники!$O$1=12,Справочники!$N23,0))))))))))))</f>
         <v>0.5</v>
       </c>
-      <c r="F22" s="52">
-        <f t="shared" ref="F22:F23" si="1">D22/$D$24</f>
+      <c r="F25" s="51">
+        <f t="shared" ref="F25:F26" si="1">D25/$D$27</f>
         <v>0.5</v>
       </c>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="T22" s="5"/>
-    </row>
-    <row r="23" spans="1:20" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="88"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="31" t="s">
+      <c r="Q25" s="5"/>
+    </row>
+    <row r="26" spans="1:17" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="88"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="37">
-        <f>IF(E22=0,0,$D$22*E23/$E$22)</f>
+      <c r="D26" s="37">
+        <f>IF(E25=0,0,$D$25*E26/$E$25)</f>
         <v>32</v>
       </c>
-      <c r="E23" s="68">
+      <c r="E26" s="67">
         <f>IF(Справочники!$O$1=1,Справочники!$C24,  IF(Справочники!$O$1=2,Справочники!$D24,  IF(Справочники!$O$1=3,Справочники!$E24,  IF(Справочники!$O$1=4,Справочники!$F24, IF(Справочники!$O$1=5,Справочники!$G24, IF(Справочники!$O$1=6,Справочники!$H24,
 IF(Справочники!$O$1=7,Справочники!$I24,IF(Справочники!$O$1=8,Справочники!$J24,IF(Справочники!$O$1=9,Справочники!$K24,
 IF(Справочники!$O$1=10,Справочники!$L24,IF(Справочники!$O$1=11,Справочники!$M24,IF(Справочники!$O$1=12,Справочники!$N24,0))))))))))))</f>
         <v>0.4</v>
       </c>
-      <c r="F23" s="52">
+      <c r="F26" s="51">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="G23" s="97"/>
-      <c r="H23" s="97"/>
-      <c r="T23" s="5"/>
-    </row>
-    <row r="24" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="88"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="33" t="s">
+      <c r="Q26" s="5"/>
+    </row>
+    <row r="27" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="88"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="37">
-        <f t="array" ref="D24">SUM(ROUND(D21:D23,0))</f>
+      <c r="D27" s="37">
+        <f t="array" ref="D27">SUM(ROUND(D24:D26,0))</f>
         <v>80</v>
       </c>
-      <c r="E24" s="53">
-        <f>SUM(E21:E23)</f>
+      <c r="E27" s="52">
+        <f>SUM(E24:E26)</f>
         <v>1</v>
       </c>
-      <c r="F24" s="53">
-        <f>D24/SUM(D21:D23)</f>
+      <c r="F27" s="52">
+        <f>D27/SUM(D24:D26)</f>
         <v>1</v>
       </c>
-      <c r="G24" s="97"/>
-      <c r="H24" s="97"/>
-      <c r="T24" s="5"/>
-    </row>
-    <row r="25" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26" t="s">
+      <c r="Q27" s="5"/>
+    </row>
+    <row r="28" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="24"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="29">
-        <f>D20+D24</f>
+      <c r="D28" s="29">
+        <f>D23+D27</f>
         <v>203</v>
       </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="97"/>
-      <c r="T25" s="5"/>
-    </row>
-    <row r="26" spans="1:20" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="28" t="s">
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="Q28" s="5"/>
+    </row>
+    <row r="29" spans="1:17" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C29" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="37">
+      <c r="D29" s="37">
         <v>50</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="5"/>
-      <c r="T26" s="5"/>
-    </row>
-    <row r="27" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="5"/>
-      <c r="T27" s="5"/>
-    </row>
-    <row r="28" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="1"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="5"/>
-      <c r="T28" s="5"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="6"/>
+      <c r="Q29" s="5"/>
+    </row>
+    <row r="30" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="6"/>
+      <c r="Q30" s="5"/>
+    </row>
+    <row r="31" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="1"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="6"/>
+      <c r="Q31" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A8:A20"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A11:A23"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Справочники!$A$2:$A$3</xm:f>
@@ -2378,13 +2344,13 @@
           <x14:formula1>
             <xm:f>Справочники!$B$28:$B$77</xm:f>
           </x14:formula1>
-          <xm:sqref>G8:G19 G21:G23 G26</xm:sqref>
+          <xm:sqref>C7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Справочники!$A$28:$A$34</xm:f>
           </x14:formula1>
-          <xm:sqref>I8</xm:sqref>
+          <xm:sqref>C6 C9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2463,8 +2429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2526,613 +2492,613 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="45"/>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="92" t="s">
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92" t="s">
+      <c r="D7" s="90"/>
+      <c r="E7" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92" t="s">
+      <c r="F7" s="90"/>
+      <c r="G7" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92" t="s">
+      <c r="H7" s="90"/>
+      <c r="I7" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92" t="s">
+      <c r="J7" s="90"/>
+      <c r="K7" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92" t="s">
+      <c r="L7" s="90"/>
+      <c r="M7" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="N7" s="92"/>
+      <c r="N7" s="90"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="54" t="s">
+      <c r="F8" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="54" t="s">
+      <c r="G8" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="54" t="s">
+      <c r="H8" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="I8" s="54" t="s">
+      <c r="I8" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="54" t="s">
+      <c r="J8" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="K8" s="54" t="s">
+      <c r="K8" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="L8" s="54" t="s">
+      <c r="L8" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="M8" s="54" t="s">
+      <c r="M8" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="N8" s="54" t="s">
+      <c r="N8" s="53" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="63">
+      <c r="C9" s="62">
         <v>0.09</v>
       </c>
-      <c r="D9" s="63">
+      <c r="D9" s="62">
         <v>0.09</v>
       </c>
-      <c r="E9" s="64">
+      <c r="E9" s="63">
         <v>0.09</v>
       </c>
-      <c r="F9" s="64">
+      <c r="F9" s="63">
         <v>0.09</v>
       </c>
-      <c r="G9" s="63">
+      <c r="G9" s="62">
         <v>0.09</v>
       </c>
-      <c r="H9" s="63">
+      <c r="H9" s="62">
         <v>0.09</v>
       </c>
-      <c r="I9" s="60">
+      <c r="I9" s="59">
         <v>0.09</v>
       </c>
-      <c r="J9" s="60">
+      <c r="J9" s="59">
         <v>0.09</v>
       </c>
-      <c r="K9" s="62">
+      <c r="K9" s="61">
         <v>0.09</v>
       </c>
-      <c r="L9" s="62">
+      <c r="L9" s="61">
         <v>0.09</v>
       </c>
-      <c r="M9" s="60">
+      <c r="M9" s="59">
         <v>0.09</v>
       </c>
-      <c r="N9" s="72">
+      <c r="N9" s="71">
         <v>0.09</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="63">
+      <c r="C10" s="62">
         <v>0.26</v>
       </c>
-      <c r="D10" s="63">
-        <v>0</v>
-      </c>
-      <c r="E10" s="64">
+      <c r="D10" s="62">
+        <v>0</v>
+      </c>
+      <c r="E10" s="63">
         <v>0.26</v>
       </c>
-      <c r="F10" s="64">
-        <v>0</v>
-      </c>
-      <c r="G10" s="63">
+      <c r="F10" s="63">
+        <v>0</v>
+      </c>
+      <c r="G10" s="62">
         <v>0.26</v>
       </c>
-      <c r="H10" s="63">
-        <v>0</v>
-      </c>
-      <c r="I10" s="60">
+      <c r="H10" s="62">
+        <v>0</v>
+      </c>
+      <c r="I10" s="59">
         <v>0.26</v>
       </c>
-      <c r="J10" s="60">
-        <v>0</v>
-      </c>
-      <c r="K10" s="62">
+      <c r="J10" s="59">
+        <v>0</v>
+      </c>
+      <c r="K10" s="61">
         <v>0.26</v>
       </c>
-      <c r="L10" s="62">
-        <v>0</v>
-      </c>
-      <c r="M10" s="60">
+      <c r="L10" s="61">
+        <v>0</v>
+      </c>
+      <c r="M10" s="59">
         <v>0.26</v>
       </c>
-      <c r="N10" s="60">
+      <c r="N10" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="91"/>
-      <c r="B11" s="59" t="s">
+      <c r="A11" s="95"/>
+      <c r="B11" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="63">
+      <c r="C11" s="62">
         <v>0.09</v>
       </c>
-      <c r="D11" s="63">
-        <v>0</v>
-      </c>
-      <c r="E11" s="64">
+      <c r="D11" s="62">
+        <v>0</v>
+      </c>
+      <c r="E11" s="63">
         <v>0.09</v>
       </c>
-      <c r="F11" s="64">
-        <v>0</v>
-      </c>
-      <c r="G11" s="63">
+      <c r="F11" s="63">
+        <v>0</v>
+      </c>
+      <c r="G11" s="62">
         <v>0.09</v>
       </c>
-      <c r="H11" s="63">
-        <v>0</v>
-      </c>
-      <c r="I11" s="60">
+      <c r="H11" s="62">
+        <v>0</v>
+      </c>
+      <c r="I11" s="59">
         <v>0.09</v>
       </c>
-      <c r="J11" s="60">
-        <v>0</v>
-      </c>
-      <c r="K11" s="62">
+      <c r="J11" s="59">
+        <v>0</v>
+      </c>
+      <c r="K11" s="61">
         <v>0.09</v>
       </c>
-      <c r="L11" s="62">
-        <v>0</v>
-      </c>
-      <c r="M11" s="60">
+      <c r="L11" s="61">
+        <v>0</v>
+      </c>
+      <c r="M11" s="59">
         <v>0.09</v>
       </c>
-      <c r="N11" s="60">
+      <c r="N11" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="63">
+      <c r="C12" s="62">
         <v>0.22</v>
       </c>
-      <c r="D12" s="63">
+      <c r="D12" s="62">
         <v>0.48</v>
       </c>
-      <c r="E12" s="64">
+      <c r="E12" s="63">
         <v>0.17</v>
       </c>
-      <c r="F12" s="64">
+      <c r="F12" s="63">
         <v>0.43</v>
       </c>
-      <c r="G12" s="63">
+      <c r="G12" s="62">
         <v>0.17</v>
       </c>
-      <c r="H12" s="63">
+      <c r="H12" s="62">
         <v>0.43</v>
       </c>
-      <c r="I12" s="60">
+      <c r="I12" s="59">
         <v>0.22</v>
       </c>
-      <c r="J12" s="60">
+      <c r="J12" s="59">
         <v>0.48</v>
       </c>
-      <c r="K12" s="62">
-        <v>0</v>
-      </c>
-      <c r="L12" s="62">
-        <v>0</v>
-      </c>
-      <c r="M12" s="60">
+      <c r="K12" s="61">
+        <v>0</v>
+      </c>
+      <c r="L12" s="61">
+        <v>0</v>
+      </c>
+      <c r="M12" s="59">
         <v>0.17</v>
       </c>
-      <c r="N12" s="60">
+      <c r="N12" s="59">
         <v>0.4</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="91"/>
-      <c r="B13" s="59" t="s">
+      <c r="A13" s="95"/>
+      <c r="B13" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="63">
+      <c r="C13" s="62">
         <v>0.11</v>
       </c>
-      <c r="D13" s="63">
+      <c r="D13" s="62">
         <v>0.2</v>
       </c>
-      <c r="E13" s="64">
+      <c r="E13" s="63">
         <v>0.06</v>
       </c>
-      <c r="F13" s="64">
+      <c r="F13" s="63">
         <v>0.15</v>
       </c>
-      <c r="G13" s="63">
+      <c r="G13" s="62">
         <v>0.06</v>
       </c>
-      <c r="H13" s="63">
+      <c r="H13" s="62">
         <v>0.15</v>
       </c>
-      <c r="I13" s="60">
+      <c r="I13" s="59">
         <v>0.11</v>
       </c>
-      <c r="J13" s="60">
+      <c r="J13" s="59">
         <v>0.2</v>
       </c>
-      <c r="K13" s="62">
-        <v>0</v>
-      </c>
-      <c r="L13" s="62">
-        <v>0</v>
-      </c>
-      <c r="M13" s="60">
+      <c r="K13" s="61">
+        <v>0</v>
+      </c>
+      <c r="L13" s="61">
+        <v>0</v>
+      </c>
+      <c r="M13" s="59">
         <v>0.06</v>
       </c>
-      <c r="N13" s="60">
+      <c r="N13" s="59">
         <v>0.12</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="63">
-        <v>0</v>
-      </c>
-      <c r="D14" s="63">
-        <v>0</v>
-      </c>
-      <c r="E14" s="64">
+      <c r="C14" s="62">
+        <v>0</v>
+      </c>
+      <c r="D14" s="62">
+        <v>0</v>
+      </c>
+      <c r="E14" s="63">
         <v>0.05</v>
       </c>
-      <c r="F14" s="64">
+      <c r="F14" s="63">
         <v>0.05</v>
       </c>
-      <c r="G14" s="63">
+      <c r="G14" s="62">
         <v>0.05</v>
       </c>
-      <c r="H14" s="63">
+      <c r="H14" s="62">
         <v>0.05</v>
       </c>
-      <c r="I14" s="60">
-        <v>0</v>
-      </c>
-      <c r="J14" s="60">
-        <v>0</v>
-      </c>
-      <c r="K14" s="62">
+      <c r="I14" s="59">
+        <v>0</v>
+      </c>
+      <c r="J14" s="59">
+        <v>0</v>
+      </c>
+      <c r="K14" s="61">
         <v>0.13</v>
       </c>
-      <c r="L14" s="62">
+      <c r="L14" s="61">
         <v>0.2</v>
       </c>
-      <c r="M14" s="60">
+      <c r="M14" s="59">
         <v>0.05</v>
       </c>
-      <c r="N14" s="60">
+      <c r="N14" s="59">
         <v>0.05</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="91"/>
-      <c r="B15" s="59" t="s">
+      <c r="A15" s="95"/>
+      <c r="B15" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="63">
-        <v>0</v>
-      </c>
-      <c r="D15" s="63">
-        <v>0</v>
-      </c>
-      <c r="E15" s="64">
+      <c r="C15" s="62">
+        <v>0</v>
+      </c>
+      <c r="D15" s="62">
+        <v>0</v>
+      </c>
+      <c r="E15" s="63">
         <v>0.05</v>
       </c>
-      <c r="F15" s="64">
+      <c r="F15" s="63">
         <v>0.05</v>
       </c>
-      <c r="G15" s="63">
+      <c r="G15" s="62">
         <v>0.05</v>
       </c>
-      <c r="H15" s="63">
+      <c r="H15" s="62">
         <v>0.05</v>
       </c>
-      <c r="I15" s="60">
-        <v>0</v>
-      </c>
-      <c r="J15" s="60">
-        <v>0</v>
-      </c>
-      <c r="K15" s="62">
+      <c r="I15" s="59">
+        <v>0</v>
+      </c>
+      <c r="J15" s="59">
+        <v>0</v>
+      </c>
+      <c r="K15" s="61">
         <v>0.2</v>
       </c>
-      <c r="L15" s="62">
+      <c r="L15" s="61">
         <v>0.3</v>
       </c>
-      <c r="M15" s="60">
+      <c r="M15" s="59">
         <v>0.05</v>
       </c>
-      <c r="N15" s="60">
+      <c r="N15" s="59">
         <v>0.11</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="91" t="s">
+      <c r="A16" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="63">
+      <c r="C16" s="62">
         <v>0.03</v>
       </c>
-      <c r="D16" s="63">
+      <c r="D16" s="62">
         <v>0.03</v>
       </c>
-      <c r="E16" s="64">
+      <c r="E16" s="63">
         <v>0.03</v>
       </c>
-      <c r="F16" s="64">
+      <c r="F16" s="63">
         <v>0.03</v>
       </c>
-      <c r="G16" s="63">
+      <c r="G16" s="62">
         <v>0.03</v>
       </c>
-      <c r="H16" s="63">
+      <c r="H16" s="62">
         <v>0.03</v>
       </c>
-      <c r="I16" s="60">
+      <c r="I16" s="59">
         <v>0.03</v>
       </c>
-      <c r="J16" s="60">
+      <c r="J16" s="59">
         <v>0.03</v>
       </c>
-      <c r="K16" s="62">
+      <c r="K16" s="61">
         <v>0.03</v>
       </c>
-      <c r="L16" s="62">
+      <c r="L16" s="61">
         <v>0.1</v>
       </c>
-      <c r="M16" s="60">
+      <c r="M16" s="59">
         <v>0.03</v>
       </c>
-      <c r="N16" s="60">
+      <c r="N16" s="59">
         <v>0.03</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="91"/>
-      <c r="B17" s="59" t="s">
+      <c r="A17" s="95"/>
+      <c r="B17" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="63">
+      <c r="C17" s="62">
         <v>0.08</v>
       </c>
-      <c r="D17" s="63">
+      <c r="D17" s="62">
         <v>0.08</v>
       </c>
-      <c r="E17" s="64">
+      <c r="E17" s="63">
         <v>0.08</v>
       </c>
-      <c r="F17" s="64">
+      <c r="F17" s="63">
         <v>0.08</v>
       </c>
-      <c r="G17" s="63">
+      <c r="G17" s="62">
         <v>0.08</v>
       </c>
-      <c r="H17" s="63">
+      <c r="H17" s="62">
         <v>0.08</v>
       </c>
-      <c r="I17" s="60">
+      <c r="I17" s="59">
         <v>0.08</v>
       </c>
-      <c r="J17" s="60">
+      <c r="J17" s="59">
         <v>0.08</v>
       </c>
-      <c r="K17" s="62">
+      <c r="K17" s="61">
         <v>0.08</v>
       </c>
-      <c r="L17" s="62">
+      <c r="L17" s="61">
         <v>0.13</v>
       </c>
-      <c r="M17" s="60">
+      <c r="M17" s="59">
         <v>0.08</v>
       </c>
-      <c r="N17" s="60">
+      <c r="N17" s="59">
         <v>0.08</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="63">
+      <c r="C18" s="62">
         <v>0.08</v>
       </c>
-      <c r="D18" s="63">
+      <c r="D18" s="62">
         <v>0.08</v>
       </c>
-      <c r="E18" s="64">
+      <c r="E18" s="63">
         <v>0.08</v>
       </c>
-      <c r="F18" s="64">
+      <c r="F18" s="63">
         <v>0.08</v>
       </c>
-      <c r="G18" s="63">
+      <c r="G18" s="62">
         <v>0.08</v>
       </c>
-      <c r="H18" s="63">
+      <c r="H18" s="62">
         <v>0.08</v>
       </c>
-      <c r="I18" s="60">
+      <c r="I18" s="59">
         <v>0.08</v>
       </c>
-      <c r="J18" s="60">
+      <c r="J18" s="59">
         <v>0.08</v>
       </c>
-      <c r="K18" s="62">
+      <c r="K18" s="61">
         <v>0.08</v>
       </c>
-      <c r="L18" s="62">
+      <c r="L18" s="61">
         <v>0.11</v>
       </c>
-      <c r="M18" s="60">
+      <c r="M18" s="59">
         <v>0.08</v>
       </c>
-      <c r="N18" s="60">
+      <c r="N18" s="59">
         <v>0.08</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="91" t="s">
+      <c r="A19" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="63">
+      <c r="C19" s="62">
         <v>0.03</v>
       </c>
-      <c r="D19" s="63">
+      <c r="D19" s="62">
         <v>0.03</v>
       </c>
-      <c r="E19" s="64">
+      <c r="E19" s="63">
         <v>0.03</v>
       </c>
-      <c r="F19" s="64">
+      <c r="F19" s="63">
         <v>0.03</v>
       </c>
-      <c r="G19" s="63">
+      <c r="G19" s="62">
         <v>0.03</v>
       </c>
-      <c r="H19" s="63">
+      <c r="H19" s="62">
         <v>0.03</v>
       </c>
-      <c r="I19" s="60">
+      <c r="I19" s="59">
         <v>0.03</v>
       </c>
-      <c r="J19" s="60">
+      <c r="J19" s="59">
         <v>0.03</v>
       </c>
-      <c r="K19" s="62">
+      <c r="K19" s="61">
         <v>0.03</v>
       </c>
-      <c r="L19" s="62">
+      <c r="L19" s="61">
         <v>0.06</v>
       </c>
-      <c r="M19" s="60">
+      <c r="M19" s="59">
         <v>0.03</v>
       </c>
-      <c r="N19" s="60">
+      <c r="N19" s="59">
         <v>0.03</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="91"/>
-      <c r="B20" s="59" t="s">
+      <c r="A20" s="95"/>
+      <c r="B20" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="63">
+      <c r="C20" s="62">
         <v>0.01</v>
       </c>
-      <c r="D20" s="63">
+      <c r="D20" s="62">
         <v>0.01</v>
       </c>
-      <c r="E20" s="64">
+      <c r="E20" s="63">
         <v>0.01</v>
       </c>
-      <c r="F20" s="64">
+      <c r="F20" s="63">
         <v>0.01</v>
       </c>
-      <c r="G20" s="63">
+      <c r="G20" s="62">
         <v>0.01</v>
       </c>
-      <c r="H20" s="63">
+      <c r="H20" s="62">
         <v>0.01</v>
       </c>
-      <c r="I20" s="60">
+      <c r="I20" s="59">
         <v>0.01</v>
       </c>
-      <c r="J20" s="60">
+      <c r="J20" s="59">
         <v>0.01</v>
       </c>
-      <c r="K20" s="62">
+      <c r="K20" s="61">
         <v>0.01</v>
       </c>
-      <c r="L20" s="62">
+      <c r="L20" s="61">
         <v>0.01</v>
       </c>
-      <c r="M20" s="60">
+      <c r="M20" s="59">
         <v>0.01</v>
       </c>
-      <c r="N20" s="60">
+      <c r="N20" s="59">
         <v>0.01</v>
       </c>
     </row>
@@ -3141,180 +3107,180 @@
       <c r="B21" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="65">
+      <c r="C21" s="64">
         <f t="shared" ref="C21:F21" si="0">C9+C10+C11+C12+C13+C15+C14+C16+C17+C18+C19+C20</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="D21" s="65">
+      <c r="D21" s="64">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E21" s="65">
+      <c r="E21" s="64">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F21" s="65">
+      <c r="F21" s="64">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G21" s="65">
+      <c r="G21" s="64">
         <f>G9+G10+G11+G12+G13+G15+G14+G16+G17+G18+G19+G20</f>
         <v>1</v>
       </c>
-      <c r="H21" s="65">
+      <c r="H21" s="64">
         <f t="shared" ref="H21:N21" si="1">H9+H10+H11+H12+H13+H15+H14+H16+H17+H18+H19+H20</f>
         <v>1</v>
       </c>
-      <c r="I21" s="65">
+      <c r="I21" s="64">
         <f t="shared" si="1"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="J21" s="65">
+      <c r="J21" s="64">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K21" s="65">
+      <c r="K21" s="64">
         <f t="shared" si="1"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="L21" s="65">
+      <c r="L21" s="64">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M21" s="65">
+      <c r="M21" s="64">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N21" s="65">
+      <c r="N21" s="64">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="66">
+      <c r="C22" s="65">
         <v>0.1</v>
       </c>
-      <c r="D22" s="66">
+      <c r="D22" s="65">
         <v>0.1</v>
       </c>
-      <c r="E22" s="57">
-        <v>0</v>
-      </c>
-      <c r="F22" s="57">
-        <v>0</v>
-      </c>
-      <c r="G22" s="66">
+      <c r="E22" s="56">
+        <v>0</v>
+      </c>
+      <c r="F22" s="56">
+        <v>0</v>
+      </c>
+      <c r="G22" s="65">
         <v>0.1</v>
       </c>
-      <c r="H22" s="66">
+      <c r="H22" s="65">
         <v>0.1</v>
       </c>
-      <c r="I22" s="66">
+      <c r="I22" s="65">
         <v>0.1</v>
       </c>
-      <c r="J22" s="66">
+      <c r="J22" s="65">
         <v>0.1</v>
       </c>
-      <c r="K22" s="57">
-        <v>0</v>
-      </c>
-      <c r="L22" s="57">
-        <v>0</v>
-      </c>
-      <c r="M22" s="66">
+      <c r="K22" s="56">
+        <v>0</v>
+      </c>
+      <c r="L22" s="56">
+        <v>0</v>
+      </c>
+      <c r="M22" s="65">
         <v>0.1</v>
       </c>
-      <c r="N22" s="66">
+      <c r="N22" s="65">
         <v>0.1</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="90"/>
-      <c r="B23" s="56" t="s">
+      <c r="A23" s="94"/>
+      <c r="B23" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="66">
+      <c r="C23" s="65">
         <v>0.5</v>
       </c>
-      <c r="D23" s="66">
+      <c r="D23" s="65">
         <v>0.5</v>
       </c>
-      <c r="E23" s="57">
-        <v>0</v>
-      </c>
-      <c r="F23" s="57">
-        <v>0</v>
-      </c>
-      <c r="G23" s="66">
+      <c r="E23" s="56">
+        <v>0</v>
+      </c>
+      <c r="F23" s="56">
+        <v>0</v>
+      </c>
+      <c r="G23" s="65">
         <v>0.5</v>
       </c>
-      <c r="H23" s="66">
+      <c r="H23" s="65">
         <v>0.5</v>
       </c>
-      <c r="I23" s="66">
+      <c r="I23" s="65">
         <v>0.5</v>
       </c>
-      <c r="J23" s="66">
+      <c r="J23" s="65">
         <v>0.5</v>
       </c>
-      <c r="K23" s="57">
-        <v>0</v>
-      </c>
-      <c r="L23" s="57">
-        <v>0</v>
-      </c>
-      <c r="M23" s="66">
+      <c r="K23" s="56">
+        <v>0</v>
+      </c>
+      <c r="L23" s="56">
+        <v>0</v>
+      </c>
+      <c r="M23" s="65">
         <v>0.5</v>
       </c>
-      <c r="N23" s="66">
+      <c r="N23" s="65">
         <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="90"/>
-      <c r="B24" s="56" t="s">
+      <c r="A24" s="94"/>
+      <c r="B24" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="66">
+      <c r="C24" s="65">
         <v>0.4</v>
       </c>
-      <c r="D24" s="66">
+      <c r="D24" s="65">
         <v>0.4</v>
       </c>
-      <c r="E24" s="57">
-        <v>0</v>
-      </c>
-      <c r="F24" s="57">
-        <v>0</v>
-      </c>
-      <c r="G24" s="66">
+      <c r="E24" s="56">
+        <v>0</v>
+      </c>
+      <c r="F24" s="56">
+        <v>0</v>
+      </c>
+      <c r="G24" s="65">
         <v>0.4</v>
       </c>
-      <c r="H24" s="66">
+      <c r="H24" s="65">
         <v>0.4</v>
       </c>
-      <c r="I24" s="66">
+      <c r="I24" s="65">
         <v>0.4</v>
       </c>
-      <c r="J24" s="66">
+      <c r="J24" s="65">
         <v>0.4</v>
       </c>
-      <c r="K24" s="57">
-        <v>0</v>
-      </c>
-      <c r="L24" s="57">
-        <v>0</v>
-      </c>
-      <c r="M24" s="66">
+      <c r="K24" s="56">
+        <v>0</v>
+      </c>
+      <c r="L24" s="56">
+        <v>0</v>
+      </c>
+      <c r="M24" s="65">
         <v>0.4</v>
       </c>
-      <c r="N24" s="66">
+      <c r="N24" s="65">
         <v>0.4</v>
       </c>
     </row>
@@ -3323,333 +3289,339 @@
       <c r="B25" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="55">
+      <c r="C25" s="54">
         <f t="shared" ref="C25:F25" si="2">SUM(C22:C24)</f>
         <v>1</v>
       </c>
-      <c r="D25" s="55">
+      <c r="D25" s="54">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E25" s="55">
+      <c r="E25" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F25" s="55">
+      <c r="F25" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G25" s="55">
+      <c r="G25" s="54">
         <f>SUM(G22:G24)</f>
         <v>1</v>
       </c>
-      <c r="H25" s="55">
+      <c r="H25" s="54">
         <f t="shared" ref="H25:N25" si="3">SUM(H22:H24)</f>
         <v>1</v>
       </c>
-      <c r="I25" s="55">
+      <c r="I25" s="54">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J25" s="55">
+      <c r="J25" s="54">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K25" s="55">
+      <c r="K25" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L25" s="55">
+      <c r="L25" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M25" s="55">
+      <c r="M25" s="54">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="N25" s="55">
+      <c r="N25" s="54">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O25" s="71"/>
-      <c r="P25" s="73"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="72"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="84" t="s">
+      <c r="A27" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="B27" s="85" t="s">
+      <c r="B27" s="84" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="82" t="s">
+      <c r="A28" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="B28" s="83" t="s">
+      <c r="B28" s="82" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="82" t="s">
+      <c r="A29" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="83" t="s">
+      <c r="B29" s="82" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="B30" s="83" t="s">
+      <c r="B30" s="82" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="82" t="s">
+      <c r="A31" s="81" t="s">
         <v>114</v>
       </c>
-      <c r="B31" s="83" t="s">
+      <c r="B31" s="82" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="B32" s="83" t="s">
+      <c r="B32" s="82" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="82" t="s">
+      <c r="A33" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="B33" s="83" t="s">
+      <c r="B33" s="82" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="82" t="s">
+      <c r="A34" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="B34" s="83" t="s">
+      <c r="B34" s="82" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="83" t="s">
+      <c r="B35" s="82" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="83" t="s">
+      <c r="B36" s="82" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="83" t="s">
+      <c r="B37" s="82" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B38" s="83" t="s">
+      <c r="B38" s="82" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="83" t="s">
+      <c r="B39" s="82" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="83" t="s">
+      <c r="B40" s="82" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B41" s="83" t="s">
+      <c r="B41" s="82" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="83" t="s">
+      <c r="B42" s="82" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="83" t="s">
+      <c r="B43" s="82" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="83" t="s">
+      <c r="B44" s="82" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="83" t="s">
+      <c r="B45" s="82" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="83" t="s">
+      <c r="B46" s="82" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="83" t="s">
+      <c r="B47" s="82" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="83" t="s">
+      <c r="B48" s="82" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="83" t="s">
+      <c r="B49" s="82" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="83" t="s">
+      <c r="B50" s="82" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="83" t="s">
+      <c r="B51" s="82" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="83" t="s">
+      <c r="B52" s="82" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="53" spans="2:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="B53" s="83" t="s">
+      <c r="B53" s="82" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="83" t="s">
+      <c r="B54" s="82" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="83" t="s">
+      <c r="B55" s="82" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="83" t="s">
+      <c r="B56" s="82" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="83" t="s">
+      <c r="B57" s="82" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="83" t="s">
+      <c r="B58" s="82" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="83" t="s">
+      <c r="B59" s="82" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="83" t="s">
+      <c r="B60" s="82" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="83" t="s">
+      <c r="B61" s="82" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="83" t="s">
+      <c r="B62" s="82" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="83" t="s">
+      <c r="B63" s="82" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="83" t="s">
+      <c r="B64" s="82" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="65" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B65" s="83" t="s">
+      <c r="B65" s="82" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="83" t="s">
+      <c r="B66" s="82" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="67" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B67" s="83" t="s">
+      <c r="B67" s="82" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="83" t="s">
+      <c r="B68" s="82" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="83" t="s">
+      <c r="B69" s="82" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="83" t="s">
+      <c r="B70" s="82" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="83" t="s">
+      <c r="B71" s="82" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="72" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B72" s="83" t="s">
+      <c r="B72" s="82" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="83" t="s">
+      <c r="B73" s="82" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="83" t="s">
+      <c r="B74" s="82" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="75" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B75" s="83" t="s">
+      <c r="B75" s="82" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="76" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B76" s="83" t="s">
+      <c r="B76" s="82" t="s">
         <v>166</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A19:A20"/>
     <mergeCell ref="I6:N6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
@@ -3658,12 +3630,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="C6:H6"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3674,8 +3640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:I3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="216.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3687,7 +3653,7 @@
     <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" customWidth="1"/>
@@ -3697,8 +3663,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B1" s="4"/>
-      <c r="C1" s="98" t="str">
+      <c r="A1" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="85" t="str">
+        <f>Оценка!C6</f>
+        <v>Интеграция</v>
+      </c>
+      <c r="C1" s="85" t="str">
         <f>Оценка!C1</f>
         <v xml:space="preserve">BIQ-5257 Реализация передачи уникального идентификатора договора (сделки) в бюро кредитных историй </v>
       </c>
@@ -3706,24 +3678,36 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="4"/>
-      <c r="C2" s="98" t="str">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="85" t="str">
+        <f>Оценка!C7</f>
+        <v>Предкредитка</v>
+      </c>
+      <c r="C2" s="85" t="str">
         <f>Оценка!C2</f>
         <v>ЦФТ</v>
       </c>
-      <c r="D2" s="98" t="str">
+      <c r="D2" s="85" t="str">
         <f>IF(C2="ЦФТ","JIRACFT","JIRABIS")</f>
         <v>JIRACFT</v>
       </c>
-      <c r="E2" s="98" t="str">
+      <c r="E2" s="85" t="str">
         <f>IF(C2="ЦФТ","25","25")</f>
         <v>25</v>
       </c>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
+      <c r="A3" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="85">
+        <f>Оценка!C8</f>
+        <v>0</v>
+      </c>
       <c r="C3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -3750,7 +3734,7 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="79" t="s">
         <v>94</v>
       </c>
       <c r="B7" s="14" t="s">
@@ -3768,541 +3752,541 @@
       <c r="F7" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G7" s="81" t="s">
+      <c r="G7" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="H7" s="81" t="s">
+      <c r="H7" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="I7" s="81" t="s">
+      <c r="I7" s="80" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="78">
-        <v>0</v>
-      </c>
-      <c r="B8" s="76" t="s">
+      <c r="A8" s="77">
+        <v>0</v>
+      </c>
+      <c r="B8" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="76">
+      <c r="D8" s="76"/>
+      <c r="E8" s="75">
         <v>495</v>
       </c>
-      <c r="F8" s="76" t="str">
+      <c r="F8" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит1[15 %]</v>
       </c>
-      <c r="G8" s="75">
-        <f>Оценка!D8</f>
+      <c r="G8" s="74">
+        <f>Оценка!D11</f>
         <v>16</v>
       </c>
-      <c r="H8" s="74">
+      <c r="H8" s="73">
         <v>15</v>
       </c>
-      <c r="I8" s="74" t="s">
+      <c r="I8" s="73" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="79">
+      <c r="A9" s="78">
         <v>1</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="76">
+      <c r="D9" s="75">
         <f>A8</f>
         <v>0</v>
       </c>
-      <c r="E9" s="76">
+      <c r="E9" s="75">
         <v>496</v>
       </c>
-      <c r="F9" s="76" t="str">
+      <c r="F9" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит1[5 %]</v>
       </c>
-      <c r="G9" s="75">
-        <f>Оценка!D9</f>
+      <c r="G9" s="74">
+        <f>Оценка!D12</f>
         <v>5</v>
       </c>
-      <c r="H9" s="74">
+      <c r="H9" s="73">
         <v>5</v>
       </c>
-      <c r="I9" s="74" t="s">
+      <c r="I9" s="73" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="78">
+      <c r="A10" s="77">
         <v>2</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="76" t="s">
+      <c r="C10" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="76">
+      <c r="D10" s="75">
         <f>A9</f>
         <v>1</v>
       </c>
-      <c r="E10" s="76">
+      <c r="E10" s="75">
         <v>497</v>
       </c>
-      <c r="F10" s="76" t="str">
+      <c r="F10" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит1[5 %]</v>
       </c>
-      <c r="G10" s="75">
-        <f>Оценка!D10</f>
+      <c r="G10" s="74">
+        <f>Оценка!D13</f>
         <v>5</v>
       </c>
-      <c r="H10" s="74">
+      <c r="H10" s="73">
         <v>5</v>
       </c>
-      <c r="I10" s="74" t="s">
+      <c r="I10" s="73" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="79">
+      <c r="A11" s="78">
         <v>3</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="76" t="s">
+      <c r="C11" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="76">
+      <c r="D11" s="75">
         <f t="shared" ref="D11:D14" si="0">A10</f>
         <v>2</v>
       </c>
-      <c r="E11" s="76">
+      <c r="E11" s="75">
         <v>498</v>
       </c>
-      <c r="F11" s="76" t="str">
+      <c r="F11" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит1[10 %]</v>
       </c>
-      <c r="G11" s="75">
-        <f>Оценка!D11</f>
+      <c r="G11" s="74">
+        <f>Оценка!D14</f>
         <v>9</v>
       </c>
-      <c r="H11" s="74">
+      <c r="H11" s="73">
         <v>10</v>
       </c>
-      <c r="I11" s="74" t="s">
+      <c r="I11" s="73" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="78">
+      <c r="A12" s="77">
         <v>4</v>
       </c>
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="76" t="s">
+      <c r="C12" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="76">
+      <c r="D12" s="75">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E12" s="76">
+      <c r="E12" s="75">
         <v>499</v>
       </c>
-      <c r="F12" s="76" t="str">
+      <c r="F12" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит1[5 %]</v>
       </c>
-      <c r="G12" s="75">
-        <f>Оценка!D12</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="74">
+      <c r="G12" s="74">
+        <f>Оценка!D15</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="73">
         <v>5</v>
       </c>
-      <c r="I12" s="74" t="s">
+      <c r="I12" s="73" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="79">
+      <c r="A13" s="78">
         <v>5</v>
       </c>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="76">
+      <c r="D13" s="75">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E13" s="76">
+      <c r="E13" s="75">
         <v>500</v>
       </c>
-      <c r="F13" s="76" t="str">
+      <c r="F13" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит1[5 %]</v>
       </c>
-      <c r="G13" s="75">
-        <f>Оценка!D13</f>
+      <c r="G13" s="74">
+        <f>Оценка!D16</f>
         <v>2</v>
       </c>
-      <c r="H13" s="74">
+      <c r="H13" s="73">
         <v>5</v>
       </c>
-      <c r="I13" s="74" t="s">
+      <c r="I13" s="73" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="78">
+      <c r="A14" s="77">
         <v>6</v>
       </c>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="76" t="s">
+      <c r="C14" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="76">
+      <c r="D14" s="75">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E14" s="76">
+      <c r="E14" s="75">
         <v>501</v>
       </c>
-      <c r="F14" s="76" t="str">
+      <c r="F14" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит1[10 %]</v>
       </c>
-      <c r="G14" s="75">
-        <f>Оценка!D14</f>
+      <c r="G14" s="74">
+        <f>Оценка!D17</f>
         <v>5</v>
       </c>
-      <c r="H14" s="74">
+      <c r="H14" s="73">
         <v>10</v>
       </c>
-      <c r="I14" s="74" t="s">
+      <c r="I14" s="73" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="79">
+      <c r="A15" s="78">
         <v>7</v>
       </c>
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="76" t="s">
+      <c r="C15" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="E15" s="76">
+      <c r="E15" s="75">
         <v>502</v>
       </c>
-      <c r="F15" s="76" t="str">
+      <c r="F15" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит1[10 %]</v>
       </c>
-      <c r="G15" s="75">
-        <f>Оценка!D15</f>
+      <c r="G15" s="74">
+        <f>Оценка!D18</f>
         <v>15</v>
       </c>
-      <c r="H15" s="74">
+      <c r="H15" s="73">
         <v>10</v>
       </c>
-      <c r="I15" s="74" t="s">
+      <c r="I15" s="73" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="78">
+      <c r="A16" s="77">
         <v>8</v>
       </c>
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="76" t="s">
+      <c r="C16" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="76">
+      <c r="D16" s="75">
         <v>14</v>
       </c>
-      <c r="E16" s="76">
+      <c r="E16" s="75">
         <v>504</v>
       </c>
-      <c r="F16" s="76" t="str">
+      <c r="F16" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит1[5 %]</v>
       </c>
-      <c r="G16" s="75">
-        <f>Оценка!D17</f>
+      <c r="G16" s="74">
+        <f>Оценка!D20</f>
         <v>24</v>
       </c>
-      <c r="H16" s="74">
+      <c r="H16" s="73">
         <v>5</v>
       </c>
-      <c r="I16" s="74" t="s">
+      <c r="I16" s="73" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="79">
+      <c r="A17" s="78">
         <v>9</v>
       </c>
-      <c r="B17" s="76" t="s">
+      <c r="B17" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="76" t="s">
+      <c r="C17" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="77" t="s">
+      <c r="D17" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="76">
+      <c r="E17" s="75">
         <v>505</v>
       </c>
-      <c r="F17" s="76" t="str">
+      <c r="F17" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит1[15 %]</v>
       </c>
-      <c r="G17" s="75">
-        <f>Оценка!D18</f>
+      <c r="G17" s="74">
+        <f>Оценка!D21</f>
         <v>35</v>
       </c>
-      <c r="H17" s="74">
+      <c r="H17" s="73">
         <v>15</v>
       </c>
-      <c r="I17" s="74" t="s">
+      <c r="I17" s="73" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="78">
+      <c r="A18" s="77">
         <v>10</v>
       </c>
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="76" t="s">
+      <c r="C18" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="76">
+      <c r="D18" s="75">
         <v>8</v>
       </c>
-      <c r="E18" s="76">
+      <c r="E18" s="75">
         <v>506</v>
       </c>
-      <c r="F18" s="76" t="str">
+      <c r="F18" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит1[5 %]</v>
       </c>
-      <c r="G18" s="75">
-        <f>Оценка!D19</f>
+      <c r="G18" s="74">
+        <f>Оценка!D22</f>
         <v>7</v>
       </c>
-      <c r="H18" s="74">
+      <c r="H18" s="73">
         <v>5</v>
       </c>
-      <c r="I18" s="74" t="s">
+      <c r="I18" s="73" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="79">
+      <c r="A19" s="78">
         <v>11</v>
       </c>
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="76" t="s">
+      <c r="C19" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="77" t="s">
+      <c r="D19" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="76">
+      <c r="E19" s="75">
         <v>508</v>
       </c>
-      <c r="F19" s="76" t="str">
+      <c r="F19" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит2</v>
       </c>
-      <c r="G19" s="75">
-        <f>Оценка!D21</f>
+      <c r="G19" s="74">
+        <f>Оценка!D24</f>
         <v>8</v>
       </c>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74" t="s">
+      <c r="H19" s="73"/>
+      <c r="I19" s="73" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="79">
+      <c r="A20" s="78">
         <v>12</v>
       </c>
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="76" t="s">
+      <c r="C20" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="76">
+      <c r="D20" s="75">
         <v>6</v>
       </c>
-      <c r="E20" s="76">
+      <c r="E20" s="75">
         <v>509</v>
       </c>
-      <c r="F20" s="76" t="str">
+      <c r="F20" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит2[33 %]</v>
       </c>
-      <c r="G20" s="75">
-        <f>Оценка!D22</f>
+      <c r="G20" s="74">
+        <f>Оценка!D25</f>
         <v>40</v>
       </c>
-      <c r="H20" s="74">
+      <c r="H20" s="73">
         <v>33</v>
       </c>
-      <c r="I20" s="74" t="s">
+      <c r="I20" s="73" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="78">
+      <c r="A21" s="77">
         <v>13</v>
       </c>
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="76" t="s">
+      <c r="D21" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="76">
+      <c r="E21" s="75">
         <v>510</v>
       </c>
-      <c r="F21" s="76" t="str">
+      <c r="F21" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит1[33 %]</v>
       </c>
-      <c r="G21" s="75">
-        <f>Оценка!D23</f>
+      <c r="G21" s="74">
+        <f>Оценка!D26</f>
         <v>32</v>
       </c>
-      <c r="H21" s="74">
+      <c r="H21" s="73">
         <v>33</v>
       </c>
-      <c r="I21" s="74" t="s">
+      <c r="I21" s="73" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="79">
+      <c r="A22" s="78">
         <v>14</v>
       </c>
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="76">
+      <c r="D22" s="75">
         <v>12</v>
       </c>
-      <c r="E22" s="76">
+      <c r="E22" s="75">
         <v>503</v>
       </c>
-      <c r="F22" s="76" t="str">
+      <c r="F22" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит2[10 %]</v>
       </c>
-      <c r="G22" s="75">
-        <f>Оценка!D16</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="74">
+      <c r="G22" s="74">
+        <f>Оценка!D19</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="73">
         <v>10</v>
       </c>
-      <c r="I22" s="74" t="s">
+      <c r="I22" s="73" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="78">
+      <c r="A23" s="77">
         <v>15</v>
       </c>
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="76" t="s">
+      <c r="C23" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="76" t="s">
+      <c r="D23" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="E23" s="76">
+      <c r="E23" s="75">
         <v>512</v>
       </c>
-      <c r="F23" s="76" t="str">
+      <c r="F23" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит3[100 %]</v>
       </c>
-      <c r="G23" s="75">
+      <c r="G23" s="74">
         <v>30</v>
       </c>
-      <c r="H23" s="74">
+      <c r="H23" s="73">
         <v>100</v>
       </c>
-      <c r="I23" s="74" t="s">
+      <c r="I23" s="73" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="78">
+      <c r="A24" s="77">
         <v>16</v>
       </c>
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="76">
+      <c r="C24" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="75">
         <v>6</v>
       </c>
-      <c r="E24" s="76">
+      <c r="E24" s="75">
         <v>511</v>
       </c>
-      <c r="F24" s="76" t="str">
+      <c r="F24" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит4[100 %]</v>
       </c>
-      <c r="G24" s="75">
-        <f>Оценка!D26</f>
+      <c r="G24" s="74">
+        <f>Оценка!D29</f>
         <v>50</v>
       </c>
-      <c r="H24" s="74">
+      <c r="H24" s="73">
         <v>100</v>
       </c>
-      <c r="I24" s="74" t="s">
+      <c r="I24" s="73" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4317,7 +4301,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Справочники!$C$2:$C$4</xm:f>
@@ -4334,7 +4318,19 @@
           <x14:formula1>
             <xm:f>Справочники!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:C2</xm:sqref>
+          <xm:sqref>C2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Справочники!$A$28:$A$34</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Справочники!$B$28:$B$77</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4343,6 +4339,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x0101001FBA738D46B8C545A6D67A5D9179E626" ma:contentTypeVersion="0" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="9f473e0b291382668614debc5d36aa4f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="02f955febea7e716b4e91cddba171100">
     <xsd:element name="properties">
@@ -4456,22 +4467,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B50A027-145D-4944-89ED-C0E81732859B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{676BF1D7-A4D9-4478-A8BA-91CF146DE1C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D38F7E9-60F0-4769-BD1B-491B9D9189ED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4485,27 +4504,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{676BF1D7-A4D9-4478-A8BA-91CF146DE1C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B50A027-145D-4944-89ED-C0E81732859B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/test/Расшифровка ЭО BIQ5257.xlsx
+++ b/test/Расшифровка ЭО BIQ5257.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\info\Эрнест\git\Diplom\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Эрнест\Documents\GitHub\Diplom\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="9435" tabRatio="735" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="9435" tabRatio="735"/>
   </bookViews>
   <sheets>
     <sheet name="Оценка" sheetId="25" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="168">
   <si>
     <t>Разработка</t>
   </si>
@@ -711,7 +711,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -811,6 +811,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -915,12 +921,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="justify"/>
@@ -1163,6 +1170,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1175,73 +1188,23 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="20% — акцент1" xfId="3" builtinId="30"/>
     <cellStyle name="20% — акцент3" xfId="1" builtinId="38"/>
     <cellStyle name="40% — акцент3" xfId="2" builtinId="39"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <b val="0"/>
@@ -1442,24 +1405,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="B7:L24" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="B7:L24"/>
-  <tableColumns count="11">
-    <tableColumn id="1" name="Наименование работы в оценке" dataDxfId="10"/>
-    <tableColumn id="2" name="Наименование работы в MS Project" dataDxfId="9"/>
-    <tableColumn id="3" name="Предшественники" dataDxfId="8"/>
-    <tableColumn id="4" name="Тип Работы" dataDxfId="7"/>
-    <tableColumn id="5" name="Исполнители" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="B7:I24" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B7:I24"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Наименование работы в оценке" dataDxfId="7"/>
+    <tableColumn id="2" name="Наименование работы в MS Project" dataDxfId="6"/>
+    <tableColumn id="3" name="Предшественники" dataDxfId="5"/>
+    <tableColumn id="4" name="Тип Работы" dataDxfId="4"/>
+    <tableColumn id="5" name="Исполнители" dataDxfId="3">
       <calculatedColumnFormula>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Часы" dataDxfId="5">
+    <tableColumn id="6" name="Часы" dataDxfId="2">
       <calculatedColumnFormula>Оценка!D8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Проценты" dataDxfId="4"/>
-    <tableColumn id="8" name="Исполнитель" dataDxfId="3"/>
-    <tableColumn id="9" name="Группа" dataDxfId="2"/>
-    <tableColumn id="10" name="Функциональная область" dataDxfId="1"/>
-    <tableColumn id="11" name="Тег" dataDxfId="0"/>
+    <tableColumn id="7" name="Проценты" dataDxfId="1"/>
+    <tableColumn id="8" name="Исполнитель" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1754,8 +1714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1839,7 +1799,7 @@
     <row r="6" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="S6" s="5"/>
     </row>
-    <row r="7" spans="1:20" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="86" t="s">
         <v>50</v>
       </c>
@@ -1854,10 +1814,19 @@
       <c r="F7" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="G7" s="96" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7" s="96" t="s">
+        <v>167</v>
+      </c>
+      <c r="I7" s="96" t="s">
+        <v>110</v>
+      </c>
+      <c r="L7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="11"/>
+      <c r="M7" s="11"/>
       <c r="S7" s="5"/>
     </row>
     <row r="8" spans="1:20" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1883,10 +1852,13 @@
         <f>ROUND(D8,0)/$D$20</f>
         <v>0.13008130081300814</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="L8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="41">
+      <c r="M8" s="41">
         <f>D20/8</f>
         <v>15.375</v>
       </c>
@@ -1913,16 +1885,18 @@
         <f t="shared" ref="F9:F19" si="0">ROUND(D9,0)/$D$20</f>
         <v>4.065040650406504E-2</v>
       </c>
-      <c r="H9" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="41">
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="L9" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="41">
         <f>D24/8</f>
         <v>10</v>
       </c>
       <c r="S9" s="5"/>
     </row>
-    <row r="10" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="89"/>
       <c r="B10" s="87"/>
       <c r="C10" s="30" t="s">
@@ -1941,11 +1915,13 @@
         <f t="shared" si="0"/>
         <v>4.065040650406504E-2</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="L10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="42">
-        <f>SUM(I8:I9)</f>
+      <c r="M10" s="42">
+        <f>SUM(M8:M9)</f>
         <v>25.375</v>
       </c>
       <c r="S10" s="5"/>
@@ -1971,12 +1947,13 @@
         <f t="shared" si="0"/>
         <v>7.3170731707317069E-2</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="L11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="43">
-        <f>I10*13000</f>
+      <c r="M11" s="43">
+        <f>M10*13000</f>
         <v>329875</v>
       </c>
       <c r="T11" s="5"/>
@@ -2000,12 +1977,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="41"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="41"/>
       <c r="T12" s="5"/>
     </row>
-    <row r="13" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="89"/>
       <c r="B13" s="87" t="s">
         <v>27</v>
@@ -2026,11 +2004,12 @@
         <f t="shared" si="0"/>
         <v>1.6260162601626018E-2</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="16" t="s">
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="L13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="41">
+      <c r="M13" s="41">
         <f>D26/8</f>
         <v>6.25</v>
       </c>
@@ -2055,17 +2034,18 @@
         <f t="shared" si="0"/>
         <v>4.065040650406504E-2</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="16" t="s">
+      <c r="G14" s="97"/>
+      <c r="H14" s="97"/>
+      <c r="L14" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="18">
+      <c r="M14" s="18">
         <f>IF(C2="БИСКВИТ",16600,25920)</f>
         <v>25920</v>
       </c>
       <c r="T14" s="5"/>
     </row>
-    <row r="15" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A15" s="89"/>
       <c r="B15" s="87" t="s">
         <v>28</v>
@@ -2086,12 +2066,13 @@
         <f t="shared" si="0"/>
         <v>0.12195121951219512</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="16" t="s">
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="L15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="18">
-        <f>I13*I14</f>
+      <c r="M15" s="18">
+        <f>M13*M14</f>
         <v>162000</v>
       </c>
       <c r="T15" s="5"/>
@@ -2115,7 +2096,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="5"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
       <c r="T16" s="5"/>
     </row>
     <row r="17" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2139,7 +2121,8 @@
         <f t="shared" si="0"/>
         <v>0.1951219512195122</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
       <c r="T17" s="5"/>
     </row>
     <row r="18" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2163,7 +2146,8 @@
         <f t="shared" si="0"/>
         <v>0.28455284552845528</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
       <c r="T18" s="5"/>
     </row>
     <row r="19" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2185,7 +2169,8 @@
         <f t="shared" si="0"/>
         <v>5.6910569105691054E-2</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
       <c r="T19" s="5"/>
     </row>
     <row r="20" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2206,7 +2191,8 @@
         <f t="array" ref="F20">(D20)/SUM(ROUND(D8:D19,0))</f>
         <v>1</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="97"/>
       <c r="T20" s="5"/>
     </row>
     <row r="21" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2233,7 +2219,8 @@
         <f>D21/$D$24</f>
         <v>0.1</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
       <c r="T21" s="5"/>
     </row>
     <row r="22" spans="1:20" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2255,7 +2242,8 @@
         <f t="shared" ref="F22:F23" si="1">D22/$D$24</f>
         <v>0.5</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
       <c r="T22" s="5"/>
     </row>
     <row r="23" spans="1:20" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2278,7 +2266,8 @@
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="97"/>
       <c r="T23" s="5"/>
     </row>
     <row r="24" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2299,7 +2288,8 @@
         <f>D24/SUM(D21:D23)</f>
         <v>1</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
       <c r="T24" s="5"/>
     </row>
     <row r="25" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2314,7 +2304,8 @@
       </c>
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
-      <c r="G25" s="5"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="97"/>
       <c r="T25" s="5"/>
     </row>
     <row r="26" spans="1:20" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2364,7 +2355,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Справочники!$A$2:$A$3</xm:f>
@@ -2382,6 +2373,18 @@
             <xm:f>Справочники!$C$2:$C$4</xm:f>
           </x14:formula1>
           <xm:sqref>C4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Справочники!$B$28:$B$77</xm:f>
+          </x14:formula1>
+          <xm:sqref>G8:G19 G21:G23 G26</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Справочники!$A$28:$A$34</xm:f>
+          </x14:formula1>
+          <xm:sqref>I8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2460,7 +2463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
@@ -2526,52 +2529,52 @@
       <c r="B6" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="90" t="s">
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
       <c r="B7" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90" t="s">
+      <c r="D7" s="92"/>
+      <c r="E7" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90" t="s">
+      <c r="F7" s="92"/>
+      <c r="G7" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90" t="s">
+      <c r="H7" s="92"/>
+      <c r="I7" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90" t="s">
+      <c r="J7" s="92"/>
+      <c r="K7" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90" t="s">
+      <c r="L7" s="92"/>
+      <c r="M7" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="N7" s="90"/>
+      <c r="N7" s="92"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
@@ -2660,7 +2663,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="91" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="59" t="s">
@@ -2704,7 +2707,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="95"/>
+      <c r="A11" s="91"/>
       <c r="B11" s="59" t="s">
         <v>23</v>
       </c>
@@ -2746,7 +2749,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="91" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="59" t="s">
@@ -2790,7 +2793,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
+      <c r="A13" s="91"/>
       <c r="B13" s="59" t="s">
         <v>6</v>
       </c>
@@ -2832,7 +2835,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="91" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="59" t="s">
@@ -2876,7 +2879,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="95"/>
+      <c r="A15" s="91"/>
       <c r="B15" s="59" t="s">
         <v>7</v>
       </c>
@@ -2918,7 +2921,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="95" t="s">
+      <c r="A16" s="91" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="59" t="s">
@@ -2962,7 +2965,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="95"/>
+      <c r="A17" s="91"/>
       <c r="B17" s="59" t="s">
         <v>30</v>
       </c>
@@ -3048,7 +3051,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="91" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="59" t="s">
@@ -3092,7 +3095,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="95"/>
+      <c r="A20" s="91"/>
       <c r="B20" s="59" t="s">
         <v>16</v>
       </c>
@@ -3188,7 +3191,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="94" t="s">
+      <c r="A22" s="90" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="56" t="s">
@@ -3232,7 +3235,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="94"/>
+      <c r="A23" s="90"/>
       <c r="B23" s="56" t="s">
         <v>37</v>
       </c>
@@ -3274,7 +3277,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="94"/>
+      <c r="A24" s="90"/>
       <c r="B24" s="56" t="s">
         <v>38</v>
       </c>
@@ -3647,12 +3650,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A19:A20"/>
     <mergeCell ref="I6:N6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
@@ -3661,6 +3658,12 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="C6:H6"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3669,10 +3672,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="216.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3693,9 +3696,9 @@
     <col min="15" max="16" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
-      <c r="C1" s="4" t="str">
+      <c r="C1" s="98" t="str">
         <f>Оценка!C1</f>
         <v xml:space="preserve">BIQ-5257 Реализация передачи уникального идентификатора договора (сделки) в бюро кредитных историй </v>
       </c>
@@ -3703,50 +3706,50 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
-      <c r="C2" s="4" t="str">
+      <c r="C2" s="98" t="str">
         <f>Оценка!C2</f>
         <v>ЦФТ</v>
       </c>
-      <c r="D2" s="4" t="str">
+      <c r="D2" s="98" t="str">
         <f>IF(C2="ЦФТ","JIRACFT","JIRABIS")</f>
         <v>JIRACFT</v>
       </c>
-      <c r="E2" s="76" t="str">
+      <c r="E2" s="98" t="str">
         <f>IF(C2="ЦФТ","25","25")</f>
         <v>25</v>
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="80" t="s">
         <v>94</v>
       </c>
@@ -3774,17 +3777,8 @@
       <c r="I7" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="J7" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="78">
         <v>0</v>
       </c>
@@ -3812,13 +3806,8 @@
       <c r="I8" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="79">
         <v>1</v>
       </c>
@@ -3849,11 +3838,8 @@
       <c r="I9" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="78">
         <v>2</v>
       </c>
@@ -3884,11 +3870,8 @@
       <c r="I10" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="79">
         <v>3</v>
       </c>
@@ -3919,11 +3902,8 @@
       <c r="I11" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="78">
         <v>4</v>
       </c>
@@ -3954,11 +3934,8 @@
       <c r="I12" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="79">
         <v>5</v>
       </c>
@@ -3989,11 +3966,8 @@
       <c r="I13" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="78">
         <v>6</v>
       </c>
@@ -4024,11 +3998,8 @@
       <c r="I14" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="79">
         <v>7</v>
       </c>
@@ -4058,11 +4029,8 @@
       <c r="I15" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="78">
         <v>8</v>
       </c>
@@ -4092,11 +4060,8 @@
       <c r="I16" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="79">
         <v>9</v>
       </c>
@@ -4126,11 +4091,8 @@
       <c r="I17" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="78">
         <v>10</v>
       </c>
@@ -4160,11 +4122,8 @@
       <c r="I18" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="79">
         <v>11</v>
       </c>
@@ -4192,11 +4151,8 @@
       <c r="I19" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="79">
         <v>12</v>
       </c>
@@ -4226,11 +4182,8 @@
       <c r="I20" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="78">
         <v>13</v>
       </c>
@@ -4260,11 +4213,8 @@
       <c r="I21" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="79">
         <v>14</v>
       </c>
@@ -4294,11 +4244,8 @@
       <c r="I22" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="78">
         <v>15</v>
       </c>
@@ -4327,11 +4274,8 @@
       <c r="I23" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="78">
         <v>16</v>
       </c>
@@ -4361,9 +4305,6 @@
       <c r="I24" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4376,7 +4317,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Справочники!$C$2:$C$4</xm:f>
@@ -4395,18 +4336,6 @@
           </x14:formula1>
           <xm:sqref>B2:C2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Справочники!$A$28:$A$34</xm:f>
-          </x14:formula1>
-          <xm:sqref>J8:J24</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Справочники!$B$28:$B$76</xm:f>
-          </x14:formula1>
-          <xm:sqref>K8</xm:sqref>
-        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -4414,21 +4343,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x0101001FBA738D46B8C545A6D67A5D9179E626" ma:contentTypeVersion="0" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="9f473e0b291382668614debc5d36aa4f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="02f955febea7e716b4e91cddba171100">
     <xsd:element name="properties">
@@ -4542,10 +4456,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B50A027-145D-4944-89ED-C0E81732859B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D38F7E9-60F0-4769-BD1B-491B9D9189ED}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4566,17 +4503,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D38F7E9-60F0-4769-BD1B-491B9D9189ED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B50A027-145D-4944-89ED-C0E81732859B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/test/Расшифровка ЭО BIQ5257.xlsx
+++ b/test/Расшифровка ЭО BIQ5257.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="167">
   <si>
     <t>Разработка</t>
   </si>
@@ -387,18 +387,6 @@
     <t>Исполнитель</t>
   </si>
   <si>
-    <t>Аналит1</t>
-  </si>
-  <si>
-    <t>Аналит2</t>
-  </si>
-  <si>
-    <t>Аналит3</t>
-  </si>
-  <si>
-    <t>Аналит4</t>
-  </si>
-  <si>
     <t>Группа</t>
   </si>
   <si>
@@ -571,6 +559,15 @@
   </si>
   <si>
     <t>Тег</t>
+  </si>
+  <si>
+    <t>Аналитик</t>
+  </si>
+  <si>
+    <t>Разработчик</t>
+  </si>
+  <si>
+    <t>Тестировщик</t>
   </si>
 </sst>
 </file>
@@ -927,7 +924,7 @@
     <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="justify"/>
@@ -1158,6 +1155,12 @@
     <xf numFmtId="0" fontId="16" fillId="18" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1170,6 +1173,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1182,18 +1191,7 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% — акцент1" xfId="3" builtinId="30"/>
@@ -1712,7 +1710,7 @@
   <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1788,38 +1786,38 @@
     </row>
     <row r="6" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:17" s="75" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="97" t="s">
-        <v>120</v>
+        <v>114</v>
+      </c>
+      <c r="C7" s="87" t="s">
+        <v>116</v>
       </c>
       <c r="P7" s="5"/>
     </row>
     <row r="8" spans="1:17" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="C8" s="96"/>
+        <v>163</v>
+      </c>
+      <c r="C8" s="86"/>
       <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:17" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:17" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
       <c r="D10" s="22" t="s">
         <v>51</v>
       </c>
@@ -1836,7 +1834,7 @@
       <c r="P10" s="5"/>
     </row>
     <row r="11" spans="1:17" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="91" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -1868,8 +1866,8 @@
       <c r="P11" s="5"/>
     </row>
     <row r="12" spans="1:17" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="89"/>
-      <c r="B12" s="87" t="s">
+      <c r="A12" s="91"/>
+      <c r="B12" s="89" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="68" t="s">
@@ -1898,8 +1896,8 @@
       <c r="P12" s="5"/>
     </row>
     <row r="13" spans="1:17" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="89"/>
-      <c r="B13" s="87"/>
+      <c r="A13" s="91"/>
+      <c r="B13" s="89"/>
       <c r="C13" s="30" t="s">
         <v>23</v>
       </c>
@@ -1926,8 +1924,8 @@
       <c r="P13" s="5"/>
     </row>
     <row r="14" spans="1:17" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="89"/>
-      <c r="B14" s="87" t="s">
+      <c r="A14" s="91"/>
+      <c r="B14" s="89" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="68" t="s">
@@ -1956,8 +1954,8 @@
       <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="89"/>
-      <c r="B15" s="87"/>
+      <c r="A15" s="91"/>
+      <c r="B15" s="89"/>
       <c r="C15" s="30" t="s">
         <v>6</v>
       </c>
@@ -1979,8 +1977,8 @@
       <c r="Q15" s="5"/>
     </row>
     <row r="16" spans="1:17" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="89"/>
-      <c r="B16" s="87" t="s">
+      <c r="A16" s="91"/>
+      <c r="B16" s="89" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="30" t="s">
@@ -2009,8 +2007,8 @@
       <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="1:17" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="89"/>
-      <c r="B17" s="87"/>
+      <c r="A17" s="91"/>
+      <c r="B17" s="89"/>
       <c r="C17" s="68" t="s">
         <v>7</v>
       </c>
@@ -2037,8 +2035,8 @@
       <c r="Q17" s="5"/>
     </row>
     <row r="18" spans="1:17" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="89"/>
-      <c r="B18" s="87" t="s">
+      <c r="A18" s="91"/>
+      <c r="B18" s="89" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -2067,8 +2065,8 @@
       <c r="Q18" s="5"/>
     </row>
     <row r="19" spans="1:17" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="89"/>
-      <c r="B19" s="87"/>
+      <c r="A19" s="91"/>
+      <c r="B19" s="89"/>
       <c r="C19" s="30" t="s">
         <v>30</v>
       </c>
@@ -2088,7 +2086,7 @@
       <c r="Q19" s="5"/>
     </row>
     <row r="20" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="89"/>
+      <c r="A20" s="91"/>
       <c r="B20" s="12" t="s">
         <v>31</v>
       </c>
@@ -2111,8 +2109,8 @@
       <c r="Q20" s="5"/>
     </row>
     <row r="21" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89"/>
-      <c r="B21" s="87" t="s">
+      <c r="A21" s="91"/>
+      <c r="B21" s="89" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="30" t="s">
@@ -2134,8 +2132,8 @@
       <c r="Q21" s="5"/>
     </row>
     <row r="22" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="89"/>
-      <c r="B22" s="87"/>
+      <c r="A22" s="91"/>
+      <c r="B22" s="89"/>
       <c r="C22" s="30" t="s">
         <v>16</v>
       </c>
@@ -2155,7 +2153,7 @@
       <c r="Q22" s="5"/>
     </row>
     <row r="23" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="89"/>
+      <c r="A23" s="91"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9" t="s">
         <v>48</v>
@@ -2175,10 +2173,10 @@
       <c r="Q23" s="5"/>
     </row>
     <row r="24" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="88" t="s">
+      <c r="A24" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="90" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="31" t="s">
@@ -2201,8 +2199,8 @@
       <c r="Q24" s="5"/>
     </row>
     <row r="25" spans="1:17" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="88"/>
-      <c r="B25" s="88"/>
+      <c r="A25" s="90"/>
+      <c r="B25" s="90"/>
       <c r="C25" s="68" t="s">
         <v>37</v>
       </c>
@@ -2222,8 +2220,8 @@
       <c r="Q25" s="5"/>
     </row>
     <row r="26" spans="1:17" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="88"/>
-      <c r="B26" s="88"/>
+      <c r="A26" s="90"/>
+      <c r="B26" s="90"/>
       <c r="C26" s="31" t="s">
         <v>38</v>
       </c>
@@ -2244,7 +2242,7 @@
       <c r="Q26" s="5"/>
     </row>
     <row r="27" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="88"/>
+      <c r="A27" s="90"/>
       <c r="B27" s="10"/>
       <c r="C27" s="33" t="s">
         <v>47</v>
@@ -2321,7 +2319,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Справочники!$A$2:$A$3</xm:f>
@@ -2429,8 +2427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2495,52 +2493,52 @@
       <c r="B6" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="90" t="s">
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
       <c r="B7" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90" t="s">
+      <c r="D7" s="94"/>
+      <c r="E7" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90" t="s">
+      <c r="F7" s="94"/>
+      <c r="G7" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90" t="s">
+      <c r="H7" s="94"/>
+      <c r="I7" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90" t="s">
+      <c r="J7" s="94"/>
+      <c r="K7" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90" t="s">
+      <c r="L7" s="94"/>
+      <c r="M7" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="N7" s="90"/>
+      <c r="N7" s="94"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
@@ -2629,7 +2627,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="93" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="58" t="s">
@@ -2673,7 +2671,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="95"/>
+      <c r="A11" s="93"/>
       <c r="B11" s="58" t="s">
         <v>23</v>
       </c>
@@ -2715,7 +2713,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="93" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="58" t="s">
@@ -2759,7 +2757,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
+      <c r="A13" s="93"/>
       <c r="B13" s="58" t="s">
         <v>6</v>
       </c>
@@ -2801,7 +2799,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="93" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="58" t="s">
@@ -2845,7 +2843,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="95"/>
+      <c r="A15" s="93"/>
       <c r="B15" s="58" t="s">
         <v>7</v>
       </c>
@@ -2887,7 +2885,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="95" t="s">
+      <c r="A16" s="93" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="58" t="s">
@@ -2931,7 +2929,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="95"/>
+      <c r="A17" s="93"/>
       <c r="B17" s="58" t="s">
         <v>30</v>
       </c>
@@ -3017,7 +3015,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="93" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="58" t="s">
@@ -3061,7 +3059,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="95"/>
+      <c r="A20" s="93"/>
       <c r="B20" s="58" t="s">
         <v>16</v>
       </c>
@@ -3157,7 +3155,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="94" t="s">
+      <c r="A22" s="92" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="55" t="s">
@@ -3201,7 +3199,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="94"/>
+      <c r="A23" s="92"/>
       <c r="B23" s="55" t="s">
         <v>37</v>
       </c>
@@ -3243,7 +3241,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="94"/>
+      <c r="A24" s="92"/>
       <c r="B24" s="55" t="s">
         <v>38</v>
       </c>
@@ -3342,286 +3340,280 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="83" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B27" s="84" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="81" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B28" s="82" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="81" t="s">
-        <v>112</v>
+      <c r="A29" s="98" t="s">
+        <v>108</v>
       </c>
       <c r="B29" s="82" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="81" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B30" s="82" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="81" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B31" s="82" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="81" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B32" s="82" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="81" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B33" s="82" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="81" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B34" s="82" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" s="82" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" s="82" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="82" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B38" s="82" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" s="82" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" s="82" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B41" s="82" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" s="82" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" s="82" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" s="82" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" s="82" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" s="82" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" s="82" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" s="82" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="82" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="82" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="82" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="82" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="2:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B53" s="82" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="82" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="82" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="82" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="82" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="82" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="82" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="82" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="82" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="82" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="82" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="82" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B65" s="82" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="82" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B67" s="82" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="82" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="82" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="82" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="82" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B72" s="82" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="82" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="82" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B75" s="82" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B76" s="82" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A19:A20"/>
     <mergeCell ref="I6:N6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
@@ -3630,6 +3622,12 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="C6:H6"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3641,7 +3639,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="216.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3655,16 +3653,15 @@
     <col min="7" max="7" width="19.28515625" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
-    <col min="13" max="14" width="10" customWidth="1"/>
-    <col min="15" max="16" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="13" width="10" customWidth="1"/>
+    <col min="14" max="15" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B1" s="85" t="str">
         <f>Оценка!C6</f>
@@ -3680,7 +3677,7 @@
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B2" s="85" t="str">
         <f>Оценка!C7</f>
@@ -3702,7 +3699,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B3" s="85">
         <f>Оценка!C8</f>
@@ -3778,7 +3775,7 @@
       </c>
       <c r="F8" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналит1[15 %]</v>
+        <v>Аналитик[15 %]</v>
       </c>
       <c r="G8" s="74">
         <f>Оценка!D11</f>
@@ -3788,7 +3785,7 @@
         <v>15</v>
       </c>
       <c r="I8" s="73" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3810,7 +3807,7 @@
       </c>
       <c r="F9" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналит1[5 %]</v>
+        <v>Аналитик[5 %]</v>
       </c>
       <c r="G9" s="74">
         <f>Оценка!D12</f>
@@ -3820,7 +3817,7 @@
         <v>5</v>
       </c>
       <c r="I9" s="73" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3842,7 +3839,7 @@
       </c>
       <c r="F10" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналит1[5 %]</v>
+        <v>Аналитик[5 %]</v>
       </c>
       <c r="G10" s="74">
         <f>Оценка!D13</f>
@@ -3852,7 +3849,7 @@
         <v>5</v>
       </c>
       <c r="I10" s="73" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3874,7 +3871,7 @@
       </c>
       <c r="F11" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналит1[10 %]</v>
+        <v>Аналитик[10 %]</v>
       </c>
       <c r="G11" s="74">
         <f>Оценка!D14</f>
@@ -3884,7 +3881,7 @@
         <v>10</v>
       </c>
       <c r="I11" s="73" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3906,7 +3903,7 @@
       </c>
       <c r="F12" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналит1[5 %]</v>
+        <v>Аналитик[5 %]</v>
       </c>
       <c r="G12" s="74">
         <f>Оценка!D15</f>
@@ -3916,7 +3913,7 @@
         <v>5</v>
       </c>
       <c r="I12" s="73" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3938,7 +3935,7 @@
       </c>
       <c r="F13" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналит1[5 %]</v>
+        <v>Аналитик[5 %]</v>
       </c>
       <c r="G13" s="74">
         <f>Оценка!D16</f>
@@ -3948,7 +3945,7 @@
         <v>5</v>
       </c>
       <c r="I13" s="73" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3970,7 +3967,7 @@
       </c>
       <c r="F14" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналит1[10 %]</v>
+        <v>Аналитик[10 %]</v>
       </c>
       <c r="G14" s="74">
         <f>Оценка!D17</f>
@@ -3980,7 +3977,7 @@
         <v>10</v>
       </c>
       <c r="I14" s="73" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4001,7 +3998,7 @@
       </c>
       <c r="F15" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналит1[10 %]</v>
+        <v>Аналитик[10 %]</v>
       </c>
       <c r="G15" s="74">
         <f>Оценка!D18</f>
@@ -4011,7 +4008,7 @@
         <v>10</v>
       </c>
       <c r="I15" s="73" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -4032,7 +4029,7 @@
       </c>
       <c r="F16" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналит1[5 %]</v>
+        <v>Аналитик[5 %]</v>
       </c>
       <c r="G16" s="74">
         <f>Оценка!D20</f>
@@ -4042,7 +4039,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="73" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -4063,7 +4060,7 @@
       </c>
       <c r="F17" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналит1[15 %]</v>
+        <v>Аналитик[15 %]</v>
       </c>
       <c r="G17" s="74">
         <f>Оценка!D21</f>
@@ -4073,7 +4070,7 @@
         <v>15</v>
       </c>
       <c r="I17" s="73" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -4094,7 +4091,7 @@
       </c>
       <c r="F18" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналит1[5 %]</v>
+        <v>Аналитик[5 %]</v>
       </c>
       <c r="G18" s="74">
         <f>Оценка!D22</f>
@@ -4104,7 +4101,7 @@
         <v>5</v>
       </c>
       <c r="I18" s="73" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4125,7 +4122,7 @@
       </c>
       <c r="F19" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналит2</v>
+        <v>Разработчик</v>
       </c>
       <c r="G19" s="74">
         <f>Оценка!D24</f>
@@ -4133,7 +4130,7 @@
       </c>
       <c r="H19" s="73"/>
       <c r="I19" s="73" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4154,7 +4151,7 @@
       </c>
       <c r="F20" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналит2[33 %]</v>
+        <v>Разработчик[33 %]</v>
       </c>
       <c r="G20" s="74">
         <f>Оценка!D25</f>
@@ -4164,7 +4161,7 @@
         <v>33</v>
       </c>
       <c r="I20" s="73" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4185,7 +4182,7 @@
       </c>
       <c r="F21" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналит1[33 %]</v>
+        <v>Аналитик[33 %]</v>
       </c>
       <c r="G21" s="74">
         <f>Оценка!D26</f>
@@ -4195,7 +4192,7 @@
         <v>33</v>
       </c>
       <c r="I21" s="73" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4216,7 +4213,7 @@
       </c>
       <c r="F22" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналит2[10 %]</v>
+        <v>Разработчик[10 %]</v>
       </c>
       <c r="G22" s="74">
         <f>Оценка!D19</f>
@@ -4226,10 +4223,10 @@
         <v>10</v>
       </c>
       <c r="I22" s="73" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="77">
         <v>15</v>
       </c>
@@ -4247,7 +4244,7 @@
       </c>
       <c r="F23" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналит3[100 %]</v>
+        <v>Тестировщик[100 %]</v>
       </c>
       <c r="G23" s="74">
         <v>30</v>
@@ -4256,10 +4253,10 @@
         <v>100</v>
       </c>
       <c r="I23" s="73" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="77">
         <v>16</v>
       </c>
@@ -4277,7 +4274,7 @@
       </c>
       <c r="F24" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналит4[100 %]</v>
+        <v>Подрядчик[100 %]</v>
       </c>
       <c r="G24" s="74">
         <f>Оценка!D29</f>
@@ -4287,7 +4284,7 @@
         <v>100</v>
       </c>
       <c r="I24" s="73" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -4339,21 +4336,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x0101001FBA738D46B8C545A6D67A5D9179E626" ma:contentTypeVersion="0" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="9f473e0b291382668614debc5d36aa4f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="02f955febea7e716b4e91cddba171100">
     <xsd:element name="properties">
@@ -4467,10 +4449,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B50A027-145D-4944-89ED-C0E81732859B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D38F7E9-60F0-4769-BD1B-491B9D9189ED}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4491,17 +4496,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D38F7E9-60F0-4769-BD1B-491B9D9189ED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B50A027-145D-4944-89ED-C0E81732859B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/test/Расшифровка ЭО BIQ5257.xlsx
+++ b/test/Расшифровка ЭО BIQ5257.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\info\Эрнест\Diplom\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Эрнест\Documents\GitHub\Diplom\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="170">
   <si>
     <t>Разработка</t>
   </si>
@@ -561,13 +561,22 @@
     <t>Тег</t>
   </si>
   <si>
-    <t>Аналитик</t>
-  </si>
-  <si>
-    <t>Разработчик</t>
-  </si>
-  <si>
-    <t>Тестировщик</t>
+    <t>Аналитик1</t>
+  </si>
+  <si>
+    <t>Аналитик2</t>
+  </si>
+  <si>
+    <t>Разработчик1</t>
+  </si>
+  <si>
+    <t>Разработчик2</t>
+  </si>
+  <si>
+    <t>Тестировщик1</t>
+  </si>
+  <si>
+    <t>ГруппаЦК</t>
   </si>
 </sst>
 </file>
@@ -1158,9 +1167,7 @@
     <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1173,25 +1180,27 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% — акцент1" xfId="3" builtinId="30"/>
@@ -1710,7 +1719,7 @@
   <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1789,7 +1798,7 @@
         <v>106</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P6" s="5"/>
     </row>
@@ -1797,7 +1806,7 @@
       <c r="B7" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="98" t="s">
         <v>116</v>
       </c>
       <c r="P7" s="5"/>
@@ -2493,52 +2502,52 @@
       <c r="B6" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="94" t="s">
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
       <c r="B7" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94" t="s">
+      <c r="D7" s="92"/>
+      <c r="E7" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94" t="s">
+      <c r="F7" s="92"/>
+      <c r="G7" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94" t="s">
+      <c r="H7" s="92"/>
+      <c r="I7" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94" t="s">
+      <c r="J7" s="92"/>
+      <c r="K7" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94" t="s">
+      <c r="L7" s="92"/>
+      <c r="M7" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="N7" s="94"/>
+      <c r="N7" s="92"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
@@ -2627,7 +2636,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="97" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="58" t="s">
@@ -2671,7 +2680,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="93"/>
+      <c r="A11" s="97"/>
       <c r="B11" s="58" t="s">
         <v>23</v>
       </c>
@@ -2713,7 +2722,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="93" t="s">
+      <c r="A12" s="97" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="58" t="s">
@@ -2757,7 +2766,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="93"/>
+      <c r="A13" s="97"/>
       <c r="B13" s="58" t="s">
         <v>6</v>
       </c>
@@ -2799,7 +2808,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="97" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="58" t="s">
@@ -2843,7 +2852,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="93"/>
+      <c r="A15" s="97"/>
       <c r="B15" s="58" t="s">
         <v>7</v>
       </c>
@@ -2885,7 +2894,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="93" t="s">
+      <c r="A16" s="97" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="58" t="s">
@@ -2929,7 +2938,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="93"/>
+      <c r="A17" s="97"/>
       <c r="B17" s="58" t="s">
         <v>30</v>
       </c>
@@ -3015,7 +3024,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="93" t="s">
+      <c r="A19" s="97" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="58" t="s">
@@ -3059,7 +3068,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="93"/>
+      <c r="A20" s="97"/>
       <c r="B20" s="58" t="s">
         <v>16</v>
       </c>
@@ -3155,7 +3164,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="92" t="s">
+      <c r="A22" s="96" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="55" t="s">
@@ -3199,7 +3208,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="92"/>
+      <c r="A23" s="96"/>
       <c r="B23" s="55" t="s">
         <v>37</v>
       </c>
@@ -3241,7 +3250,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="92"/>
+      <c r="A24" s="96"/>
       <c r="B24" s="55" t="s">
         <v>38</v>
       </c>
@@ -3355,7 +3364,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="98" t="s">
+      <c r="A29" s="87" t="s">
         <v>108</v>
       </c>
       <c r="B29" s="82" t="s">
@@ -3614,6 +3623,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A19:A20"/>
     <mergeCell ref="I6:N6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
@@ -3622,12 +3637,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="C6:H6"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3638,8 +3647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="216.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3661,11 +3670,11 @@
   <sheetData>
     <row r="1" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="B1" s="85" t="str">
         <f>Оценка!C6</f>
-        <v>Интеграция</v>
+        <v>Кредиты</v>
       </c>
       <c r="C1" s="85" t="str">
         <f>Оценка!C1</f>
@@ -3701,9 +3710,9 @@
       <c r="A3" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="85">
-        <f>Оценка!C8</f>
-        <v>0</v>
+      <c r="B3" s="85" t="str">
+        <f>IF(Оценка!C8="","",Оценка!C8)</f>
+        <v/>
       </c>
       <c r="C3" s="4"/>
       <c r="E3" s="4"/>
@@ -3775,7 +3784,7 @@
       </c>
       <c r="F8" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналитик[15 %]</v>
+        <v>Аналитик1[15 %]</v>
       </c>
       <c r="G8" s="74">
         <f>Оценка!D11</f>
@@ -3807,7 +3816,7 @@
       </c>
       <c r="F9" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналитик[5 %]</v>
+        <v>Аналитик1[5 %]</v>
       </c>
       <c r="G9" s="74">
         <f>Оценка!D12</f>
@@ -3839,7 +3848,7 @@
       </c>
       <c r="F10" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналитик[5 %]</v>
+        <v>Аналитик1[5 %]</v>
       </c>
       <c r="G10" s="74">
         <f>Оценка!D13</f>
@@ -3871,7 +3880,7 @@
       </c>
       <c r="F11" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналитик[10 %]</v>
+        <v>Аналитик1[10 %]</v>
       </c>
       <c r="G11" s="74">
         <f>Оценка!D14</f>
@@ -3903,7 +3912,7 @@
       </c>
       <c r="F12" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналитик[5 %]</v>
+        <v>Аналитик1[5 %]</v>
       </c>
       <c r="G12" s="74">
         <f>Оценка!D15</f>
@@ -3935,7 +3944,7 @@
       </c>
       <c r="F13" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналитик[5 %]</v>
+        <v>Аналитик1[5 %]</v>
       </c>
       <c r="G13" s="74">
         <f>Оценка!D16</f>
@@ -3967,7 +3976,7 @@
       </c>
       <c r="F14" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналитик[10 %]</v>
+        <v>Аналитик1[10 %]</v>
       </c>
       <c r="G14" s="74">
         <f>Оценка!D17</f>
@@ -3998,7 +4007,7 @@
       </c>
       <c r="F15" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналитик[10 %]</v>
+        <v>Аналитик1[10 %]</v>
       </c>
       <c r="G15" s="74">
         <f>Оценка!D18</f>
@@ -4029,7 +4038,7 @@
       </c>
       <c r="F16" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналитик[5 %]</v>
+        <v>Аналитик1[5 %]</v>
       </c>
       <c r="G16" s="74">
         <f>Оценка!D20</f>
@@ -4060,7 +4069,7 @@
       </c>
       <c r="F17" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналитик[15 %]</v>
+        <v>Аналитик1[15 %]</v>
       </c>
       <c r="G17" s="74">
         <f>Оценка!D21</f>
@@ -4091,7 +4100,7 @@
       </c>
       <c r="F18" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналитик[5 %]</v>
+        <v>Аналитик1[5 %]</v>
       </c>
       <c r="G18" s="74">
         <f>Оценка!D22</f>
@@ -4122,15 +4131,17 @@
       </c>
       <c r="F19" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Разработчик</v>
+        <v>Разработчик1[30 %]</v>
       </c>
       <c r="G19" s="74">
         <f>Оценка!D24</f>
         <v>8</v>
       </c>
-      <c r="H19" s="73"/>
+      <c r="H19" s="73">
+        <v>30</v>
+      </c>
       <c r="I19" s="73" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4151,7 +4162,7 @@
       </c>
       <c r="F20" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Разработчик[33 %]</v>
+        <v>Разработчик1[33 %]</v>
       </c>
       <c r="G20" s="74">
         <f>Оценка!D25</f>
@@ -4161,7 +4172,7 @@
         <v>33</v>
       </c>
       <c r="I20" s="73" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4182,7 +4193,7 @@
       </c>
       <c r="F21" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналитик[33 %]</v>
+        <v>Аналитик2[33 %]</v>
       </c>
       <c r="G21" s="74">
         <f>Оценка!D26</f>
@@ -4192,7 +4203,7 @@
         <v>33</v>
       </c>
       <c r="I21" s="73" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4213,7 +4224,7 @@
       </c>
       <c r="F22" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Разработчик[10 %]</v>
+        <v>Разработчик2[10 %]</v>
       </c>
       <c r="G22" s="74">
         <f>Оценка!D19</f>
@@ -4223,7 +4234,7 @@
         <v>10</v>
       </c>
       <c r="I22" s="73" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4244,7 +4255,7 @@
       </c>
       <c r="F23" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Тестировщик[100 %]</v>
+        <v>Тестировщик1[100 %]</v>
       </c>
       <c r="G23" s="74">
         <v>30</v>
@@ -4253,7 +4264,7 @@
         <v>100</v>
       </c>
       <c r="I23" s="73" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4336,6 +4347,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x0101001FBA738D46B8C545A6D67A5D9179E626" ma:contentTypeVersion="0" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="9f473e0b291382668614debc5d36aa4f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="02f955febea7e716b4e91cddba171100">
     <xsd:element name="properties">
@@ -4449,12 +4466,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4465,6 +4476,21 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{676BF1D7-A4D9-4478-A8BA-91CF146DE1C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D38F7E9-60F0-4769-BD1B-491B9D9189ED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4480,21 +4506,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{676BF1D7-A4D9-4478-A8BA-91CF146DE1C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B50A027-145D-4944-89ED-C0E81732859B}">
   <ds:schemaRefs>

--- a/test/Расшифровка ЭО BIQ5257.xlsx
+++ b/test/Расшифровка ЭО BIQ5257.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="170">
   <si>
     <t>Разработка</t>
   </si>
@@ -1168,6 +1168,9 @@
       <alignment vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1180,6 +1183,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1191,15 +1200,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1806,7 +1806,7 @@
       <c r="B7" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="98" t="s">
+      <c r="C7" s="88" t="s">
         <v>116</v>
       </c>
       <c r="P7" s="5"/>
@@ -1822,11 +1822,11 @@
       <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:17" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
       <c r="D10" s="22" t="s">
         <v>51</v>
       </c>
@@ -1843,7 +1843,7 @@
       <c r="P10" s="5"/>
     </row>
     <row r="11" spans="1:17" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="92" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -1875,8 +1875,8 @@
       <c r="P11" s="5"/>
     </row>
     <row r="12" spans="1:17" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="91"/>
-      <c r="B12" s="89" t="s">
+      <c r="A12" s="92"/>
+      <c r="B12" s="90" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="68" t="s">
@@ -1905,8 +1905,8 @@
       <c r="P12" s="5"/>
     </row>
     <row r="13" spans="1:17" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="91"/>
-      <c r="B13" s="89"/>
+      <c r="A13" s="92"/>
+      <c r="B13" s="90"/>
       <c r="C13" s="30" t="s">
         <v>23</v>
       </c>
@@ -1933,8 +1933,8 @@
       <c r="P13" s="5"/>
     </row>
     <row r="14" spans="1:17" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="91"/>
-      <c r="B14" s="89" t="s">
+      <c r="A14" s="92"/>
+      <c r="B14" s="90" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="68" t="s">
@@ -1963,8 +1963,8 @@
       <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="91"/>
-      <c r="B15" s="89"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="90"/>
       <c r="C15" s="30" t="s">
         <v>6</v>
       </c>
@@ -1986,8 +1986,8 @@
       <c r="Q15" s="5"/>
     </row>
     <row r="16" spans="1:17" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="91"/>
-      <c r="B16" s="89" t="s">
+      <c r="A16" s="92"/>
+      <c r="B16" s="90" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="30" t="s">
@@ -2016,8 +2016,8 @@
       <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="1:17" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="91"/>
-      <c r="B17" s="89"/>
+      <c r="A17" s="92"/>
+      <c r="B17" s="90"/>
       <c r="C17" s="68" t="s">
         <v>7</v>
       </c>
@@ -2044,8 +2044,8 @@
       <c r="Q17" s="5"/>
     </row>
     <row r="18" spans="1:17" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="91"/>
-      <c r="B18" s="89" t="s">
+      <c r="A18" s="92"/>
+      <c r="B18" s="90" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -2074,8 +2074,8 @@
       <c r="Q18" s="5"/>
     </row>
     <row r="19" spans="1:17" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="91"/>
-      <c r="B19" s="89"/>
+      <c r="A19" s="92"/>
+      <c r="B19" s="90"/>
       <c r="C19" s="30" t="s">
         <v>30</v>
       </c>
@@ -2095,7 +2095,7 @@
       <c r="Q19" s="5"/>
     </row>
     <row r="20" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="91"/>
+      <c r="A20" s="92"/>
       <c r="B20" s="12" t="s">
         <v>31</v>
       </c>
@@ -2118,8 +2118,8 @@
       <c r="Q20" s="5"/>
     </row>
     <row r="21" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="91"/>
-      <c r="B21" s="89" t="s">
+      <c r="A21" s="92"/>
+      <c r="B21" s="90" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="30" t="s">
@@ -2141,8 +2141,8 @@
       <c r="Q21" s="5"/>
     </row>
     <row r="22" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="91"/>
-      <c r="B22" s="89"/>
+      <c r="A22" s="92"/>
+      <c r="B22" s="90"/>
       <c r="C22" s="30" t="s">
         <v>16</v>
       </c>
@@ -2162,7 +2162,7 @@
       <c r="Q22" s="5"/>
     </row>
     <row r="23" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="91"/>
+      <c r="A23" s="92"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9" t="s">
         <v>48</v>
@@ -2182,10 +2182,10 @@
       <c r="Q23" s="5"/>
     </row>
     <row r="24" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="90" t="s">
+      <c r="A24" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="91" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="31" t="s">
@@ -2208,8 +2208,8 @@
       <c r="Q24" s="5"/>
     </row>
     <row r="25" spans="1:17" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="90"/>
-      <c r="B25" s="90"/>
+      <c r="A25" s="91"/>
+      <c r="B25" s="91"/>
       <c r="C25" s="68" t="s">
         <v>37</v>
       </c>
@@ -2229,8 +2229,8 @@
       <c r="Q25" s="5"/>
     </row>
     <row r="26" spans="1:17" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="90"/>
-      <c r="B26" s="90"/>
+      <c r="A26" s="91"/>
+      <c r="B26" s="91"/>
       <c r="C26" s="31" t="s">
         <v>38</v>
       </c>
@@ -2251,7 +2251,7 @@
       <c r="Q26" s="5"/>
     </row>
     <row r="27" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="90"/>
+      <c r="A27" s="91"/>
       <c r="B27" s="10"/>
       <c r="C27" s="33" t="s">
         <v>47</v>
@@ -2502,52 +2502,52 @@
       <c r="B6" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="92" t="s">
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
       <c r="B7" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92" t="s">
+      <c r="D7" s="95"/>
+      <c r="E7" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92" t="s">
+      <c r="F7" s="95"/>
+      <c r="G7" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92" t="s">
+      <c r="H7" s="95"/>
+      <c r="I7" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92" t="s">
+      <c r="J7" s="95"/>
+      <c r="K7" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92" t="s">
+      <c r="L7" s="95"/>
+      <c r="M7" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="N7" s="92"/>
+      <c r="N7" s="95"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
@@ -2636,7 +2636,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="97" t="s">
+      <c r="A10" s="94" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="58" t="s">
@@ -2680,7 +2680,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="97"/>
+      <c r="A11" s="94"/>
       <c r="B11" s="58" t="s">
         <v>23</v>
       </c>
@@ -2722,7 +2722,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="97" t="s">
+      <c r="A12" s="94" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="58" t="s">
@@ -2766,7 +2766,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="97"/>
+      <c r="A13" s="94"/>
       <c r="B13" s="58" t="s">
         <v>6</v>
       </c>
@@ -2808,7 +2808,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="94" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="58" t="s">
@@ -2852,7 +2852,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="97"/>
+      <c r="A15" s="94"/>
       <c r="B15" s="58" t="s">
         <v>7</v>
       </c>
@@ -2894,7 +2894,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="97" t="s">
+      <c r="A16" s="94" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="58" t="s">
@@ -2938,7 +2938,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="97"/>
+      <c r="A17" s="94"/>
       <c r="B17" s="58" t="s">
         <v>30</v>
       </c>
@@ -3024,7 +3024,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="97" t="s">
+      <c r="A19" s="94" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="58" t="s">
@@ -3068,7 +3068,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="97"/>
+      <c r="A20" s="94"/>
       <c r="B20" s="58" t="s">
         <v>16</v>
       </c>
@@ -3164,7 +3164,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="96" t="s">
+      <c r="A22" s="93" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="55" t="s">
@@ -3208,7 +3208,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="96"/>
+      <c r="A23" s="93"/>
       <c r="B23" s="55" t="s">
         <v>37</v>
       </c>
@@ -3250,7 +3250,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="96"/>
+      <c r="A24" s="93"/>
       <c r="B24" s="55" t="s">
         <v>38</v>
       </c>
@@ -3623,12 +3623,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A19:A20"/>
     <mergeCell ref="I6:N6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
@@ -3637,6 +3631,12 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="C6:H6"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3647,8 +3647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="216.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3692,9 +3692,8 @@
         <f>Оценка!C7</f>
         <v>Предкредитка</v>
       </c>
-      <c r="C2" s="85" t="str">
-        <f>Оценка!C2</f>
-        <v>ЦФТ</v>
+      <c r="C2" s="85" t="s">
+        <v>55</v>
       </c>
       <c r="D2" s="85" t="str">
         <f>IF(C2="ЦФТ","JIRACFT","JIRABIS")</f>
@@ -3861,7 +3860,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="78">
         <v>3</v>
       </c>
@@ -3957,7 +3956,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="77">
         <v>6</v>
       </c>
@@ -4051,7 +4050,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="78">
         <v>9</v>
       </c>
@@ -4353,6 +4352,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x0101001FBA738D46B8C545A6D67A5D9179E626" ma:contentTypeVersion="0" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="9f473e0b291382668614debc5d36aa4f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="02f955febea7e716b4e91cddba171100">
     <xsd:element name="properties">
@@ -4466,15 +4474,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{676BF1D7-A4D9-4478-A8BA-91CF146DE1C8}">
   <ds:schemaRefs>
@@ -4491,6 +4490,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B50A027-145D-4944-89ED-C0E81732859B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D38F7E9-60F0-4769-BD1B-491B9D9189ED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4504,12 +4511,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B50A027-145D-4944-89ED-C0E81732859B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/test/Расшифровка ЭО BIQ5257.xlsx
+++ b/test/Расшифровка ЭО BIQ5257.xlsx
@@ -4346,21 +4346,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x0101001FBA738D46B8C545A6D67A5D9179E626" ma:contentTypeVersion="0" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="9f473e0b291382668614debc5d36aa4f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="02f955febea7e716b4e91cddba171100">
     <xsd:element name="properties">
@@ -4474,7 +4459,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D38F7E9-60F0-4769-BD1B-491B9D9189ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{676BF1D7-A4D9-4478-A8BA-91CF146DE1C8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -4489,26 +4505,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B50A027-145D-4944-89ED-C0E81732859B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D38F7E9-60F0-4769-BD1B-491B9D9189ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/test/Расшифровка ЭО BIQ5257.xlsx
+++ b/test/Расшифровка ЭО BIQ5257.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="168">
   <si>
     <t>Разработка</t>
   </si>
@@ -564,19 +564,13 @@
     <t>Аналитик1</t>
   </si>
   <si>
-    <t>Аналитик2</t>
-  </si>
-  <si>
     <t>Разработчик1</t>
   </si>
   <si>
-    <t>Разработчик2</t>
-  </si>
-  <si>
-    <t>Тестировщик1</t>
-  </si>
-  <si>
     <t>ГруппаЦК</t>
+  </si>
+  <si>
+    <t>Тестировщик2</t>
   </si>
 </sst>
 </file>
@@ -1183,23 +1177,23 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2502,52 +2496,52 @@
       <c r="B6" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="95" t="s">
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="95"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="93"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
       <c r="B7" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95" t="s">
+      <c r="D7" s="93"/>
+      <c r="E7" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95" t="s">
+      <c r="F7" s="93"/>
+      <c r="G7" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95" t="s">
+      <c r="H7" s="93"/>
+      <c r="I7" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95" t="s">
+      <c r="J7" s="93"/>
+      <c r="K7" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95" t="s">
+      <c r="L7" s="93"/>
+      <c r="M7" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="N7" s="95"/>
+      <c r="N7" s="93"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
@@ -2636,7 +2630,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="98" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="58" t="s">
@@ -2680,7 +2674,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="94"/>
+      <c r="A11" s="98"/>
       <c r="B11" s="58" t="s">
         <v>23</v>
       </c>
@@ -2722,7 +2716,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="94" t="s">
+      <c r="A12" s="98" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="58" t="s">
@@ -2766,7 +2760,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="94"/>
+      <c r="A13" s="98"/>
       <c r="B13" s="58" t="s">
         <v>6</v>
       </c>
@@ -2808,7 +2802,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="98" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="58" t="s">
@@ -2852,7 +2846,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="94"/>
+      <c r="A15" s="98"/>
       <c r="B15" s="58" t="s">
         <v>7</v>
       </c>
@@ -2894,7 +2888,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="94" t="s">
+      <c r="A16" s="98" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="58" t="s">
@@ -2938,7 +2932,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="94"/>
+      <c r="A17" s="98"/>
       <c r="B17" s="58" t="s">
         <v>30</v>
       </c>
@@ -3024,7 +3018,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="94" t="s">
+      <c r="A19" s="98" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="58" t="s">
@@ -3068,7 +3062,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="94"/>
+      <c r="A20" s="98"/>
       <c r="B20" s="58" t="s">
         <v>16</v>
       </c>
@@ -3164,7 +3158,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="93" t="s">
+      <c r="A22" s="97" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="55" t="s">
@@ -3208,7 +3202,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="93"/>
+      <c r="A23" s="97"/>
       <c r="B23" s="55" t="s">
         <v>37</v>
       </c>
@@ -3250,7 +3244,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="93"/>
+      <c r="A24" s="97"/>
       <c r="B24" s="55" t="s">
         <v>38</v>
       </c>
@@ -3623,6 +3617,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A19:A20"/>
     <mergeCell ref="I6:N6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
@@ -3631,12 +3631,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="C6:H6"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3647,8 +3641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="216.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3670,7 +3664,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B1" s="85" t="str">
         <f>Оценка!C6</f>
@@ -4140,7 +4134,7 @@
         <v>30</v>
       </c>
       <c r="I19" s="73" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4171,7 +4165,7 @@
         <v>33</v>
       </c>
       <c r="I20" s="73" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4192,7 +4186,7 @@
       </c>
       <c r="F21" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналитик2[33 %]</v>
+        <v>Аналитик1[33 %]</v>
       </c>
       <c r="G21" s="74">
         <f>Оценка!D26</f>
@@ -4202,7 +4196,7 @@
         <v>33</v>
       </c>
       <c r="I21" s="73" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4223,7 +4217,7 @@
       </c>
       <c r="F22" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Разработчик2[10 %]</v>
+        <v>Разработчик1[10 %]</v>
       </c>
       <c r="G22" s="74">
         <f>Оценка!D19</f>
@@ -4233,7 +4227,7 @@
         <v>10</v>
       </c>
       <c r="I22" s="73" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4254,7 +4248,7 @@
       </c>
       <c r="F23" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Тестировщик1[100 %]</v>
+        <v>Тестировщик2[100 %]</v>
       </c>
       <c r="G23" s="74">
         <v>30</v>
@@ -4263,7 +4257,7 @@
         <v>100</v>
       </c>
       <c r="I23" s="73" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4346,6 +4340,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x0101001FBA738D46B8C545A6D67A5D9179E626" ma:contentTypeVersion="0" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="9f473e0b291382668614debc5d36aa4f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="02f955febea7e716b4e91cddba171100">
     <xsd:element name="properties">
@@ -4459,33 +4468,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D38F7E9-60F0-4769-BD1B-491B9D9189ED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B50A027-145D-4944-89ED-C0E81732859B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4506,9 +4492,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B50A027-145D-4944-89ED-C0E81732859B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D38F7E9-60F0-4769-BD1B-491B9D9189ED}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/test/Расшифровка ЭО BIQ5257.xlsx
+++ b/test/Расшифровка ЭО BIQ5257.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="171">
   <si>
     <t>Разработка</t>
   </si>
@@ -571,6 +571,15 @@
   </si>
   <si>
     <t>Тестировщик2</t>
+  </si>
+  <si>
+    <t>Таблица задач</t>
+  </si>
+  <si>
+    <t>Таблица скоринга</t>
+  </si>
+  <si>
+    <t>Группа ЦК</t>
   </si>
 </sst>
 </file>
@@ -693,6 +702,8 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -927,7 +938,7 @@
     <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="justify"/>
@@ -1165,6 +1176,9 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1194,6 +1208,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1816,11 +1833,11 @@
       <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:17" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
       <c r="D10" s="22" t="s">
         <v>51</v>
       </c>
@@ -1837,7 +1854,7 @@
       <c r="P10" s="5"/>
     </row>
     <row r="11" spans="1:17" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="93" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -1869,8 +1886,8 @@
       <c r="P11" s="5"/>
     </row>
     <row r="12" spans="1:17" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="92"/>
-      <c r="B12" s="90" t="s">
+      <c r="A12" s="93"/>
+      <c r="B12" s="91" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="68" t="s">
@@ -1899,8 +1916,8 @@
       <c r="P12" s="5"/>
     </row>
     <row r="13" spans="1:17" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="92"/>
-      <c r="B13" s="90"/>
+      <c r="A13" s="93"/>
+      <c r="B13" s="91"/>
       <c r="C13" s="30" t="s">
         <v>23</v>
       </c>
@@ -1927,8 +1944,8 @@
       <c r="P13" s="5"/>
     </row>
     <row r="14" spans="1:17" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="92"/>
-      <c r="B14" s="90" t="s">
+      <c r="A14" s="93"/>
+      <c r="B14" s="91" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="68" t="s">
@@ -1957,8 +1974,8 @@
       <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="92"/>
-      <c r="B15" s="90"/>
+      <c r="A15" s="93"/>
+      <c r="B15" s="91"/>
       <c r="C15" s="30" t="s">
         <v>6</v>
       </c>
@@ -1980,8 +1997,8 @@
       <c r="Q15" s="5"/>
     </row>
     <row r="16" spans="1:17" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="92"/>
-      <c r="B16" s="90" t="s">
+      <c r="A16" s="93"/>
+      <c r="B16" s="91" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="30" t="s">
@@ -2010,8 +2027,8 @@
       <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="1:17" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="92"/>
-      <c r="B17" s="90"/>
+      <c r="A17" s="93"/>
+      <c r="B17" s="91"/>
       <c r="C17" s="68" t="s">
         <v>7</v>
       </c>
@@ -2038,8 +2055,8 @@
       <c r="Q17" s="5"/>
     </row>
     <row r="18" spans="1:17" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="92"/>
-      <c r="B18" s="90" t="s">
+      <c r="A18" s="93"/>
+      <c r="B18" s="91" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -2068,8 +2085,8 @@
       <c r="Q18" s="5"/>
     </row>
     <row r="19" spans="1:17" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="92"/>
-      <c r="B19" s="90"/>
+      <c r="A19" s="93"/>
+      <c r="B19" s="91"/>
       <c r="C19" s="30" t="s">
         <v>30</v>
       </c>
@@ -2089,7 +2106,7 @@
       <c r="Q19" s="5"/>
     </row>
     <row r="20" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="92"/>
+      <c r="A20" s="93"/>
       <c r="B20" s="12" t="s">
         <v>31</v>
       </c>
@@ -2112,8 +2129,8 @@
       <c r="Q20" s="5"/>
     </row>
     <row r="21" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="92"/>
-      <c r="B21" s="90" t="s">
+      <c r="A21" s="93"/>
+      <c r="B21" s="91" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="30" t="s">
@@ -2135,8 +2152,8 @@
       <c r="Q21" s="5"/>
     </row>
     <row r="22" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="92"/>
-      <c r="B22" s="90"/>
+      <c r="A22" s="93"/>
+      <c r="B22" s="91"/>
       <c r="C22" s="30" t="s">
         <v>16</v>
       </c>
@@ -2156,7 +2173,7 @@
       <c r="Q22" s="5"/>
     </row>
     <row r="23" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="92"/>
+      <c r="A23" s="93"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9" t="s">
         <v>48</v>
@@ -2176,10 +2193,10 @@
       <c r="Q23" s="5"/>
     </row>
     <row r="24" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="91" t="s">
+      <c r="A24" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="92" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="31" t="s">
@@ -2202,8 +2219,8 @@
       <c r="Q24" s="5"/>
     </row>
     <row r="25" spans="1:17" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="91"/>
-      <c r="B25" s="91"/>
+      <c r="A25" s="92"/>
+      <c r="B25" s="92"/>
       <c r="C25" s="68" t="s">
         <v>37</v>
       </c>
@@ -2223,8 +2240,8 @@
       <c r="Q25" s="5"/>
     </row>
     <row r="26" spans="1:17" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="91"/>
-      <c r="B26" s="91"/>
+      <c r="A26" s="92"/>
+      <c r="B26" s="92"/>
       <c r="C26" s="31" t="s">
         <v>38</v>
       </c>
@@ -2245,7 +2262,7 @@
       <c r="Q26" s="5"/>
     </row>
     <row r="27" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="91"/>
+      <c r="A27" s="92"/>
       <c r="B27" s="10"/>
       <c r="C27" s="33" t="s">
         <v>47</v>
@@ -2496,52 +2513,52 @@
       <c r="B6" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="93" t="s">
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="93"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
       <c r="B7" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="93" t="s">
+      <c r="C7" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93" t="s">
+      <c r="D7" s="94"/>
+      <c r="E7" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93" t="s">
+      <c r="F7" s="94"/>
+      <c r="G7" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93" t="s">
+      <c r="H7" s="94"/>
+      <c r="I7" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93" t="s">
+      <c r="J7" s="94"/>
+      <c r="K7" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93" t="s">
+      <c r="L7" s="94"/>
+      <c r="M7" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="N7" s="93"/>
+      <c r="N7" s="94"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
@@ -2630,7 +2647,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="98" t="s">
+      <c r="A10" s="99" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="58" t="s">
@@ -2674,7 +2691,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="98"/>
+      <c r="A11" s="99"/>
       <c r="B11" s="58" t="s">
         <v>23</v>
       </c>
@@ -2716,7 +2733,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="98" t="s">
+      <c r="A12" s="99" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="58" t="s">
@@ -2760,7 +2777,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="98"/>
+      <c r="A13" s="99"/>
       <c r="B13" s="58" t="s">
         <v>6</v>
       </c>
@@ -2802,7 +2819,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="98" t="s">
+      <c r="A14" s="99" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="58" t="s">
@@ -2846,7 +2863,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="98"/>
+      <c r="A15" s="99"/>
       <c r="B15" s="58" t="s">
         <v>7</v>
       </c>
@@ -2888,7 +2905,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="98" t="s">
+      <c r="A16" s="99" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="58" t="s">
@@ -2932,7 +2949,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="98"/>
+      <c r="A17" s="99"/>
       <c r="B17" s="58" t="s">
         <v>30</v>
       </c>
@@ -3018,7 +3035,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="98" t="s">
+      <c r="A19" s="99" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="58" t="s">
@@ -3062,7 +3079,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="98"/>
+      <c r="A20" s="99"/>
       <c r="B20" s="58" t="s">
         <v>16</v>
       </c>
@@ -3158,7 +3175,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="97" t="s">
+      <c r="A22" s="98" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="55" t="s">
@@ -3202,7 +3219,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="97"/>
+      <c r="A23" s="98"/>
       <c r="B23" s="55" t="s">
         <v>37</v>
       </c>
@@ -3244,7 +3261,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="97"/>
+      <c r="A24" s="98"/>
       <c r="B24" s="55" t="s">
         <v>38</v>
       </c>
@@ -3639,15 +3656,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="216.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="61.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
@@ -3656,13 +3673,14 @@
     <col min="7" max="7" width="19.28515625" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="13" width="10" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
     <col min="14" max="15" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>166</v>
       </c>
@@ -3678,7 +3696,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>114</v>
       </c>
@@ -3699,7 +3717,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>163</v>
       </c>
@@ -3711,28 +3729,34 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="89" t="s">
+        <v>168</v>
+      </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="K6" s="44" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="79" t="s">
         <v>94</v>
       </c>
@@ -3760,8 +3784,17 @@
       <c r="I7" s="80" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="K7" s="79" t="s">
+        <v>170</v>
+      </c>
+      <c r="L7" s="100" t="s">
+        <v>114</v>
+      </c>
+      <c r="M7" s="79" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="77">
         <v>0</v>
       </c>
@@ -3789,8 +3822,17 @@
       <c r="I8" s="73" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K8" s="77">
+        <v>20</v>
+      </c>
+      <c r="L8" s="77">
+        <v>20</v>
+      </c>
+      <c r="M8" s="77">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="78">
         <v>1</v>
       </c>
@@ -3822,7 +3864,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="77">
         <v>2</v>
       </c>
@@ -3854,7 +3896,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="78">
         <v>3</v>
       </c>
@@ -3886,7 +3928,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="77">
         <v>4</v>
       </c>
@@ -3918,7 +3960,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="78">
         <v>5</v>
       </c>
@@ -3950,7 +3992,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="77">
         <v>6</v>
       </c>
@@ -3982,7 +4024,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="78">
         <v>7</v>
       </c>
@@ -4013,7 +4055,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="77">
         <v>8</v>
       </c>

--- a/test/Расшифровка ЭО BIQ5257.xlsx
+++ b/test/Расшифровка ЭО BIQ5257.xlsx
@@ -1179,6 +1179,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1208,9 +1211,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1729,7 +1729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -1833,11 +1833,11 @@
       <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:17" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
       <c r="D10" s="22" t="s">
         <v>51</v>
       </c>
@@ -1854,7 +1854,7 @@
       <c r="P10" s="5"/>
     </row>
     <row r="11" spans="1:17" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="94" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -1886,8 +1886,8 @@
       <c r="P11" s="5"/>
     </row>
     <row r="12" spans="1:17" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="93"/>
-      <c r="B12" s="91" t="s">
+      <c r="A12" s="94"/>
+      <c r="B12" s="92" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="68" t="s">
@@ -1916,8 +1916,8 @@
       <c r="P12" s="5"/>
     </row>
     <row r="13" spans="1:17" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="93"/>
-      <c r="B13" s="91"/>
+      <c r="A13" s="94"/>
+      <c r="B13" s="92"/>
       <c r="C13" s="30" t="s">
         <v>23</v>
       </c>
@@ -1944,8 +1944,8 @@
       <c r="P13" s="5"/>
     </row>
     <row r="14" spans="1:17" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="93"/>
-      <c r="B14" s="91" t="s">
+      <c r="A14" s="94"/>
+      <c r="B14" s="92" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="68" t="s">
@@ -1974,8 +1974,8 @@
       <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="93"/>
-      <c r="B15" s="91"/>
+      <c r="A15" s="94"/>
+      <c r="B15" s="92"/>
       <c r="C15" s="30" t="s">
         <v>6</v>
       </c>
@@ -1997,8 +1997,8 @@
       <c r="Q15" s="5"/>
     </row>
     <row r="16" spans="1:17" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="93"/>
-      <c r="B16" s="91" t="s">
+      <c r="A16" s="94"/>
+      <c r="B16" s="92" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="30" t="s">
@@ -2027,8 +2027,8 @@
       <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="1:17" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="93"/>
-      <c r="B17" s="91"/>
+      <c r="A17" s="94"/>
+      <c r="B17" s="92"/>
       <c r="C17" s="68" t="s">
         <v>7</v>
       </c>
@@ -2055,8 +2055,8 @@
       <c r="Q17" s="5"/>
     </row>
     <row r="18" spans="1:17" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="93"/>
-      <c r="B18" s="91" t="s">
+      <c r="A18" s="94"/>
+      <c r="B18" s="92" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -2085,8 +2085,8 @@
       <c r="Q18" s="5"/>
     </row>
     <row r="19" spans="1:17" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="93"/>
-      <c r="B19" s="91"/>
+      <c r="A19" s="94"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="30" t="s">
         <v>30</v>
       </c>
@@ -2106,7 +2106,7 @@
       <c r="Q19" s="5"/>
     </row>
     <row r="20" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="93"/>
+      <c r="A20" s="94"/>
       <c r="B20" s="12" t="s">
         <v>31</v>
       </c>
@@ -2129,8 +2129,8 @@
       <c r="Q20" s="5"/>
     </row>
     <row r="21" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="93"/>
-      <c r="B21" s="91" t="s">
+      <c r="A21" s="94"/>
+      <c r="B21" s="92" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="30" t="s">
@@ -2152,8 +2152,8 @@
       <c r="Q21" s="5"/>
     </row>
     <row r="22" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="93"/>
-      <c r="B22" s="91"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="92"/>
       <c r="C22" s="30" t="s">
         <v>16</v>
       </c>
@@ -2173,7 +2173,7 @@
       <c r="Q22" s="5"/>
     </row>
     <row r="23" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="93"/>
+      <c r="A23" s="94"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9" t="s">
         <v>48</v>
@@ -2193,10 +2193,10 @@
       <c r="Q23" s="5"/>
     </row>
     <row r="24" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="92" t="s">
+      <c r="A24" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="93" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="31" t="s">
@@ -2219,8 +2219,8 @@
       <c r="Q24" s="5"/>
     </row>
     <row r="25" spans="1:17" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="92"/>
-      <c r="B25" s="92"/>
+      <c r="A25" s="93"/>
+      <c r="B25" s="93"/>
       <c r="C25" s="68" t="s">
         <v>37</v>
       </c>
@@ -2240,8 +2240,8 @@
       <c r="Q25" s="5"/>
     </row>
     <row r="26" spans="1:17" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="92"/>
-      <c r="B26" s="92"/>
+      <c r="A26" s="93"/>
+      <c r="B26" s="93"/>
       <c r="C26" s="31" t="s">
         <v>38</v>
       </c>
@@ -2262,7 +2262,7 @@
       <c r="Q26" s="5"/>
     </row>
     <row r="27" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="92"/>
+      <c r="A27" s="93"/>
       <c r="B27" s="10"/>
       <c r="C27" s="33" t="s">
         <v>47</v>
@@ -2513,52 +2513,52 @@
       <c r="B6" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="94" t="s">
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
       <c r="B7" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94" t="s">
+      <c r="D7" s="95"/>
+      <c r="E7" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94" t="s">
+      <c r="F7" s="95"/>
+      <c r="G7" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94" t="s">
+      <c r="H7" s="95"/>
+      <c r="I7" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94" t="s">
+      <c r="J7" s="95"/>
+      <c r="K7" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94" t="s">
+      <c r="L7" s="95"/>
+      <c r="M7" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="N7" s="94"/>
+      <c r="N7" s="95"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
@@ -2647,7 +2647,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="100" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="58" t="s">
@@ -2691,7 +2691,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="99"/>
+      <c r="A11" s="100"/>
       <c r="B11" s="58" t="s">
         <v>23</v>
       </c>
@@ -2733,7 +2733,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="100" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="58" t="s">
@@ -2777,7 +2777,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="99"/>
+      <c r="A13" s="100"/>
       <c r="B13" s="58" t="s">
         <v>6</v>
       </c>
@@ -2819,7 +2819,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="99" t="s">
+      <c r="A14" s="100" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="58" t="s">
@@ -2863,7 +2863,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="99"/>
+      <c r="A15" s="100"/>
       <c r="B15" s="58" t="s">
         <v>7</v>
       </c>
@@ -2905,7 +2905,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="99" t="s">
+      <c r="A16" s="100" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="58" t="s">
@@ -2949,7 +2949,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="99"/>
+      <c r="A17" s="100"/>
       <c r="B17" s="58" t="s">
         <v>30</v>
       </c>
@@ -3035,7 +3035,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="99" t="s">
+      <c r="A19" s="100" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="58" t="s">
@@ -3079,7 +3079,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="99"/>
+      <c r="A20" s="100"/>
       <c r="B20" s="58" t="s">
         <v>16</v>
       </c>
@@ -3175,7 +3175,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="98" t="s">
+      <c r="A22" s="99" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="55" t="s">
@@ -3219,7 +3219,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="98"/>
+      <c r="A23" s="99"/>
       <c r="B23" s="55" t="s">
         <v>37</v>
       </c>
@@ -3261,7 +3261,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="98"/>
+      <c r="A24" s="99"/>
       <c r="B24" s="55" t="s">
         <v>38</v>
       </c>
@@ -3658,8 +3658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="216.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3787,7 +3787,7 @@
       <c r="K7" s="79" t="s">
         <v>170</v>
       </c>
-      <c r="L7" s="100" t="s">
+      <c r="L7" s="90" t="s">
         <v>114</v>
       </c>
       <c r="M7" s="79" t="s">
@@ -3950,8 +3950,7 @@
         <v>Аналитик1[5 %]</v>
       </c>
       <c r="G12" s="74">
-        <f>Оценка!D15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="73">
         <v>5</v>
@@ -4262,8 +4261,7 @@
         <v>Разработчик1[10 %]</v>
       </c>
       <c r="G22" s="74">
-        <f>Оценка!D19</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H22" s="73">
         <v>10</v>
@@ -4337,7 +4335,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="G16:G18 G19:G23" calculatedColumn="1"/>
+    <ignoredError sqref="G16:G18 G19:G21 G23" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -4382,21 +4380,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x0101001FBA738D46B8C545A6D67A5D9179E626" ma:contentTypeVersion="0" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="9f473e0b291382668614debc5d36aa4f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="02f955febea7e716b4e91cddba171100">
     <xsd:element name="properties">
@@ -4510,30 +4493,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B50A027-145D-4944-89ED-C0E81732859B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{676BF1D7-A4D9-4478-A8BA-91CF146DE1C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D38F7E9-60F0-4769-BD1B-491B9D9189ED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4547,4 +4522,27 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B50A027-145D-4944-89ED-C0E81732859B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{676BF1D7-A4D9-4478-A8BA-91CF146DE1C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/test/Расшифровка ЭО BIQ5257.xlsx
+++ b/test/Расшифровка ЭО BIQ5257.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="9435" tabRatio="735" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="9435" tabRatio="735" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Оценка" sheetId="25" r:id="rId1"/>
@@ -369,15 +369,9 @@
     <t>6;14#НО</t>
   </si>
   <si>
-    <t>12;10#ОО</t>
-  </si>
-  <si>
     <t>Проценты</t>
   </si>
   <si>
-    <t>12;16</t>
-  </si>
-  <si>
     <t>6#ОО;0#НН</t>
   </si>
   <si>
@@ -580,6 +574,12 @@
   </si>
   <si>
     <t>Группа ЦК</t>
+  </si>
+  <si>
+    <t>13;16</t>
+  </si>
+  <si>
+    <t>13;10#ОО</t>
   </si>
 </sst>
 </file>
@@ -832,7 +832,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -931,6 +931,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -938,7 +962,7 @@
     <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="justify"/>
@@ -1182,6 +1206,30 @@
     <xf numFmtId="0" fontId="15" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1194,6 +1242,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1205,12 +1259,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1729,8 +1777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1806,25 +1854,25 @@
     </row>
     <row r="6" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:17" s="75" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="88" t="s">
         <v>114</v>
-      </c>
-      <c r="C7" s="88" t="s">
-        <v>116</v>
       </c>
       <c r="P7" s="5"/>
     </row>
     <row r="8" spans="1:17" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C8" s="86"/>
       <c r="P8" s="5"/>
@@ -1833,11 +1881,11 @@
       <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:17" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="99"/>
       <c r="D10" s="22" t="s">
         <v>51</v>
       </c>
@@ -1854,7 +1902,7 @@
       <c r="P10" s="5"/>
     </row>
     <row r="11" spans="1:17" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="102" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -1874,20 +1922,20 @@
       </c>
       <c r="F11" s="49">
         <f>ROUND(D11,0)/$D$23</f>
-        <v>0.13008130081300814</v>
+        <v>0.12030075187969924</v>
       </c>
       <c r="I11" s="16" t="s">
         <v>8</v>
       </c>
       <c r="J11" s="41">
         <f>D23/8</f>
-        <v>15.375</v>
+        <v>16.625</v>
       </c>
       <c r="P11" s="5"/>
     </row>
     <row r="12" spans="1:17" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="94"/>
-      <c r="B12" s="92" t="s">
+      <c r="A12" s="102"/>
+      <c r="B12" s="100" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="68" t="s">
@@ -1904,7 +1952,7 @@
       </c>
       <c r="F12" s="49">
         <f t="shared" ref="F12:F22" si="0">ROUND(D12,0)/$D$23</f>
-        <v>4.065040650406504E-2</v>
+        <v>3.7593984962406013E-2</v>
       </c>
       <c r="I12" s="16" t="s">
         <v>0</v>
@@ -1916,8 +1964,8 @@
       <c r="P12" s="5"/>
     </row>
     <row r="13" spans="1:17" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="94"/>
-      <c r="B13" s="92"/>
+      <c r="A13" s="102"/>
+      <c r="B13" s="100"/>
       <c r="C13" s="30" t="s">
         <v>23</v>
       </c>
@@ -1932,20 +1980,20 @@
       </c>
       <c r="F13" s="49">
         <f t="shared" si="0"/>
-        <v>4.065040650406504E-2</v>
+        <v>3.7593984962406013E-2</v>
       </c>
       <c r="I13" s="17" t="s">
         <v>12</v>
       </c>
       <c r="J13" s="42">
         <f>SUM(J11:J12)</f>
-        <v>25.375</v>
+        <v>26.625</v>
       </c>
       <c r="P13" s="5"/>
     </row>
     <row r="14" spans="1:17" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="94"/>
-      <c r="B14" s="92" t="s">
+      <c r="A14" s="102"/>
+      <c r="B14" s="100" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="68" t="s">
@@ -1962,25 +2010,25 @@
       </c>
       <c r="F14" s="49">
         <f t="shared" si="0"/>
-        <v>7.3170731707317069E-2</v>
+        <v>6.7669172932330823E-2</v>
       </c>
       <c r="I14" s="16" t="s">
         <v>14</v>
       </c>
       <c r="J14" s="43">
         <f>J13*13000</f>
-        <v>329875</v>
+        <v>346125</v>
       </c>
       <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="94"/>
-      <c r="B15" s="92"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="100"/>
       <c r="C15" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E15" s="49">
         <f>IF(Справочники!$O$1=1,Справочники!$C13,  IF(Справочники!$O$1=2,Справочники!$D13,  IF(Справочники!$O$1=3,Справочники!$E13,  IF(Справочники!$O$1=4,Справочники!$F13, IF(Справочники!$O$1=5,Справочники!$G13, IF(Справочники!$O$1=6,Справочники!$H13,
@@ -1990,15 +2038,15 @@
       </c>
       <c r="F15" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.7593984962406013E-2</v>
       </c>
       <c r="I15" s="16"/>
       <c r="J15" s="41"/>
       <c r="Q15" s="5"/>
     </row>
     <row r="16" spans="1:17" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="94"/>
-      <c r="B16" s="92" t="s">
+      <c r="A16" s="102"/>
+      <c r="B16" s="100" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="30" t="s">
@@ -2015,7 +2063,7 @@
       </c>
       <c r="F16" s="49">
         <f t="shared" si="0"/>
-        <v>1.6260162601626018E-2</v>
+        <v>1.5037593984962405E-2</v>
       </c>
       <c r="I16" s="16" t="s">
         <v>9</v>
@@ -2027,8 +2075,8 @@
       <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="1:17" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="94"/>
-      <c r="B17" s="92"/>
+      <c r="A17" s="102"/>
+      <c r="B17" s="100"/>
       <c r="C17" s="68" t="s">
         <v>7</v>
       </c>
@@ -2043,7 +2091,7 @@
       </c>
       <c r="F17" s="49">
         <f t="shared" si="0"/>
-        <v>4.065040650406504E-2</v>
+        <v>3.7593984962406013E-2</v>
       </c>
       <c r="I17" s="16" t="s">
         <v>52</v>
@@ -2055,8 +2103,8 @@
       <c r="Q17" s="5"/>
     </row>
     <row r="18" spans="1:17" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="94"/>
-      <c r="B18" s="92" t="s">
+      <c r="A18" s="102"/>
+      <c r="B18" s="100" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -2073,7 +2121,7 @@
       </c>
       <c r="F18" s="49">
         <f t="shared" si="0"/>
-        <v>0.12195121951219512</v>
+        <v>0.11278195488721804</v>
       </c>
       <c r="I18" s="16" t="s">
         <v>13</v>
@@ -2085,13 +2133,13 @@
       <c r="Q18" s="5"/>
     </row>
     <row r="19" spans="1:17" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="94"/>
-      <c r="B19" s="92"/>
+      <c r="A19" s="102"/>
+      <c r="B19" s="100"/>
       <c r="C19" s="30" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E19" s="49">
         <f>IF(Справочники!$O$1=1,Справочники!$C17,  IF(Справочники!$O$1=2,Справочники!$D17,  IF(Справочники!$O$1=3,Справочники!$E17,  IF(Справочники!$O$1=4,Справочники!$F17, IF(Справочники!$O$1=5,Справочники!$G17, IF(Справочники!$O$1=6,Справочники!$H17,
@@ -2101,12 +2149,12 @@
       </c>
       <c r="F19" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.7593984962406013E-2</v>
       </c>
       <c r="Q19" s="5"/>
     </row>
     <row r="20" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="94"/>
+      <c r="A20" s="102"/>
       <c r="B20" s="12" t="s">
         <v>31</v>
       </c>
@@ -2124,13 +2172,13 @@
       </c>
       <c r="F20" s="49">
         <f t="shared" si="0"/>
-        <v>0.1951219512195122</v>
+        <v>0.18045112781954886</v>
       </c>
       <c r="Q20" s="5"/>
     </row>
     <row r="21" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="94"/>
-      <c r="B21" s="92" t="s">
+      <c r="A21" s="102"/>
+      <c r="B21" s="100" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="30" t="s">
@@ -2147,13 +2195,13 @@
       </c>
       <c r="F21" s="49">
         <f t="shared" si="0"/>
-        <v>0.28455284552845528</v>
+        <v>0.26315789473684209</v>
       </c>
       <c r="Q21" s="5"/>
     </row>
     <row r="22" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="94"/>
-      <c r="B22" s="92"/>
+      <c r="A22" s="102"/>
+      <c r="B22" s="100"/>
       <c r="C22" s="30" t="s">
         <v>16</v>
       </c>
@@ -2168,19 +2216,19 @@
       </c>
       <c r="F22" s="49">
         <f t="shared" si="0"/>
-        <v>5.6910569105691054E-2</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="Q22" s="5"/>
     </row>
     <row r="23" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="94"/>
+      <c r="A23" s="102"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9" t="s">
         <v>48</v>
       </c>
       <c r="D23" s="39">
         <f t="array" ref="D23">SUM(ROUND(D11:D22,0))</f>
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E23" s="50">
         <f>E11+E12+E13+E14+E15+E17+E16+E18+E19+E20+E21+E22</f>
@@ -2193,10 +2241,10 @@
       <c r="Q23" s="5"/>
     </row>
     <row r="24" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="93" t="s">
+      <c r="A24" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="101" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="31" t="s">
@@ -2219,8 +2267,8 @@
       <c r="Q24" s="5"/>
     </row>
     <row r="25" spans="1:17" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="93"/>
-      <c r="B25" s="93"/>
+      <c r="A25" s="101"/>
+      <c r="B25" s="101"/>
       <c r="C25" s="68" t="s">
         <v>37</v>
       </c>
@@ -2240,8 +2288,8 @@
       <c r="Q25" s="5"/>
     </row>
     <row r="26" spans="1:17" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="93"/>
-      <c r="B26" s="93"/>
+      <c r="A26" s="101"/>
+      <c r="B26" s="101"/>
       <c r="C26" s="31" t="s">
         <v>38</v>
       </c>
@@ -2262,7 +2310,7 @@
       <c r="Q26" s="5"/>
     </row>
     <row r="27" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="93"/>
+      <c r="A27" s="101"/>
       <c r="B27" s="10"/>
       <c r="C27" s="33" t="s">
         <v>47</v>
@@ -2289,7 +2337,7 @@
       </c>
       <c r="D28" s="29">
         <f>D23+D27</f>
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
@@ -2513,52 +2561,52 @@
       <c r="B6" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="95" t="s">
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="95"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
       <c r="B7" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95" t="s">
+      <c r="D7" s="105"/>
+      <c r="E7" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95" t="s">
+      <c r="F7" s="105"/>
+      <c r="G7" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95" t="s">
+      <c r="H7" s="105"/>
+      <c r="I7" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95" t="s">
+      <c r="J7" s="105"/>
+      <c r="K7" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95" t="s">
+      <c r="L7" s="105"/>
+      <c r="M7" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="N7" s="95"/>
+      <c r="N7" s="105"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
@@ -2647,7 +2695,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="100" t="s">
+      <c r="A10" s="104" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="58" t="s">
@@ -2691,7 +2739,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="100"/>
+      <c r="A11" s="104"/>
       <c r="B11" s="58" t="s">
         <v>23</v>
       </c>
@@ -2733,7 +2781,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="100" t="s">
+      <c r="A12" s="104" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="58" t="s">
@@ -2777,7 +2825,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="100"/>
+      <c r="A13" s="104"/>
       <c r="B13" s="58" t="s">
         <v>6</v>
       </c>
@@ -2819,7 +2867,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="100" t="s">
+      <c r="A14" s="104" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="58" t="s">
@@ -2863,7 +2911,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="100"/>
+      <c r="A15" s="104"/>
       <c r="B15" s="58" t="s">
         <v>7</v>
       </c>
@@ -2905,7 +2953,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="104" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="58" t="s">
@@ -2949,7 +2997,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="100"/>
+      <c r="A17" s="104"/>
       <c r="B17" s="58" t="s">
         <v>30</v>
       </c>
@@ -3035,7 +3083,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="100" t="s">
+      <c r="A19" s="104" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="58" t="s">
@@ -3079,7 +3127,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="100"/>
+      <c r="A20" s="104"/>
       <c r="B20" s="58" t="s">
         <v>16</v>
       </c>
@@ -3175,7 +3223,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="99" t="s">
+      <c r="A22" s="103" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="55" t="s">
@@ -3219,7 +3267,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="99"/>
+      <c r="A23" s="103"/>
       <c r="B23" s="55" t="s">
         <v>37</v>
       </c>
@@ -3261,7 +3309,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="99"/>
+      <c r="A24" s="103"/>
       <c r="B24" s="55" t="s">
         <v>38</v>
       </c>
@@ -3360,286 +3408,280 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="83" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B27" s="84" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="81" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B28" s="82" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="87" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B29" s="82" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="81" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B30" s="82" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="81" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B31" s="82" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="81" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B32" s="82" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="81" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B33" s="82" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="81" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B34" s="82" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" s="82" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" s="82" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="82" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B38" s="82" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" s="82" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" s="82" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B41" s="82" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" s="82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" s="82" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" s="82" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" s="82" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" s="82" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" s="82" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" s="82" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="82" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="82" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="82" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="82" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="2:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B53" s="82" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="82" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="82" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="82" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="82" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="82" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="82" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="82" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="82" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="82" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="82" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="82" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B65" s="82" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="82" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B67" s="82" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="82" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="82" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="82" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="82" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B72" s="82" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="82" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="82" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B75" s="82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B76" s="82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A19:A20"/>
     <mergeCell ref="I6:N6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
@@ -3648,6 +3690,12 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="C6:H6"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3658,8 +3706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="216.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3682,7 +3730,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B1" s="85" t="str">
         <f>Оценка!C6</f>
@@ -3698,7 +3746,7 @@
     </row>
     <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B2" s="85" t="str">
         <f>Оценка!C7</f>
@@ -3719,7 +3767,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B3" s="85" t="str">
         <f>IF(Оценка!C8="","",Оценка!C8)</f>
@@ -3745,7 +3793,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="89" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -3753,7 +3801,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="K6" s="44" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -3779,19 +3827,19 @@
         <v>98</v>
       </c>
       <c r="H7" s="80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I7" s="80" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K7" s="79" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L7" s="90" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M7" s="79" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -3820,7 +3868,7 @@
         <v>15</v>
       </c>
       <c r="I8" s="73" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K8" s="77">
         <v>20</v>
@@ -3861,7 +3909,7 @@
         <v>5</v>
       </c>
       <c r="I9" s="73" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -3893,7 +3941,7 @@
         <v>5</v>
       </c>
       <c r="I10" s="73" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -3925,7 +3973,7 @@
         <v>10</v>
       </c>
       <c r="I11" s="73" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -3950,13 +3998,14 @@
         <v>Аналитик1[5 %]</v>
       </c>
       <c r="G12" s="74">
-        <v>1</v>
+        <f>Оценка!D15</f>
+        <v>5</v>
       </c>
       <c r="H12" s="73">
         <v>5</v>
       </c>
       <c r="I12" s="73" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -3988,7 +4037,7 @@
         <v>5</v>
       </c>
       <c r="I13" s="73" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -4020,7 +4069,7 @@
         <v>10</v>
       </c>
       <c r="I14" s="73" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -4051,7 +4100,7 @@
         <v>10</v>
       </c>
       <c r="I15" s="73" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -4082,7 +4131,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="73" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4096,7 +4145,7 @@
         <v>89</v>
       </c>
       <c r="D17" s="76" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E17" s="75">
         <v>505</v>
@@ -4113,7 +4162,7 @@
         <v>15</v>
       </c>
       <c r="I17" s="73" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -4144,100 +4193,100 @@
         <v>5</v>
       </c>
       <c r="I18" s="73" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="78">
         <v>11</v>
       </c>
       <c r="B19" s="75" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C19" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="76" t="s">
-        <v>103</v>
+        <v>91</v>
+      </c>
+      <c r="D19" s="75" t="s">
+        <v>170</v>
       </c>
       <c r="E19" s="75">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="F19" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Разработчик1[30 %]</v>
+        <v>Аналитик1[33 %]</v>
       </c>
       <c r="G19" s="74">
-        <f>Оценка!D24</f>
-        <v>8</v>
+        <f>Оценка!D26</f>
+        <v>32</v>
       </c>
       <c r="H19" s="73">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I19" s="73" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="78">
         <v>12</v>
       </c>
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="96" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="96">
+        <v>508</v>
+      </c>
+      <c r="F20" s="96" t="str">
+        <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
+        <v>Разработчик1[30 %]</v>
+      </c>
+      <c r="G20" s="97">
+        <f>Оценка!D24</f>
+        <v>8</v>
+      </c>
+      <c r="H20" s="96">
+        <v>30</v>
+      </c>
+      <c r="I20" s="98" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="77">
+        <v>13</v>
+      </c>
+      <c r="B21" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="75" t="s">
+      <c r="C21" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="75">
+      <c r="D21" s="92">
         <v>6</v>
       </c>
-      <c r="E20" s="75">
+      <c r="E21" s="92">
         <v>509</v>
       </c>
-      <c r="F20" s="75" t="str">
+      <c r="F21" s="92" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Разработчик1[33 %]</v>
       </c>
-      <c r="G20" s="74">
+      <c r="G21" s="93">
         <f>Оценка!D25</f>
         <v>40</v>
       </c>
-      <c r="H20" s="73">
+      <c r="H21" s="92">
         <v>33</v>
       </c>
-      <c r="I20" s="73" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="77">
-        <v>13</v>
-      </c>
-      <c r="B21" s="75" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="75" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" s="75">
-        <v>510</v>
-      </c>
-      <c r="F21" s="75" t="str">
-        <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналитик1[33 %]</v>
-      </c>
-      <c r="G21" s="74">
-        <f>Оценка!D26</f>
-        <v>32</v>
-      </c>
-      <c r="H21" s="73">
-        <v>33</v>
-      </c>
-      <c r="I21" s="73" t="s">
-        <v>164</v>
+      <c r="I21" s="94" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4251,7 +4300,7 @@
         <v>87</v>
       </c>
       <c r="D22" s="75">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E22" s="75">
         <v>503</v>
@@ -4261,13 +4310,14 @@
         <v>Разработчик1[10 %]</v>
       </c>
       <c r="G22" s="74">
+        <f>Оценка!D19</f>
         <v>5</v>
       </c>
       <c r="H22" s="73">
         <v>10</v>
       </c>
       <c r="I22" s="73" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4281,7 +4331,7 @@
         <v>96</v>
       </c>
       <c r="D23" s="75" t="s">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="E23" s="75">
         <v>512</v>
@@ -4297,7 +4347,7 @@
         <v>100</v>
       </c>
       <c r="I23" s="73" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4335,7 +4385,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="G16:G18 G19:G21 G23" calculatedColumn="1"/>
+    <ignoredError sqref="G16:G18 G22:G24" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -4380,6 +4430,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x0101001FBA738D46B8C545A6D67A5D9179E626" ma:contentTypeVersion="0" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="9f473e0b291382668614debc5d36aa4f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="02f955febea7e716b4e91cddba171100">
     <xsd:element name="properties">
@@ -4493,22 +4558,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{676BF1D7-A4D9-4478-A8BA-91CF146DE1C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B50A027-145D-4944-89ED-C0E81732859B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D38F7E9-60F0-4769-BD1B-491B9D9189ED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4522,27 +4595,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B50A027-145D-4944-89ED-C0E81732859B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{676BF1D7-A4D9-4478-A8BA-91CF146DE1C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/test/Расшифровка ЭО BIQ5257.xlsx
+++ b/test/Расшифровка ЭО BIQ5257.xlsx
@@ -564,9 +564,6 @@
     <t>ГруппаЦК</t>
   </si>
   <si>
-    <t>Тестировщик2</t>
-  </si>
-  <si>
     <t>Таблица задач</t>
   </si>
   <si>
@@ -580,6 +577,9 @@
   </si>
   <si>
     <t>13;10#ОО</t>
+  </si>
+  <si>
+    <t>Тестировщик1</t>
   </si>
 </sst>
 </file>
@@ -1912,7 +1912,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="39">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="E11" s="49">
         <f>IF(Справочники!$O$1=1,Справочники!$C9,  IF(Справочники!$O$1=2,Справочники!$D9,  IF(Справочники!$O$1=3,Справочники!$E9,  IF(Справочники!$O$1=4,Справочники!$F9, IF(Справочники!$O$1=5,Справочники!$G9, IF(Справочники!$O$1=6,Справочники!$H9,
@@ -1922,14 +1922,14 @@
       </c>
       <c r="F11" s="49">
         <f>ROUND(D11,0)/$D$23</f>
-        <v>0.12030075187969924</v>
+        <v>0.30674846625766872</v>
       </c>
       <c r="I11" s="16" t="s">
         <v>8</v>
       </c>
       <c r="J11" s="41">
         <f>D23/8</f>
-        <v>16.625</v>
+        <v>20.375</v>
       </c>
       <c r="P11" s="5"/>
     </row>
@@ -1952,7 +1952,7 @@
       </c>
       <c r="F12" s="49">
         <f t="shared" ref="F12:F22" si="0">ROUND(D12,0)/$D$23</f>
-        <v>3.7593984962406013E-2</v>
+        <v>3.0674846625766871E-2</v>
       </c>
       <c r="I12" s="16" t="s">
         <v>0</v>
@@ -1980,14 +1980,14 @@
       </c>
       <c r="F13" s="49">
         <f t="shared" si="0"/>
-        <v>3.7593984962406013E-2</v>
+        <v>3.0674846625766871E-2</v>
       </c>
       <c r="I13" s="17" t="s">
         <v>12</v>
       </c>
       <c r="J13" s="42">
         <f>SUM(J11:J12)</f>
-        <v>26.625</v>
+        <v>30.375</v>
       </c>
       <c r="P13" s="5"/>
     </row>
@@ -2000,7 +2000,7 @@
         <v>24</v>
       </c>
       <c r="D14" s="40">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E14" s="49">
         <f>IF(Справочники!$O$1=1,Справочники!$C12,  IF(Справочники!$O$1=2,Справочники!$D12,  IF(Справочники!$O$1=3,Справочники!$E12,  IF(Справочники!$O$1=4,Справочники!$F12, IF(Справочники!$O$1=5,Справочники!$G12, IF(Справочники!$O$1=6,Справочники!$H12,
@@ -2010,14 +2010,14 @@
       </c>
       <c r="F14" s="49">
         <f t="shared" si="0"/>
-        <v>6.7669172932330823E-2</v>
+        <v>3.0674846625766871E-2</v>
       </c>
       <c r="I14" s="16" t="s">
         <v>14</v>
       </c>
       <c r="J14" s="43">
         <f>J13*13000</f>
-        <v>346125</v>
+        <v>394875</v>
       </c>
       <c r="Q14" s="5"/>
     </row>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="F15" s="49">
         <f t="shared" si="0"/>
-        <v>3.7593984962406013E-2</v>
+        <v>3.0674846625766871E-2</v>
       </c>
       <c r="I15" s="16"/>
       <c r="J15" s="41"/>
@@ -2063,7 +2063,7 @@
       </c>
       <c r="F16" s="49">
         <f t="shared" si="0"/>
-        <v>1.5037593984962405E-2</v>
+        <v>1.2269938650306749E-2</v>
       </c>
       <c r="I16" s="16" t="s">
         <v>9</v>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="F17" s="49">
         <f t="shared" si="0"/>
-        <v>3.7593984962406013E-2</v>
+        <v>3.0674846625766871E-2</v>
       </c>
       <c r="I17" s="16" t="s">
         <v>52</v>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="F18" s="49">
         <f t="shared" si="0"/>
-        <v>0.11278195488721804</v>
+        <v>9.202453987730061E-2</v>
       </c>
       <c r="I18" s="16" t="s">
         <v>13</v>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="F19" s="49">
         <f t="shared" si="0"/>
-        <v>3.7593984962406013E-2</v>
+        <v>3.0674846625766871E-2</v>
       </c>
       <c r="Q19" s="5"/>
     </row>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="F20" s="49">
         <f t="shared" si="0"/>
-        <v>0.18045112781954886</v>
+        <v>0.14723926380368099</v>
       </c>
       <c r="Q20" s="5"/>
     </row>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="F21" s="49">
         <f t="shared" si="0"/>
-        <v>0.26315789473684209</v>
+        <v>0.21472392638036811</v>
       </c>
       <c r="Q21" s="5"/>
     </row>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="F22" s="49">
         <f t="shared" si="0"/>
-        <v>5.2631578947368418E-2</v>
+        <v>4.2944785276073622E-2</v>
       </c>
       <c r="Q22" s="5"/>
     </row>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="D23" s="39">
         <f t="array" ref="D23">SUM(ROUND(D11:D22,0))</f>
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="E23" s="50">
         <f>E11+E12+E13+E14+E15+E17+E16+E18+E19+E20+E21+E22</f>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="D28" s="29">
         <f>D23+D27</f>
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
@@ -3707,7 +3707,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="216.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3793,7 +3793,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="89" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -3801,7 +3801,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="K6" s="44" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -3833,7 +3833,7 @@
         <v>103</v>
       </c>
       <c r="K7" s="79" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L7" s="90" t="s">
         <v>112</v>
@@ -3858,14 +3858,14 @@
       </c>
       <c r="F8" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналитик1[15 %]</v>
+        <v>Аналитик1[50 %]</v>
       </c>
       <c r="G8" s="74">
         <f>Оценка!D11</f>
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="H8" s="73">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="I8" s="73" t="s">
         <v>162</v>
@@ -3944,7 +3944,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="78">
         <v>3</v>
       </c>
@@ -3963,14 +3963,14 @@
       </c>
       <c r="F11" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналитик1[10 %]</v>
+        <v>Аналитик1[5 %]</v>
       </c>
       <c r="G11" s="74">
         <f>Оценка!D14</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H11" s="73">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I11" s="73" t="s">
         <v>162</v>
@@ -4207,7 +4207,7 @@
         <v>91</v>
       </c>
       <c r="D19" s="75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E19" s="75">
         <v>510</v>
@@ -4276,14 +4276,14 @@
       </c>
       <c r="F21" s="92" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Разработчик1[33 %]</v>
+        <v>Разработчик1[30 %]</v>
       </c>
       <c r="G21" s="93">
         <f>Оценка!D25</f>
         <v>40</v>
       </c>
       <c r="H21" s="92">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I21" s="94" t="s">
         <v>163</v>
@@ -4307,14 +4307,14 @@
       </c>
       <c r="F22" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Разработчик1[10 %]</v>
+        <v>Разработчик1[30 %]</v>
       </c>
       <c r="G22" s="74">
         <f>Оценка!D19</f>
         <v>5</v>
       </c>
-      <c r="H22" s="73">
-        <v>10</v>
+      <c r="H22" s="92">
+        <v>30</v>
       </c>
       <c r="I22" s="73" t="s">
         <v>163</v>
@@ -4331,14 +4331,14 @@
         <v>96</v>
       </c>
       <c r="D23" s="75" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E23" s="75">
         <v>512</v>
       </c>
       <c r="F23" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Тестировщик2[100 %]</v>
+        <v>Тестировщик1[100 %]</v>
       </c>
       <c r="G23" s="74">
         <v>30</v>
@@ -4346,8 +4346,8 @@
       <c r="H23" s="73">
         <v>100</v>
       </c>
-      <c r="I23" s="73" t="s">
-        <v>165</v>
+      <c r="I23" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4430,12 +4430,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4444,7 +4438,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x0101001FBA738D46B8C545A6D67A5D9179E626" ma:contentTypeVersion="0" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="9f473e0b291382668614debc5d36aa4f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="02f955febea7e716b4e91cddba171100">
     <xsd:element name="properties">
@@ -4558,22 +4552,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{676BF1D7-A4D9-4478-A8BA-91CF146DE1C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B50A027-145D-4944-89ED-C0E81732859B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -4581,7 +4566,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D38F7E9-60F0-4769-BD1B-491B9D9189ED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4595,4 +4580,19 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{676BF1D7-A4D9-4478-A8BA-91CF146DE1C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/test/Расшифровка ЭО BIQ5257.xlsx
+++ b/test/Расшифровка ЭО BIQ5257.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="9435" tabRatio="735" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="9435" tabRatio="735" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Оценка" sheetId="25" r:id="rId1"/>
@@ -1778,7 +1778,7 @@
   <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1912,7 +1912,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="39">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E11" s="49">
         <f>IF(Справочники!$O$1=1,Справочники!$C9,  IF(Справочники!$O$1=2,Справочники!$D9,  IF(Справочники!$O$1=3,Справочники!$E9,  IF(Справочники!$O$1=4,Справочники!$F9, IF(Справочники!$O$1=5,Справочники!$G9, IF(Справочники!$O$1=6,Справочники!$H9,
@@ -1922,14 +1922,14 @@
       </c>
       <c r="F11" s="49">
         <f>ROUND(D11,0)/$D$23</f>
-        <v>0.30674846625766872</v>
+        <v>0.29813664596273293</v>
       </c>
       <c r="I11" s="16" t="s">
         <v>8</v>
       </c>
       <c r="J11" s="41">
         <f>D23/8</f>
-        <v>20.375</v>
+        <v>20.125</v>
       </c>
       <c r="P11" s="5"/>
     </row>
@@ -1952,7 +1952,7 @@
       </c>
       <c r="F12" s="49">
         <f t="shared" ref="F12:F22" si="0">ROUND(D12,0)/$D$23</f>
-        <v>3.0674846625766871E-2</v>
+        <v>3.1055900621118012E-2</v>
       </c>
       <c r="I12" s="16" t="s">
         <v>0</v>
@@ -1980,14 +1980,14 @@
       </c>
       <c r="F13" s="49">
         <f t="shared" si="0"/>
-        <v>3.0674846625766871E-2</v>
+        <v>3.1055900621118012E-2</v>
       </c>
       <c r="I13" s="17" t="s">
         <v>12</v>
       </c>
       <c r="J13" s="42">
         <f>SUM(J11:J12)</f>
-        <v>30.375</v>
+        <v>30.125</v>
       </c>
       <c r="P13" s="5"/>
     </row>
@@ -2010,14 +2010,14 @@
       </c>
       <c r="F14" s="49">
         <f t="shared" si="0"/>
-        <v>3.0674846625766871E-2</v>
+        <v>3.1055900621118012E-2</v>
       </c>
       <c r="I14" s="16" t="s">
         <v>14</v>
       </c>
       <c r="J14" s="43">
         <f>J13*13000</f>
-        <v>394875</v>
+        <v>391625</v>
       </c>
       <c r="Q14" s="5"/>
     </row>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="F15" s="49">
         <f t="shared" si="0"/>
-        <v>3.0674846625766871E-2</v>
+        <v>3.1055900621118012E-2</v>
       </c>
       <c r="I15" s="16"/>
       <c r="J15" s="41"/>
@@ -2063,7 +2063,7 @@
       </c>
       <c r="F16" s="49">
         <f t="shared" si="0"/>
-        <v>1.2269938650306749E-2</v>
+        <v>1.2422360248447204E-2</v>
       </c>
       <c r="I16" s="16" t="s">
         <v>9</v>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="F17" s="49">
         <f t="shared" si="0"/>
-        <v>3.0674846625766871E-2</v>
+        <v>3.1055900621118012E-2</v>
       </c>
       <c r="I17" s="16" t="s">
         <v>52</v>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="F18" s="49">
         <f t="shared" si="0"/>
-        <v>9.202453987730061E-2</v>
+        <v>9.3167701863354033E-2</v>
       </c>
       <c r="I18" s="16" t="s">
         <v>13</v>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="F19" s="49">
         <f t="shared" si="0"/>
-        <v>3.0674846625766871E-2</v>
+        <v>3.1055900621118012E-2</v>
       </c>
       <c r="Q19" s="5"/>
     </row>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="F20" s="49">
         <f t="shared" si="0"/>
-        <v>0.14723926380368099</v>
+        <v>0.14906832298136646</v>
       </c>
       <c r="Q20" s="5"/>
     </row>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="F21" s="49">
         <f t="shared" si="0"/>
-        <v>0.21472392638036811</v>
+        <v>0.21739130434782608</v>
       </c>
       <c r="Q21" s="5"/>
     </row>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="F22" s="49">
         <f t="shared" si="0"/>
-        <v>4.2944785276073622E-2</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="Q22" s="5"/>
     </row>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="D23" s="39">
         <f t="array" ref="D23">SUM(ROUND(D11:D22,0))</f>
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E23" s="50">
         <f>E11+E12+E13+E14+E15+E17+E16+E18+E19+E20+E21+E22</f>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="D28" s="29">
         <f>D23+D27</f>
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
@@ -3707,7 +3707,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="216.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3862,7 +3862,7 @@
       </c>
       <c r="G8" s="74">
         <f>Оценка!D11</f>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H8" s="73">
         <v>50</v>
@@ -4276,14 +4276,14 @@
       </c>
       <c r="F21" s="92" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Разработчик1[30 %]</v>
+        <v>Разработчик1[50 %]</v>
       </c>
       <c r="G21" s="93">
         <f>Оценка!D25</f>
         <v>40</v>
       </c>
       <c r="H21" s="92">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I21" s="94" t="s">
         <v>163</v>
@@ -4430,15 +4430,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x0101001FBA738D46B8C545A6D67A5D9179E626" ma:contentTypeVersion="0" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="9f473e0b291382668614debc5d36aa4f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="02f955febea7e716b4e91cddba171100">
     <xsd:element name="properties">
@@ -4552,21 +4543,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B50A027-145D-4944-89ED-C0E81732859B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D38F7E9-60F0-4769-BD1B-491B9D9189ED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4582,7 +4574,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{676BF1D7-A4D9-4478-A8BA-91CF146DE1C8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -4595,4 +4587,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B50A027-145D-4944-89ED-C0E81732859B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/test/Расшифровка ЭО BIQ5257.xlsx
+++ b/test/Расшифровка ЭО BIQ5257.xlsx
@@ -1242,23 +1242,23 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2561,52 +2561,52 @@
       <c r="B6" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="105" t="s">
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="105"/>
-      <c r="N6" s="105"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
       <c r="B7" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105" t="s">
+      <c r="D7" s="103"/>
+      <c r="E7" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105" t="s">
+      <c r="F7" s="103"/>
+      <c r="G7" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105" t="s">
+      <c r="H7" s="103"/>
+      <c r="I7" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105" t="s">
+      <c r="J7" s="103"/>
+      <c r="K7" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105" t="s">
+      <c r="L7" s="103"/>
+      <c r="M7" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="N7" s="105"/>
+      <c r="N7" s="103"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
@@ -2695,7 +2695,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="108" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="58" t="s">
@@ -2739,7 +2739,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="104"/>
+      <c r="A11" s="108"/>
       <c r="B11" s="58" t="s">
         <v>23</v>
       </c>
@@ -2781,7 +2781,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="104" t="s">
+      <c r="A12" s="108" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="58" t="s">
@@ -2825,7 +2825,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="104"/>
+      <c r="A13" s="108"/>
       <c r="B13" s="58" t="s">
         <v>6</v>
       </c>
@@ -2867,7 +2867,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="104" t="s">
+      <c r="A14" s="108" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="58" t="s">
@@ -2911,7 +2911,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="104"/>
+      <c r="A15" s="108"/>
       <c r="B15" s="58" t="s">
         <v>7</v>
       </c>
@@ -2953,7 +2953,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="104" t="s">
+      <c r="A16" s="108" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="58" t="s">
@@ -2997,7 +2997,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="104"/>
+      <c r="A17" s="108"/>
       <c r="B17" s="58" t="s">
         <v>30</v>
       </c>
@@ -3083,7 +3083,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="104" t="s">
+      <c r="A19" s="108" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="58" t="s">
@@ -3127,7 +3127,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="104"/>
+      <c r="A20" s="108"/>
       <c r="B20" s="58" t="s">
         <v>16</v>
       </c>
@@ -3223,7 +3223,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="103" t="s">
+      <c r="A22" s="107" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="55" t="s">
@@ -3267,7 +3267,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="103"/>
+      <c r="A23" s="107"/>
       <c r="B23" s="55" t="s">
         <v>37</v>
       </c>
@@ -3309,7 +3309,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="103"/>
+      <c r="A24" s="107"/>
       <c r="B24" s="55" t="s">
         <v>38</v>
       </c>
@@ -3682,6 +3682,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A19:A20"/>
     <mergeCell ref="I6:N6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
@@ -3690,12 +3696,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="C6:H6"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3706,8 +3706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D19" sqref="A19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="216.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3880,7 +3880,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="78">
         <v>1</v>
       </c>
@@ -3899,20 +3899,20 @@
       </c>
       <c r="F9" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналитик1[5 %]</v>
+        <v>Аналитик1[20 %]</v>
       </c>
       <c r="G9" s="74">
         <f>Оценка!D12</f>
         <v>5</v>
       </c>
       <c r="H9" s="73">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I9" s="73" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="77">
         <v>2</v>
       </c>
@@ -3931,20 +3931,20 @@
       </c>
       <c r="F10" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналитик1[5 %]</v>
+        <v>Аналитик1[20 %]</v>
       </c>
       <c r="G10" s="74">
         <f>Оценка!D13</f>
         <v>5</v>
       </c>
       <c r="H10" s="73">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I10" s="73" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="78">
         <v>3</v>
       </c>
@@ -3963,20 +3963,20 @@
       </c>
       <c r="F11" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналитик1[5 %]</v>
+        <v>Аналитик1[20 %]</v>
       </c>
       <c r="G11" s="74">
         <f>Оценка!D14</f>
         <v>5</v>
       </c>
       <c r="H11" s="73">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I11" s="73" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="77">
         <v>4</v>
       </c>
@@ -3995,20 +3995,20 @@
       </c>
       <c r="F12" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналитик1[5 %]</v>
+        <v>Аналитик1[20 %]</v>
       </c>
       <c r="G12" s="74">
         <f>Оценка!D15</f>
         <v>5</v>
       </c>
       <c r="H12" s="73">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I12" s="73" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="78">
         <v>5</v>
       </c>
@@ -4027,14 +4027,14 @@
       </c>
       <c r="F13" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналитик1[5 %]</v>
+        <v>Аналитик1[20 %]</v>
       </c>
       <c r="G13" s="74">
         <f>Оценка!D16</f>
         <v>2</v>
       </c>
       <c r="H13" s="73">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I13" s="73" t="s">
         <v>162</v>
@@ -4059,14 +4059,14 @@
       </c>
       <c r="F14" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналитик1[10 %]</v>
+        <v>Аналитик1[20 %]</v>
       </c>
       <c r="G14" s="74">
         <f>Оценка!D17</f>
         <v>5</v>
       </c>
       <c r="H14" s="73">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I14" s="73" t="s">
         <v>162</v>
@@ -4090,20 +4090,20 @@
       </c>
       <c r="F15" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналитик1[10 %]</v>
+        <v>Аналитик1[20 %]</v>
       </c>
       <c r="G15" s="74">
         <f>Оценка!D18</f>
         <v>15</v>
       </c>
       <c r="H15" s="73">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I15" s="73" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="77">
         <v>8</v>
       </c>
@@ -4121,14 +4121,14 @@
       </c>
       <c r="F16" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналитик1[5 %]</v>
+        <v>Аналитик1[20 %]</v>
       </c>
       <c r="G16" s="74">
         <f>Оценка!D20</f>
         <v>24</v>
       </c>
       <c r="H16" s="73">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I16" s="73" t="s">
         <v>162</v>
@@ -4152,20 +4152,20 @@
       </c>
       <c r="F17" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналитик1[15 %]</v>
+        <v>Аналитик1[20 %]</v>
       </c>
       <c r="G17" s="74">
         <f>Оценка!D21</f>
         <v>35</v>
       </c>
       <c r="H17" s="73">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I17" s="73" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="77">
         <v>10</v>
       </c>
@@ -4183,14 +4183,14 @@
       </c>
       <c r="F18" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналитик1[5 %]</v>
+        <v>Аналитик1[20 %]</v>
       </c>
       <c r="G18" s="74">
         <f>Оценка!D22</f>
         <v>7</v>
       </c>
       <c r="H18" s="73">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I18" s="73" t="s">
         <v>162</v>
@@ -4214,14 +4214,14 @@
       </c>
       <c r="F19" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Аналитик1[33 %]</v>
+        <v>Аналитик1[20 %]</v>
       </c>
       <c r="G19" s="74">
         <f>Оценка!D26</f>
         <v>32</v>
       </c>
       <c r="H19" s="73">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I19" s="73" t="s">
         <v>162</v>
@@ -4245,14 +4245,14 @@
       </c>
       <c r="F20" s="96" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Разработчик1[30 %]</v>
+        <v>Разработчик1[20 %]</v>
       </c>
       <c r="G20" s="97">
         <f>Оценка!D24</f>
         <v>8</v>
       </c>
       <c r="H20" s="96">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I20" s="98" t="s">
         <v>163</v>
@@ -4307,14 +4307,14 @@
       </c>
       <c r="F22" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Разработчик1[30 %]</v>
+        <v>Разработчик1[20 %]</v>
       </c>
       <c r="G22" s="74">
         <f>Оценка!D19</f>
         <v>5</v>
       </c>
       <c r="H22" s="92">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I22" s="73" t="s">
         <v>163</v>
@@ -4338,13 +4338,13 @@
       </c>
       <c r="F23" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Тестировщик1[100 %]</v>
+        <v>Тестировщик1[50 %]</v>
       </c>
       <c r="G23" s="74">
         <v>30</v>
       </c>
       <c r="H23" s="73">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>170</v>
@@ -4368,14 +4368,14 @@
       </c>
       <c r="F24" s="75" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
-        <v>Подрядчик[100 %]</v>
+        <v>Подрядчик[50 %]</v>
       </c>
       <c r="G24" s="74">
         <f>Оценка!D29</f>
         <v>50</v>
       </c>
       <c r="H24" s="73">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I24" s="73" t="s">
         <v>33</v>
@@ -4544,18 +4544,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4575,6 +4575,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B50A027-145D-4944-89ED-C0E81732859B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{676BF1D7-A4D9-4478-A8BA-91CF146DE1C8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -4587,12 +4595,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B50A027-145D-4944-89ED-C0E81732859B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/test/Расшифровка ЭО BIQ5257.xlsx
+++ b/test/Расшифровка ЭО BIQ5257.xlsx
@@ -962,7 +962,7 @@
     <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="justify"/>
@@ -1242,6 +1242,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1254,11 +1260,8 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2561,52 +2564,52 @@
       <c r="B6" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="103" t="s">
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
       <c r="B7" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="103" t="s">
+      <c r="C7" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103" t="s">
+      <c r="D7" s="105"/>
+      <c r="E7" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103" t="s">
+      <c r="F7" s="105"/>
+      <c r="G7" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103" t="s">
+      <c r="H7" s="105"/>
+      <c r="I7" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103" t="s">
+      <c r="J7" s="105"/>
+      <c r="K7" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103" t="s">
+      <c r="L7" s="105"/>
+      <c r="M7" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="N7" s="103"/>
+      <c r="N7" s="105"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
@@ -2695,7 +2698,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="104" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="58" t="s">
@@ -2739,7 +2742,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="108"/>
+      <c r="A11" s="104"/>
       <c r="B11" s="58" t="s">
         <v>23</v>
       </c>
@@ -2781,7 +2784,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="104" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="58" t="s">
@@ -2825,7 +2828,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="108"/>
+      <c r="A13" s="104"/>
       <c r="B13" s="58" t="s">
         <v>6</v>
       </c>
@@ -2867,7 +2870,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="104" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="58" t="s">
@@ -2911,7 +2914,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="108"/>
+      <c r="A15" s="104"/>
       <c r="B15" s="58" t="s">
         <v>7</v>
       </c>
@@ -2953,7 +2956,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="104" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="58" t="s">
@@ -2997,7 +3000,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="108"/>
+      <c r="A17" s="104"/>
       <c r="B17" s="58" t="s">
         <v>30</v>
       </c>
@@ -3083,7 +3086,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="108" t="s">
+      <c r="A19" s="104" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="58" t="s">
@@ -3127,7 +3130,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="108"/>
+      <c r="A20" s="104"/>
       <c r="B20" s="58" t="s">
         <v>16</v>
       </c>
@@ -3223,7 +3226,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="107" t="s">
+      <c r="A22" s="103" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="55" t="s">
@@ -3267,7 +3270,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="107"/>
+      <c r="A23" s="103"/>
       <c r="B23" s="55" t="s">
         <v>37</v>
       </c>
@@ -3309,7 +3312,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="107"/>
+      <c r="A24" s="103"/>
       <c r="B24" s="55" t="s">
         <v>38</v>
       </c>
@@ -3682,12 +3685,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A19:A20"/>
     <mergeCell ref="I6:N6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
@@ -3696,6 +3693,12 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="C6:H6"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3706,8 +3709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D19" sqref="A19:D19"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="216.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3846,7 +3849,7 @@
       <c r="A8" s="77">
         <v>0</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="109" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="75" t="s">
@@ -4430,6 +4433,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x0101001FBA738D46B8C545A6D67A5D9179E626" ma:contentTypeVersion="0" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="9f473e0b291382668614debc5d36aa4f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="02f955febea7e716b4e91cddba171100">
     <xsd:element name="properties">
@@ -4543,15 +4555,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4559,6 +4562,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B50A027-145D-4944-89ED-C0E81732859B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D38F7E9-60F0-4769-BD1B-491B9D9189ED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4570,14 +4581,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B50A027-145D-4944-89ED-C0E81732859B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/test/Расшифровка ЭО BIQ5257.xlsx
+++ b/test/Расшифровка ЭО BIQ5257.xlsx
@@ -1230,6 +1230,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1242,26 +1245,23 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1884,11 +1884,11 @@
       <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:17" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="99"/>
-      <c r="C10" s="99"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="100"/>
       <c r="D10" s="22" t="s">
         <v>51</v>
       </c>
@@ -1905,7 +1905,7 @@
       <c r="P10" s="5"/>
     </row>
     <row r="11" spans="1:17" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="103" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -1937,8 +1937,8 @@
       <c r="P11" s="5"/>
     </row>
     <row r="12" spans="1:17" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="102"/>
-      <c r="B12" s="100" t="s">
+      <c r="A12" s="103"/>
+      <c r="B12" s="101" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="68" t="s">
@@ -1967,8 +1967,8 @@
       <c r="P12" s="5"/>
     </row>
     <row r="13" spans="1:17" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="102"/>
-      <c r="B13" s="100"/>
+      <c r="A13" s="103"/>
+      <c r="B13" s="101"/>
       <c r="C13" s="30" t="s">
         <v>23</v>
       </c>
@@ -1995,8 +1995,8 @@
       <c r="P13" s="5"/>
     </row>
     <row r="14" spans="1:17" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="102"/>
-      <c r="B14" s="100" t="s">
+      <c r="A14" s="103"/>
+      <c r="B14" s="101" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="68" t="s">
@@ -2025,8 +2025,8 @@
       <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="102"/>
-      <c r="B15" s="100"/>
+      <c r="A15" s="103"/>
+      <c r="B15" s="101"/>
       <c r="C15" s="30" t="s">
         <v>6</v>
       </c>
@@ -2048,8 +2048,8 @@
       <c r="Q15" s="5"/>
     </row>
     <row r="16" spans="1:17" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="102"/>
-      <c r="B16" s="100" t="s">
+      <c r="A16" s="103"/>
+      <c r="B16" s="101" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="30" t="s">
@@ -2078,8 +2078,8 @@
       <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="1:17" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="102"/>
-      <c r="B17" s="100"/>
+      <c r="A17" s="103"/>
+      <c r="B17" s="101"/>
       <c r="C17" s="68" t="s">
         <v>7</v>
       </c>
@@ -2106,8 +2106,8 @@
       <c r="Q17" s="5"/>
     </row>
     <row r="18" spans="1:17" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="102"/>
-      <c r="B18" s="100" t="s">
+      <c r="A18" s="103"/>
+      <c r="B18" s="101" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -2136,8 +2136,8 @@
       <c r="Q18" s="5"/>
     </row>
     <row r="19" spans="1:17" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="102"/>
-      <c r="B19" s="100"/>
+      <c r="A19" s="103"/>
+      <c r="B19" s="101"/>
       <c r="C19" s="30" t="s">
         <v>30</v>
       </c>
@@ -2157,7 +2157,7 @@
       <c r="Q19" s="5"/>
     </row>
     <row r="20" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="102"/>
+      <c r="A20" s="103"/>
       <c r="B20" s="12" t="s">
         <v>31</v>
       </c>
@@ -2180,8 +2180,8 @@
       <c r="Q20" s="5"/>
     </row>
     <row r="21" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="102"/>
-      <c r="B21" s="100" t="s">
+      <c r="A21" s="103"/>
+      <c r="B21" s="101" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="30" t="s">
@@ -2203,8 +2203,8 @@
       <c r="Q21" s="5"/>
     </row>
     <row r="22" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="102"/>
-      <c r="B22" s="100"/>
+      <c r="A22" s="103"/>
+      <c r="B22" s="101"/>
       <c r="C22" s="30" t="s">
         <v>16</v>
       </c>
@@ -2224,7 +2224,7 @@
       <c r="Q22" s="5"/>
     </row>
     <row r="23" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="102"/>
+      <c r="A23" s="103"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9" t="s">
         <v>48</v>
@@ -2244,10 +2244,10 @@
       <c r="Q23" s="5"/>
     </row>
     <row r="24" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="101" t="s">
+      <c r="A24" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="101" t="s">
+      <c r="B24" s="102" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="31" t="s">
@@ -2270,8 +2270,8 @@
       <c r="Q24" s="5"/>
     </row>
     <row r="25" spans="1:17" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="101"/>
-      <c r="B25" s="101"/>
+      <c r="A25" s="102"/>
+      <c r="B25" s="102"/>
       <c r="C25" s="68" t="s">
         <v>37</v>
       </c>
@@ -2291,8 +2291,8 @@
       <c r="Q25" s="5"/>
     </row>
     <row r="26" spans="1:17" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="101"/>
-      <c r="B26" s="101"/>
+      <c r="A26" s="102"/>
+      <c r="B26" s="102"/>
       <c r="C26" s="31" t="s">
         <v>38</v>
       </c>
@@ -2313,7 +2313,7 @@
       <c r="Q26" s="5"/>
     </row>
     <row r="27" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="101"/>
+      <c r="A27" s="102"/>
       <c r="B27" s="10"/>
       <c r="C27" s="33" t="s">
         <v>47</v>
@@ -2564,52 +2564,52 @@
       <c r="B6" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="105" t="s">
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="105"/>
-      <c r="N6" s="105"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
       <c r="B7" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105" t="s">
+      <c r="D7" s="104"/>
+      <c r="E7" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105" t="s">
+      <c r="F7" s="104"/>
+      <c r="G7" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105" t="s">
+      <c r="H7" s="104"/>
+      <c r="I7" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105" t="s">
+      <c r="J7" s="104"/>
+      <c r="K7" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105" t="s">
+      <c r="L7" s="104"/>
+      <c r="M7" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="N7" s="105"/>
+      <c r="N7" s="104"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
@@ -2698,7 +2698,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="109" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="58" t="s">
@@ -2742,7 +2742,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="104"/>
+      <c r="A11" s="109"/>
       <c r="B11" s="58" t="s">
         <v>23</v>
       </c>
@@ -2784,7 +2784,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="104" t="s">
+      <c r="A12" s="109" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="58" t="s">
@@ -2828,7 +2828,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="104"/>
+      <c r="A13" s="109"/>
       <c r="B13" s="58" t="s">
         <v>6</v>
       </c>
@@ -2870,7 +2870,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="104" t="s">
+      <c r="A14" s="109" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="58" t="s">
@@ -2914,7 +2914,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="104"/>
+      <c r="A15" s="109"/>
       <c r="B15" s="58" t="s">
         <v>7</v>
       </c>
@@ -2956,7 +2956,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="104" t="s">
+      <c r="A16" s="109" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="58" t="s">
@@ -3000,7 +3000,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="104"/>
+      <c r="A17" s="109"/>
       <c r="B17" s="58" t="s">
         <v>30</v>
       </c>
@@ -3086,7 +3086,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="104" t="s">
+      <c r="A19" s="109" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="58" t="s">
@@ -3130,7 +3130,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="104"/>
+      <c r="A20" s="109"/>
       <c r="B20" s="58" t="s">
         <v>16</v>
       </c>
@@ -3226,7 +3226,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="103" t="s">
+      <c r="A22" s="108" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="55" t="s">
@@ -3270,7 +3270,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="103"/>
+      <c r="A23" s="108"/>
       <c r="B23" s="55" t="s">
         <v>37</v>
       </c>
@@ -3312,7 +3312,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="103"/>
+      <c r="A24" s="108"/>
       <c r="B24" s="55" t="s">
         <v>38</v>
       </c>
@@ -3685,6 +3685,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A19:A20"/>
     <mergeCell ref="I6:N6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
@@ -3693,12 +3699,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="C6:H6"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3710,7 +3710,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="216.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3849,7 +3849,7 @@
       <c r="A8" s="77">
         <v>0</v>
       </c>
-      <c r="B8" s="109" t="s">
+      <c r="B8" s="99" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="75" t="s">
@@ -4433,12 +4433,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4556,15 +4553,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B50A027-145D-4944-89ED-C0E81732859B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{676BF1D7-A4D9-4478-A8BA-91CF146DE1C8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4586,16 +4593,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{676BF1D7-A4D9-4478-A8BA-91CF146DE1C8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B50A027-145D-4944-89ED-C0E81732859B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/test/Расшифровка ЭО BIQ5257.xlsx
+++ b/test/Расшифровка ЭО BIQ5257.xlsx
@@ -3710,7 +3710,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="216.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4433,12 +4433,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x0101001FBA738D46B8C545A6D67A5D9179E626" ma:contentTypeVersion="0" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="9f473e0b291382668614debc5d36aa4f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="02f955febea7e716b4e91cddba171100">
     <xsd:element name="properties">
@@ -4552,7 +4546,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4561,22 +4555,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{676BF1D7-A4D9-4478-A8BA-91CF146DE1C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D38F7E9-60F0-4769-BD1B-491B9D9189ED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4592,10 +4577,25 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B50A027-145D-4944-89ED-C0E81732859B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{676BF1D7-A4D9-4478-A8BA-91CF146DE1C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>